--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459FFB59-F5BB-413E-8FB4-7E8D73A360C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCEE21-8CC9-4321-B9A7-3705C151BB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original size" sheetId="1" r:id="rId1"/>
-    <sheet name="Size 224" sheetId="2" r:id="rId2"/>
-    <sheet name="Taul3" sheetId="3" r:id="rId3"/>
+    <sheet name="List of models" sheetId="4" r:id="rId1"/>
+    <sheet name="Combined results" sheetId="5" r:id="rId2"/>
+    <sheet name="Size 224" sheetId="2" r:id="rId3"/>
+    <sheet name="Original size" sheetId="1" r:id="rId4"/>
+    <sheet name="Taul3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
   <si>
     <t>Speed (ms)</t>
   </si>
@@ -75,6 +77,129 @@
   </si>
   <si>
     <t>mAP local</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>CenterNet HourGlass104 512x512</t>
+  </si>
+  <si>
+    <t>Boxes</t>
+  </si>
+  <si>
+    <t>CenterNet HourGlass104 Keypoints 512x512</t>
+  </si>
+  <si>
+    <t>CenterNet HourGlass104 1024x1024</t>
+  </si>
+  <si>
+    <t>CenterNet HourGlass104 Keypoints 1024x1024</t>
+  </si>
+  <si>
+    <t>CenterNet Resnet50 V1 FPN Keypoints 512x512</t>
+  </si>
+  <si>
+    <t>CenterNet Resnet101 V1 FPN 512x512</t>
+  </si>
+  <si>
+    <t>CenterNet Resnet50 V2 512x512</t>
+  </si>
+  <si>
+    <t>CenterNet Resnet50 V2 Keypoints 512x512</t>
+  </si>
+  <si>
+    <t>EfficientDet D1 640x640</t>
+  </si>
+  <si>
+    <t>EfficientDet D2 768x768</t>
+  </si>
+  <si>
+    <t>EfficientDet D3 896x896</t>
+  </si>
+  <si>
+    <t>EfficientDet D4 1024x1024</t>
+  </si>
+  <si>
+    <t>EfficientDet D5 1280x1280</t>
+  </si>
+  <si>
+    <t>EfficientDet D6 1280x1280</t>
+  </si>
+  <si>
+    <t>EfficientDet D7 1536x1536</t>
+  </si>
+  <si>
+    <t>SSD MobileNet V1 FPN 640x640</t>
+  </si>
+  <si>
+    <t>SSD MobileNet V2 FPNLite 320x320</t>
+  </si>
+  <si>
+    <t>SSD MobileNet V2 FPNLite 640x640</t>
+  </si>
+  <si>
+    <t>SSD ResNet50 V1 FPN 640x640 (RetinaNet50)</t>
+  </si>
+  <si>
+    <t>SSD ResNet50 V1 FPN 1024x1024 (RetinaNet50)</t>
+  </si>
+  <si>
+    <t>SSD ResNet101 V1 FPN 640x640 (RetinaNet101)</t>
+  </si>
+  <si>
+    <t>SSD ResNet101 V1 FPN 1024x1024 (RetinaNet101)</t>
+  </si>
+  <si>
+    <t>SSD ResNet152 V1 FPN 640x640 (RetinaNet152)</t>
+  </si>
+  <si>
+    <t>SSD ResNet152 V1 FPN 1024x1024 (RetinaNet152)</t>
+  </si>
+  <si>
+    <t>Faster R-CNN ResNet50 V1 1024x1024</t>
+  </si>
+  <si>
+    <t>Faster R-CNN ResNet50 V1 800x1333</t>
+  </si>
+  <si>
+    <t>Faster R-CNN ResNet101 V1 640x640</t>
+  </si>
+  <si>
+    <t>Faster R-CNN ResNet101 V1 1024x1024</t>
+  </si>
+  <si>
+    <t>Faster R-CNN ResNet101 V1 800x1333</t>
+  </si>
+  <si>
+    <t>Faster R-CNN ResNet152 V1 640x640</t>
+  </si>
+  <si>
+    <t>Faster R-CNN ResNet152 V1 1024x1024</t>
+  </si>
+  <si>
+    <t>Faster R-CNN ResNet152 V1 800x1333</t>
+  </si>
+  <si>
+    <t>Faster R-CNN Inception ResNet V2 640x640</t>
+  </si>
+  <si>
+    <t>Faster R-CNN Inception ResNet V2 1024x1024</t>
+  </si>
+  <si>
+    <t>Mask R-CNN Inception ResNet V2 1024x1024</t>
+  </si>
+  <si>
+    <t>Speed in tens</t>
+  </si>
+  <si>
+    <t>mAP Evaluated Original</t>
+  </si>
+  <si>
+    <t>mAP image size 224x224 without perturbation</t>
   </si>
 </sst>
 </file>
@@ -82,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +238,17 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF425066"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -128,10 +264,50 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF5F6F7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF5F6F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF5F6F7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF5F6F7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF5F6F7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF5F6F7"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -142,7 +318,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,16 +343,219 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="2" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF5F6368"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color rgb="FFF5F6F7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF5F6368"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFF5F6F7"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFF5F6F7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF425066"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFF5F6F7"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFF5F6F7"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF5F6368"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFF5F6F7"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFF5F6F7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFF5F6F7"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFF5F6F7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -187,6 +566,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val="*Keypoints*"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="lessThanOrEqual" val="40"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition descending="1" ref="C1:C40"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="5" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="0">
+      <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,11 +894,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD2E74A-E274-40A3-8E01-C406D96ED02F}">
+  <dimension ref="A1:M73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="26">
+        <v>34</v>
+      </c>
+      <c r="C2" s="24">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27">
+        <v>39</v>
+      </c>
+      <c r="C3" s="25">
+        <v>33.6</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <v>27</v>
+      </c>
+      <c r="C4" s="25">
+        <v>31.2</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="27">
+        <v>27</v>
+      </c>
+      <c r="C5" s="25">
+        <v>29.5</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="27">
+        <v>30</v>
+      </c>
+      <c r="C6" s="25">
+        <v>29.3</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="27">
+        <v>39</v>
+      </c>
+      <c r="C7" s="25">
+        <v>28.2</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="27">
+        <v>30</v>
+      </c>
+      <c r="C8" s="25">
+        <v>27.6</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="27">
+        <v>22</v>
+      </c>
+      <c r="C9" s="25">
+        <v>22.2</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="27">
+        <v>19</v>
+      </c>
+      <c r="C10" s="25">
+        <v>20.2</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="27">
+        <v>46</v>
+      </c>
+      <c r="C11" s="25">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="27">
+        <v>48</v>
+      </c>
+      <c r="C12" s="25">
+        <v>29.1</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="27">
+        <v>53</v>
+      </c>
+      <c r="C13" s="25">
+        <v>29.3</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="27">
+        <v>54</v>
+      </c>
+      <c r="C14" s="25">
+        <v>38.4</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="27">
+        <v>55</v>
+      </c>
+      <c r="C15" s="25">
+        <v>31.8</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>60</v>
+      </c>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="27">
+        <v>57</v>
+      </c>
+      <c r="C16" s="25">
+        <v>35.6</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>60</v>
+      </c>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="27">
+        <v>64</v>
+      </c>
+      <c r="C17" s="25">
+        <v>32.4</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>60</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="27">
+        <v>65</v>
+      </c>
+      <c r="C18" s="25">
+        <v>31</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>70</v>
+      </c>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="27">
+        <v>65</v>
+      </c>
+      <c r="C19" s="25">
+        <v>31.6</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="27">
+        <v>67</v>
+      </c>
+      <c r="C20" s="25">
+        <v>41.8</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="27">
+        <v>70</v>
+      </c>
+      <c r="C21" s="25">
+        <v>41.9</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="27">
+        <v>72</v>
+      </c>
+      <c r="C22" s="25">
+        <v>37.1</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="27">
+        <v>76</v>
+      </c>
+      <c r="C23" s="25">
+        <v>40</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="27">
+        <v>77</v>
+      </c>
+      <c r="C24" s="25">
+        <v>36.6</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="27">
+        <v>80</v>
+      </c>
+      <c r="C25" s="25">
+        <v>35.4</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="27">
+        <v>85</v>
+      </c>
+      <c r="C26" s="25">
+        <v>37.6</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="27">
+        <v>87</v>
+      </c>
+      <c r="C27" s="25">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="27">
+        <v>95</v>
+      </c>
+      <c r="C28" s="25">
+        <v>45.4</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="27">
+        <v>101</v>
+      </c>
+      <c r="C29" s="25">
+        <v>37.4</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="27">
+        <v>104</v>
+      </c>
+      <c r="C30" s="25">
+        <v>39.5</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="27">
+        <v>111</v>
+      </c>
+      <c r="C31" s="25">
+        <v>39.6</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="27">
+        <v>133</v>
+      </c>
+      <c r="C32" s="25">
+        <v>48.5</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="27">
+        <v>197</v>
+      </c>
+      <c r="C33" s="25">
+        <v>44.5</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="27">
+        <v>206</v>
+      </c>
+      <c r="C34" s="25">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="27">
+        <v>211</v>
+      </c>
+      <c r="C35" s="25">
+        <v>42.8</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="27">
+        <v>222</v>
+      </c>
+      <c r="C36" s="25">
+        <v>49.7</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="27">
+        <v>236</v>
+      </c>
+      <c r="C37" s="25">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="27">
+        <v>268</v>
+      </c>
+      <c r="C38" s="25">
+        <v>50.5</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="27">
+        <v>301</v>
+      </c>
+      <c r="C39" s="25">
+        <v>39</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="27">
+        <v>325</v>
+      </c>
+      <c r="C40" s="25">
+        <v>51.2</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" display="https://hub.tensorflow.google.cn/tensorflow/centernet/hourglass_512x512" xr:uid="{51BB5412-56ED-4380-B49D-2D6C8F413A55}"/>
+    <hyperlink ref="A23" r:id="rId2" display="https://hub.tensorflow.google.cn/tensorflow/centernet/hourglass_512x512_kpts" xr:uid="{61EA33F9-82B6-4A71-96FB-4F16C6C421F4}"/>
+    <hyperlink ref="A33" r:id="rId3" display="https://hub.tensorflow.google.cn/tensorflow/centernet/hourglass_1024x1024" xr:uid="{173C8CC2-F739-4F53-B349-EAE11227B7AC}"/>
+    <hyperlink ref="A35" r:id="rId4" display="https://hub.tensorflow.google.cn/tensorflow/centernet/hourglass_1024x1024_kpts" xr:uid="{E03D6ABB-7BC7-446C-BB34-FE496708CD5E}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://hub.tensorflow.google.cn/tensorflow/centernet/resnet50v1_fpn_512x512" xr:uid="{42C4D1A3-FC1B-448B-9CFD-1972F15367CD}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://hub.tensorflow.google.cn/tensorflow/centernet/resnet50v1_fpn_512x512_kpts" xr:uid="{4036CE8B-AD70-4790-9FB5-985C91A4399B}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://hub.tensorflow.google.cn/tensorflow/centernet/resnet101v1_fpn_512x512" xr:uid="{B93C1A24-A887-4F26-8F62-0B8FF711C83F}"/>
+    <hyperlink ref="A5" r:id="rId8" display="https://hub.tensorflow.google.cn/tensorflow/centernet/resnet50v2_512x512" xr:uid="{CB0ADEEB-1F88-495C-B449-D38F91946D6C}"/>
+    <hyperlink ref="A8" r:id="rId9" display="https://hub.tensorflow.google.cn/tensorflow/centernet/resnet50v2_512x512_kpts" xr:uid="{A25FDF41-466F-49C2-A898-5085C5CFC380}"/>
+    <hyperlink ref="A3" r:id="rId10" display="https://hub.tensorflow.google.cn/tensorflow/efficientdet/d0" xr:uid="{53112CE1-FF5E-43B6-8012-9A617B2777D3}"/>
+    <hyperlink ref="A14" r:id="rId11" display="https://hub.tensorflow.google.cn/tensorflow/efficientdet/d1" xr:uid="{81312D80-6D48-402B-AD2F-FCC28A555F80}"/>
+    <hyperlink ref="A20" r:id="rId12" display="https://hub.tensorflow.google.cn/tensorflow/efficientdet/d2" xr:uid="{953FC5A5-9E28-4CAE-A0C9-D0B589514F35}"/>
+    <hyperlink ref="A28" r:id="rId13" display="https://hub.tensorflow.google.cn/tensorflow/efficientdet/d3" xr:uid="{0C8560D3-A250-4DF6-B8D3-4D136F4FDCC6}"/>
+    <hyperlink ref="A32" r:id="rId14" display="https://hub.tensorflow.google.cn/tensorflow/efficientdet/d4" xr:uid="{CCB47249-97A8-440F-BB37-788D75B8CE3B}"/>
+    <hyperlink ref="A36" r:id="rId15" display="https://hub.tensorflow.google.cn/tensorflow/efficientdet/d5" xr:uid="{DBC2BB3F-A9AA-4404-8F86-E25E1ECFEFB6}"/>
+    <hyperlink ref="A38" r:id="rId16" display="https://hub.tensorflow.google.cn/tensorflow/efficientdet/d6" xr:uid="{F4D6A028-F965-4579-BBA5-62517E97E3C6}"/>
+    <hyperlink ref="A40" r:id="rId17" display="https://hub.tensorflow.google.cn/tensorflow/efficientdet/d7" xr:uid="{A796AFFA-E5F8-411D-B3CA-2872E3C4302D}"/>
+    <hyperlink ref="A10" r:id="rId18" display="https://hub.tensorflow.google.cn/tensorflow/ssd_mobilenet_v2" xr:uid="{2F6E5C14-F4D2-492F-B1E6-F242B5518225}"/>
+    <hyperlink ref="A12" r:id="rId19" display="https://hub.tensorflow.google.cn/tensorflow/ssd_mobilenet_v1/fpn_640x640" xr:uid="{CC89835E-28A0-4903-BBF8-50DEF8CBEFBE}"/>
+    <hyperlink ref="A9" r:id="rId20" display="https://hub.tensorflow.google.cn/tensorflow/ssd_mobilenet_v2/fpnlite_320x320" xr:uid="{AAD9C9BC-3DDD-41CA-BD75-D41EFFAF2F2B}"/>
+    <hyperlink ref="A7" r:id="rId21" display="https://hub.tensorflow.google.cn/tensorflow/ssd_mobilenet_v2/fpnlite_640x640" xr:uid="{9D7356F2-2BD4-46E8-9622-C28984D17040}"/>
+    <hyperlink ref="A11" r:id="rId22" display="https://hub.tensorflow.google.cn/tensorflow/retinanet/resnet50_v1_fpn_640x640" xr:uid="{11567A81-BEEF-46A5-9661-10F3AAE9DC0E}"/>
+    <hyperlink ref="A27" r:id="rId23" display="https://hub.tensorflow.google.cn/tensorflow/retinanet/resnet50_v1_fpn_1024x1024" xr:uid="{A32312AA-5BF9-4704-A23D-166A18865643}"/>
+    <hyperlink ref="A16" r:id="rId24" display="https://hub.tensorflow.google.cn/tensorflow/retinanet/resnet101_v1_fpn_640x640" xr:uid="{D24ADFE2-6F8D-4146-914C-F0992C7ADB08}"/>
+    <hyperlink ref="A30" r:id="rId25" display="https://hub.tensorflow.google.cn/tensorflow/retinanet/resnet101_v1_fpn_1024x1024" xr:uid="{F5399A00-7DFD-4370-A0A0-2FC39AFCC92D}"/>
+    <hyperlink ref="A25" r:id="rId26" display="https://hub.tensorflow.google.cn/tensorflow/retinanet/resnet152_v1_fpn_640x640" xr:uid="{53E96785-B6E4-45E8-87B5-7B63EB1D426B}"/>
+    <hyperlink ref="A31" r:id="rId27" display="https://hub.tensorflow.google.cn/tensorflow/retinanet/resnet152_v1_fpn_1024x1024" xr:uid="{1FA2928A-1B88-43DC-961F-6117D980386D}"/>
+    <hyperlink ref="A13" r:id="rId28" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet50_v1_640x640" xr:uid="{1EEFAEB5-AFC6-4E10-9FC6-03BF82F9997A}"/>
+    <hyperlink ref="A18" r:id="rId29" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet50_v1_1024x1024" xr:uid="{D4679F3A-CA80-4BB2-B909-1F1D76AEB1BF}"/>
+    <hyperlink ref="A19" r:id="rId30" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet50_v1_800x1333" xr:uid="{DD703710-C9C0-4A7B-BE43-481F4640C9B0}"/>
+    <hyperlink ref="A15" r:id="rId31" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet101_v1_640x640" xr:uid="{2D04B524-1DE3-4C8B-B40F-38C70C6F642A}"/>
+    <hyperlink ref="A22" r:id="rId32" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet101_v1_1024x1024" xr:uid="{C7CEE7B3-4222-40FA-8B71-A4053A9A0279}"/>
+    <hyperlink ref="A24" r:id="rId33" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet101_v1_800x1333" xr:uid="{793C3F52-37BE-4BBE-9ECF-DAC15F8AA2BB}"/>
+    <hyperlink ref="A17" r:id="rId34" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet152_v1_640x640" xr:uid="{B538C2ED-6C09-46F3-AF57-3757D490240D}"/>
+    <hyperlink ref="A26" r:id="rId35" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet152_v1_1024x1024" xr:uid="{FD7C9410-E6A9-4DAD-8388-54AF6D4DC483}"/>
+    <hyperlink ref="A29" r:id="rId36" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/resnet152_v1_800x1333" xr:uid="{AAF068C2-10FD-4461-9FFD-451B564F4097}"/>
+    <hyperlink ref="A34" r:id="rId37" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/inception_resnet_v2_640x640" xr:uid="{1DF5668B-15A3-4469-8714-4F49E789DD29}"/>
+    <hyperlink ref="A37" r:id="rId38" display="https://hub.tensorflow.google.cn/tensorflow/faster_rcnn/inception_resnet_v2_1024x1024" xr:uid="{3C0C97CF-4E3C-439F-B57C-7D2A1295DCF1}"/>
+    <hyperlink ref="A39" r:id="rId39" display="https://hub.tensorflow.google.cn/tensorflow/mask_rcnn/inception_resnet_v2_1024x1024" xr:uid="{59DB5958-377F-4BE4-8BFD-6DA15F3D8442}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <tableParts count="1">
+    <tablePart r:id="rId41"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6691FC6-37E9-41B6-B5A3-DFBDF6B1FE02}">
+  <dimension ref="A3:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E4">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>33.6</v>
+      </c>
+      <c r="D5">
+        <v>33.6</v>
+      </c>
+      <c r="E5" s="18">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>31.2</v>
+      </c>
+      <c r="D6">
+        <v>31.2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>29.5</v>
+      </c>
+      <c r="D7">
+        <v>29.5</v>
+      </c>
+      <c r="E7" s="18">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>28.2</v>
+      </c>
+      <c r="D8">
+        <v>28.1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>22.2</v>
+      </c>
+      <c r="D9">
+        <v>22.2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>20.2</v>
+      </c>
+      <c r="D10">
+        <v>20.2</v>
+      </c>
+      <c r="E10" s="31">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05DC54C-F496-4065-92A4-1093D5353B52}">
+  <dimension ref="A3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>31.2</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4" si="0">(D4-C4)/D4</f>
+        <v>0.34294871794871795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(D5-C5)/D5</f>
+        <v>0.10396039603960386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="D6" s="11">
+        <v>33.6</v>
+      </c>
+      <c r="E6" s="12">
+        <f>(D6-C6)/D6</f>
+        <v>0.19940476190476197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11">
+        <v>20.3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>29.3</v>
+      </c>
+      <c r="E7" s="12">
+        <f>(D7-C7)/D7</f>
+        <v>0.30716723549488056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/centernet_resnet50_v1_fpn_512x512_coco17_tpu-8.tar.gz" xr:uid="{02E2B456-2BDF-40BE-B1A1-9795E126E70B}"/>
+    <hyperlink ref="A5" r:id="rId2" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/ssd_mobilenet_v2_320x320_coco17_tpu-8.tar.gz" xr:uid="{044B226A-D0DC-4B49-8CAE-8F4516C3B8C4}"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/efficientdet_d0_coco17_tpu-32.tar.gz" xr:uid="{56C339E1-BEEB-44DD-9BD2-10548D3C712E}"/>
+    <hyperlink ref="A7" r:id="rId4" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/faster_rcnn_resnet50_v1_640x640_coco17_tpu-8.tar.gz" xr:uid="{2A7138AC-6F9D-4B40-88B0-F3AF3120A546}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03603E1-08B9-499D-B7F2-B0A8A1F05A38}">
   <dimension ref="A3:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,125 +2343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05DC54C-F496-4065-92A4-1093D5353B52}">
-  <dimension ref="A3:E7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13">
-        <v>20.5</v>
-      </c>
-      <c r="D4" s="13">
-        <v>31.2</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" ref="E4:E5" si="0">(D4-C4)/D4</f>
-        <v>0.34294871794871795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
-        <v>19</v>
-      </c>
-      <c r="C5" s="11">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D5" s="11">
-        <v>20.2</v>
-      </c>
-      <c r="E5" s="12">
-        <f>(D5-C5)/D5</f>
-        <v>0.10396039603960386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2">
-        <v>26.9</v>
-      </c>
-      <c r="D6" s="11">
-        <v>33.6</v>
-      </c>
-      <c r="E6" s="12">
-        <f>(D6-C6)/D6</f>
-        <v>0.19940476190476197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11">
-        <v>20.3</v>
-      </c>
-      <c r="D7" s="11">
-        <v>29.3</v>
-      </c>
-      <c r="E7" s="12">
-        <f>(D7-C7)/D7</f>
-        <v>0.30716723549488056</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/centernet_resnet50_v1_fpn_512x512_coco17_tpu-8.tar.gz" xr:uid="{02E2B456-2BDF-40BE-B1A1-9795E126E70B}"/>
-    <hyperlink ref="A5" r:id="rId2" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/ssd_mobilenet_v2_320x320_coco17_tpu-8.tar.gz" xr:uid="{044B226A-D0DC-4B49-8CAE-8F4516C3B8C4}"/>
-    <hyperlink ref="A6" r:id="rId3" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/efficientdet_d0_coco17_tpu-32.tar.gz" xr:uid="{56C339E1-BEEB-44DD-9BD2-10548D3C712E}"/>
-    <hyperlink ref="A7" r:id="rId4" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/faster_rcnn_resnet50_v1_640x640_coco17_tpu-8.tar.gz" xr:uid="{2A7138AC-6F9D-4B40-88B0-F3AF3120A546}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5472D2D-A35E-4F13-90B7-812EFA533864}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCEE21-8CC9-4321-B9A7-3705C151BB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3FC6EA-31A0-4072-9673-505C26A17148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
     <sheet name="List of models" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>Speed (ms)</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>mAP image size 224x224 without perturbation</t>
+  </si>
+  <si>
+    <t>mAP mobilenet fgsm 0,05eps</t>
+  </si>
+  <si>
+    <t>mAP mobilenet pgd 0,05eps</t>
+  </si>
+  <si>
+    <t>mAP resnet50 fgsm 0,05eps</t>
+  </si>
+  <si>
+    <t>mAP resnet50 pgd 0,05eps</t>
+  </si>
+  <si>
+    <t>mAP efficientnet0 pgd 0,05eps</t>
+  </si>
+  <si>
+    <t>mAP efficientnet0 fgsm 0,05eps</t>
   </si>
 </sst>
 </file>
@@ -442,6 +460,43 @@
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFF5F6F7"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFF5F6F7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF5F6368"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
@@ -450,6 +505,27 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFF5F6F7"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFF5F6F7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -497,64 +573,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF5F6368"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFF5F6F7"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFF5F6F7"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFF5F6F7"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFF5F6F7"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -569,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
     <filterColumn colId="0">
       <customFilters>
@@ -586,9 +604,9 @@
     <sortCondition descending="1" ref="C1:C40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="5" dataCellStyle="Hyperlinkki"/>
-    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="4" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="0">
       <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
@@ -1818,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6691FC6-37E9-41B6-B5A3-DFBDF6B1FE02}">
-  <dimension ref="A3:E10"/>
+  <dimension ref="A3:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,9 +1849,13 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1849,8 +1871,26 @@
       <c r="E3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1863,79 +1903,139 @@
       <c r="D4">
         <v>34.200000000000003</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="18">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="G4">
+        <v>20.5</v>
+      </c>
+      <c r="H4" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="I4" s="18">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>33.6</v>
+        <v>31.2</v>
       </c>
       <c r="D5">
-        <v>33.6</v>
-      </c>
-      <c r="E5" s="18">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>20.5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="G5">
+        <v>16.8</v>
+      </c>
+      <c r="H5" s="18">
+        <v>11</v>
+      </c>
+      <c r="I5" s="18">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>27</v>
       </c>
       <c r="C6">
-        <v>31.2</v>
+        <v>29.5</v>
       </c>
       <c r="D6">
-        <v>31.2</v>
-      </c>
-      <c r="E6" s="16">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="F6" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="G6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H6" s="18">
+        <v>11</v>
+      </c>
+      <c r="I6" s="18">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>29.5</v>
+        <v>33.6</v>
       </c>
       <c r="D7">
-        <v>29.5</v>
+        <v>33.6</v>
       </c>
       <c r="E7" s="18">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.9</v>
+      </c>
+      <c r="F7" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>24</v>
+      </c>
+      <c r="H7" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I7" s="18">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>28.2</v>
+        <v>20.2</v>
       </c>
       <c r="D8">
-        <v>28.1</v>
-      </c>
-      <c r="E8" s="18">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.2</v>
+      </c>
+      <c r="E8" s="31">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F8" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="I8" s="18">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1951,22 +2051,46 @@
       <c r="E9" s="18">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="G9" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="H9" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="I9" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>20.2</v>
+        <v>28.2</v>
       </c>
       <c r="D10">
-        <v>20.2</v>
-      </c>
-      <c r="E10" s="31">
-        <v>18.100000000000001</v>
+        <v>28.1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>19.2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G10" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="H10" s="18">
+        <v>9.4</v>
+      </c>
+      <c r="I10" s="18">
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3FC6EA-31A0-4072-9673-505C26A17148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F0FA96-3FB4-4F23-8122-BB7F0C596A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
     <sheet name="List of models" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>Speed (ms)</t>
   </si>
@@ -196,28 +196,34 @@
     <t>Speed in tens</t>
   </si>
   <si>
-    <t>mAP Evaluated Original</t>
-  </si>
-  <si>
-    <t>mAP image size 224x224 without perturbation</t>
-  </si>
-  <si>
-    <t>mAP mobilenet fgsm 0,05eps</t>
-  </si>
-  <si>
-    <t>mAP mobilenet pgd 0,05eps</t>
-  </si>
-  <si>
-    <t>mAP resnet50 fgsm 0,05eps</t>
-  </si>
-  <si>
-    <t>mAP resnet50 pgd 0,05eps</t>
-  </si>
-  <si>
-    <t>mAP efficientnet0 pgd 0,05eps</t>
-  </si>
-  <si>
-    <t>mAP efficientnet0 fgsm 0,05eps</t>
+    <t>According to Model Zoo</t>
+  </si>
+  <si>
+    <t>Tested by using Main script and run on Google Colab</t>
+  </si>
+  <si>
+    <t>Original mAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image size 224x224 mAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobilenet fgsm 0,05eps mAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobilenet pgd 0,05eps mAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnet50 fgsm 0,05eps mAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resnet50 pgd 0,05eps mAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficientnet0 fgsm 0,05eps mAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficientnet0 pgd 0,05eps mAP </t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +273,16 @@
       <color rgb="FF5F6368"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +292,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +362,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -399,13 +425,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="2" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -587,7 +640,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
     <filterColumn colId="0">
       <customFilters>
@@ -604,15 +657,35 @@
     <sortCondition descending="1" ref="C1:C40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="4" dataCellStyle="Hyperlinkki"/>
-    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="11" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="7">
       <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE0B9A59-E1F5-4263-96E5-87023CE0B01C}" name="Taulukko2" displayName="Taulukko2" ref="A3:K10" totalsRowShown="0">
+  <autoFilter ref="A3:K10" xr:uid="{CE0B9A59-E1F5-4263-96E5-87023CE0B01C}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{82414949-FA13-4E39-8235-6193E89F50AC}" name="Model name"/>
+    <tableColumn id="2" xr3:uid="{FCB279FD-5628-4714-B5F6-CA3772C5E7ED}" name="Speed (ms)"/>
+    <tableColumn id="3" xr3:uid="{F55163EC-ECBF-4FB9-BC64-F8FD4E943A5A}" name="COCO mAP"/>
+    <tableColumn id="4" xr3:uid="{94BAFA4F-62B2-42DD-87D9-D6AF414518AF}" name="Original mAP"/>
+    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1836,25 +1909,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6691FC6-37E9-41B6-B5A3-DFBDF6B1FE02}">
-  <dimension ref="A3:K10"/>
+  <dimension ref="A2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
@@ -1866,28 +1957,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1918,6 +2009,12 @@
       <c r="I4" s="18">
         <v>20.6</v>
       </c>
+      <c r="J4" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="K4" s="18">
+        <v>18.899999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1947,6 +2044,12 @@
       <c r="I5" s="18">
         <v>16.899999999999999</v>
       </c>
+      <c r="J5" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="K5" s="18">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1976,6 +2079,12 @@
       <c r="I6" s="18">
         <v>16.5</v>
       </c>
+      <c r="J6" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="K6" s="18">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2005,6 +2114,12 @@
       <c r="I7" s="18">
         <v>24.2</v>
       </c>
+      <c r="J7" s="18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K7" s="18">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2034,6 +2149,12 @@
       <c r="I8" s="18">
         <v>16.3</v>
       </c>
+      <c r="J8" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="K8" s="18">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2063,6 +2184,12 @@
       <c r="I9" s="18">
         <v>16</v>
       </c>
+      <c r="J9" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="K9" s="18">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2092,9 +2219,23 @@
       <c r="I10" s="18">
         <v>15.4</v>
       </c>
+      <c r="J10" s="18">
+        <v>9</v>
+      </c>
+      <c r="K10" s="18">
+        <v>13.8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -1,24 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F0FA96-3FB4-4F23-8122-BB7F0C596A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9320A-5536-400B-BFB4-0746ACB0CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
     <sheet name="List of models" sheetId="4" r:id="rId1"/>
     <sheet name="Combined results" sheetId="5" r:id="rId2"/>
-    <sheet name="Size 224" sheetId="2" r:id="rId3"/>
-    <sheet name="Original size" sheetId="1" r:id="rId4"/>
-    <sheet name="Taul3" sheetId="3" r:id="rId5"/>
+    <sheet name="IMAGE" sheetId="3" r:id="rId3"/>
+    <sheet name="Percentages" sheetId="6" r:id="rId4"/>
+    <sheet name="Graph" sheetId="8" r:id="rId5"/>
+    <sheet name="Coco_original" sheetId="9" r:id="rId6"/>
+    <sheet name="Coco_224" sheetId="10" r:id="rId7"/>
+    <sheet name="fgsm_mobilenet" sheetId="11" r:id="rId8"/>
+    <sheet name="pgd_mobilenet" sheetId="14" r:id="rId9"/>
+    <sheet name="fgsm_resnet" sheetId="12" r:id="rId10"/>
+    <sheet name="pgd_resnet" sheetId="16" r:id="rId11"/>
+    <sheet name="fgsm_efficientnet" sheetId="13" r:id="rId12"/>
+    <sheet name="pgd_efficientnet" sheetId="18" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Coco_224!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">fgsm_efficientnet!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">fgsm_mobilenet!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">fgsm_resnet!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">pgd_efficientnet!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">pgd_mobilenet!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">pgd_resnet!$A$2:$H$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
   <si>
     <t>Speed (ms)</t>
   </si>
@@ -46,18 +63,9 @@
     <t>COCO mAP</t>
   </si>
   <si>
-    <t>Model Name</t>
-  </si>
-  <si>
     <t>CenterNet Resnet50 V1 FPN 512x512</t>
   </si>
   <si>
-    <t xml:space="preserve">27	</t>
-  </si>
-  <si>
-    <t>COCO mAP evaluated</t>
-  </si>
-  <si>
     <t>SSD MobileNet v2 320x320</t>
   </si>
   <si>
@@ -67,18 +75,6 @@
     <t>Faster R-CNN ResNet50 V1 640x640</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>COCO mAP original</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>mAP local</t>
-  </si>
-  <si>
     <t>Model name</t>
   </si>
   <si>
@@ -224,16 +220,146 @@
   </si>
   <si>
     <t xml:space="preserve">efficientnet0 pgd 0,05eps mAP </t>
+  </si>
+  <si>
+    <t>COCO Original</t>
+  </si>
+  <si>
+    <t>COCO 224x224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet50 FGSM </t>
+  </si>
+  <si>
+    <t>Mobilenet PGD</t>
+  </si>
+  <si>
+    <t>Mobilenet FGSM</t>
+  </si>
+  <si>
+    <t>ResNet50 PGD</t>
+  </si>
+  <si>
+    <t>EfficientNetB0 FGSM</t>
+  </si>
+  <si>
+    <t>EfficientNetB0 PGD</t>
+  </si>
+  <si>
+    <t>Tensorflow COCO (mAP)</t>
+  </si>
+  <si>
+    <t>KUVANA</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>PSNR avg</t>
+  </si>
+  <si>
+    <t>Mobilenet FGSM 0.1</t>
+  </si>
+  <si>
+    <t>Mobilenet FGSM 0.02</t>
+  </si>
+  <si>
+    <t>Mobilenet PGD 0.1</t>
+  </si>
+  <si>
+    <t>Mobilenet PGD 0.02</t>
+  </si>
+  <si>
+    <t>(AP) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AP) @[ IoU=0.50      | area=   all | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AP) @[ IoU=0.75      | area=   all | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AP) @[ IoU=0.50:0.95 | area= small | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AP) @[ IoU=0.50:0.95 | area=medium | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AP) @[ IoU=0.50:0.95 | area= large | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AR) @[ IoU=0.50:0.95 | area=   all | maxDets=  1 ]</t>
+  </si>
+  <si>
+    <t>(AR) @[ IoU=0.50:0.95 | area=   all | maxDets= 10 ]</t>
+  </si>
+  <si>
+    <t>(AR) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AR) @[ IoU=0.50:0.95 | area= small | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AR) @[ IoU=0.50:0.95 | area=medium | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>(AR) @[ IoU=0.50:0.95 | area= large | maxDets=100 ]</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>ResNet PGD 0.02</t>
+  </si>
+  <si>
+    <t>ResNet PGD 0.1</t>
+  </si>
+  <si>
+    <t>ResNet FGSM 0.02</t>
+  </si>
+  <si>
+    <t>ResNet FGSM 0.1</t>
+  </si>
+  <si>
+    <t>EfficientNet FGSM 0.1</t>
+  </si>
+  <si>
+    <t>EfiicientNet FGSM 0.02</t>
+  </si>
+  <si>
+    <t>EfficientNet PGD 0.1</t>
+  </si>
+  <si>
+    <t>EfficientNet PGD 0.02</t>
+  </si>
+  <si>
+    <t>Mobilenet FGSM 0.05</t>
+  </si>
+  <si>
+    <t>Mobilenet PGD 0.05</t>
+  </si>
+  <si>
+    <t>ResNet50 FGSM  0.05</t>
+  </si>
+  <si>
+    <t>ResNet50 PGD 0.05</t>
+  </si>
+  <si>
+    <t>EfficientNetB0 FGSM 0.05</t>
+  </si>
+  <si>
+    <t>EfficientNetB0 PGD 0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0\ %"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,12 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF425066"/>
@@ -281,8 +401,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +446,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -356,39 +525,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -397,47 +596,497 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="2" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -639,8 +1288,1696 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CenterNet Resnet101 V1 FPN 512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>COCO Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COCO 224x224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet50 PGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mobilenet PGD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EfficientNetB0 PGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ResNet50 FGSM </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mobilenet FGSM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EfficientNetB0 FGSM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2808-401C-B2FB-49F58134541C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CenterNet Resnet50 V1 FPN 512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>COCO Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COCO 224x224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet50 PGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mobilenet PGD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EfficientNetB0 PGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ResNet50 FGSM </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mobilenet FGSM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EfficientNetB0 FGSM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2808-401C-B2FB-49F58134541C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CenterNet Resnet50 V2 512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>COCO Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COCO 224x224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet50 PGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mobilenet PGD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EfficientNetB0 PGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ResNet50 FGSM </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mobilenet FGSM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EfficientNetB0 FGSM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2808-401C-B2FB-49F58134541C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EfficientDet D0 512x512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>COCO Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COCO 224x224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet50 PGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mobilenet PGD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EfficientNetB0 PGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ResNet50 FGSM </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mobilenet FGSM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EfficientNetB0 FGSM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2808-401C-B2FB-49F58134541C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSD MobileNet v2 320x320</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>COCO Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COCO 224x224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet50 PGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mobilenet PGD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EfficientNetB0 PGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ResNet50 FGSM </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mobilenet FGSM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EfficientNetB0 FGSM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2808-401C-B2FB-49F58134541C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSD MobileNet V2 FPNLite 320x320</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>COCO Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COCO 224x224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet50 PGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mobilenet PGD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EfficientNetB0 PGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ResNet50 FGSM </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mobilenet FGSM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EfficientNetB0 FGSM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2808-401C-B2FB-49F58134541C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSD MobileNet V2 FPNLite 640x640</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>COCO Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COCO 224x224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet50 PGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mobilenet PGD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EfficientNetB0 PGD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ResNet50 FGSM </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mobilenet FGSM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EfficientNetB0 FGSM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2808-401C-B2FB-49F58134541C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="42701487"/>
+        <c:axId val="42700655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42701487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1400" b="1"/>
+                  <a:t>Datasets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42700655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42700655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1400" b="1"/>
+                  <a:t> mAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42701487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Kaavio 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83167091-18FF-4208-BD82-8029300DE13B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
     <filterColumn colId="0">
       <customFilters>
@@ -657,11 +2994,11 @@
     <sortCondition descending="1" ref="C1:C40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="11" dataCellStyle="Hyperlinkki"/>
-    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="38" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="34">
       <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -677,15 +3014,35 @@
     <tableColumn id="2" xr3:uid="{FCB279FD-5628-4714-B5F6-CA3772C5E7ED}" name="Speed (ms)"/>
     <tableColumn id="3" xr3:uid="{F55163EC-ECBF-4FB9-BC64-F8FD4E943A5A}" name="COCO mAP"/>
     <tableColumn id="4" xr3:uid="{94BAFA4F-62B2-42DD-87D9-D6AF414518AF}" name="Original mAP"/>
-    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="B2:I10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="B2:I10" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I10">
+    <sortCondition descending="1" ref="F2:F10"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet v2 320x320" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -989,7 +3346,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:C10"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,34 +3360,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="26">
+      <c r="B2" s="12">
         <v>34</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="10">
         <v>34.200000000000003</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>16</v>
+      <c r="D2" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1038,17 +3395,17 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13">
         <v>39</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="11">
         <v>33.6</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>16</v>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1056,17 +3413,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
         <v>27</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="11">
         <v>31.2</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>16</v>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E4">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1074,17 +3431,17 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13">
         <v>27</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="11">
         <v>29.5</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>16</v>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E5">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1092,17 +3449,17 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13">
         <v>30</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="11">
         <v>29.3</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>16</v>
+      <c r="D6" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1110,17 +3467,17 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13">
         <v>39</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="11">
         <v>28.2</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>16</v>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1128,17 +3485,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13">
         <v>30</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="11">
         <v>27.6</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>16</v>
+      <c r="D8" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1146,17 +3503,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="27">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13">
         <v>22</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="11">
         <v>22.2</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>16</v>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1164,17 +3521,17 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="27">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13">
         <v>19</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="11">
         <v>20.2</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>16</v>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E10">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1182,17 +3539,17 @@
       </c>
     </row>
     <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="27">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13">
         <v>46</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="11">
         <v>34.299999999999997</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>16</v>
+      <c r="D11" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E11">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1200,17 +3557,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="27">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="13">
         <v>48</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="11">
         <v>29.1</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>16</v>
+      <c r="D12" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E12">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1218,17 +3575,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="27">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13">
         <v>53</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="11">
         <v>29.3</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>16</v>
+      <c r="D13" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E13">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1236,17 +3593,17 @@
       </c>
     </row>
     <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="27">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13">
         <v>54</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="11">
         <v>38.4</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>16</v>
+      <c r="D14" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E14">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1254,93 +3611,93 @@
       </c>
     </row>
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="27">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="13">
         <v>55</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="11">
         <v>31.8</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>16</v>
+      <c r="D15" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E15">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
         <v>60</v>
       </c>
-      <c r="L15" s="21"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="27">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13">
         <v>57</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="11">
         <v>35.6</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>16</v>
+      <c r="D16" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E16">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
         <v>60</v>
       </c>
-      <c r="M16" s="21"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="27">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13">
         <v>64</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="11">
         <v>32.4</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>16</v>
+      <c r="D17" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E17">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
         <v>60</v>
       </c>
-      <c r="M17" s="21"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="27">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="13">
         <v>65</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="11">
         <v>31</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>16</v>
+      <c r="D18" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E18">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
         <v>70</v>
       </c>
-      <c r="M18" s="21"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="27">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13">
         <v>65</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="11">
         <v>31.6</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>16</v>
+      <c r="D19" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E19">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1348,17 +3705,17 @@
       </c>
     </row>
     <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="27">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
         <v>67</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="11">
         <v>41.8</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>16</v>
+      <c r="D20" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E20">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1366,17 +3723,17 @@
       </c>
     </row>
     <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="27">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="13">
         <v>70</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="11">
         <v>41.9</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>16</v>
+      <c r="D21" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E21">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1384,17 +3741,17 @@
       </c>
     </row>
     <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="27">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="13">
         <v>72</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="11">
         <v>37.1</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>16</v>
+      <c r="D22" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E22">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1402,17 +3759,17 @@
       </c>
     </row>
     <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="27">
+      <c r="A23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="13">
         <v>76</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="11">
         <v>40</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>16</v>
+      <c r="D23" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E23">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1420,17 +3777,17 @@
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="27">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="13">
         <v>77</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="11">
         <v>36.6</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>16</v>
+      <c r="D24" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E24">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1438,17 +3795,17 @@
       </c>
     </row>
     <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="27">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="13">
         <v>80</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="11">
         <v>35.4</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>16</v>
+      <c r="D25" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E25">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1456,17 +3813,17 @@
       </c>
     </row>
     <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="27">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="13">
         <v>85</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="11">
         <v>37.6</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>16</v>
+      <c r="D26" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E26">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1474,17 +3831,17 @@
       </c>
     </row>
     <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="27">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="13">
         <v>87</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="11">
         <v>38.299999999999997</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>16</v>
+      <c r="D27" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E27">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1492,17 +3849,17 @@
       </c>
     </row>
     <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="27">
+      <c r="A28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="13">
         <v>95</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="11">
         <v>45.4</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>16</v>
+      <c r="D28" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E28">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1510,17 +3867,17 @@
       </c>
     </row>
     <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="27">
+      <c r="A29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="13">
         <v>101</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="11">
         <v>37.4</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>16</v>
+      <c r="D29" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E29">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1528,17 +3885,17 @@
       </c>
     </row>
     <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="27">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="13">
         <v>104</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="11">
         <v>39.5</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>16</v>
+      <c r="D30" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E30">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1546,17 +3903,17 @@
       </c>
     </row>
     <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="27">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="13">
         <v>111</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="11">
         <v>39.6</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>16</v>
+      <c r="D31" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E31">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1564,17 +3921,17 @@
       </c>
     </row>
     <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="27">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="13">
         <v>133</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="11">
         <v>48.5</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>16</v>
+      <c r="D32" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E32">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1582,17 +3939,17 @@
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="27">
+      <c r="A33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="13">
         <v>197</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="11">
         <v>44.5</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>16</v>
+      <c r="D33" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E33">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1600,17 +3957,17 @@
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="27">
+      <c r="A34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="13">
         <v>206</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="11">
         <v>37.700000000000003</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>16</v>
+      <c r="D34" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E34">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1618,17 +3975,17 @@
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="27">
+      <c r="A35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="13">
         <v>211</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="11">
         <v>42.8</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>16</v>
+      <c r="D35" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E35">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1636,17 +3993,17 @@
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="27">
+      <c r="A36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="13">
         <v>222</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="11">
         <v>49.7</v>
       </c>
-      <c r="D36" s="28" t="s">
-        <v>16</v>
+      <c r="D36" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E36">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1654,17 +4011,17 @@
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="27">
+      <c r="A37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="13">
         <v>236</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="11">
         <v>38.700000000000003</v>
       </c>
-      <c r="D37" s="28" t="s">
-        <v>16</v>
+      <c r="D37" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E37">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1672,17 +4029,17 @@
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="27">
+      <c r="A38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="13">
         <v>268</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="11">
         <v>50.5</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>16</v>
+      <c r="D38" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E38">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1690,17 +4047,17 @@
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="27">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="13">
         <v>301</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="11">
         <v>39</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>16</v>
+      <c r="D39" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E39">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1708,17 +4065,17 @@
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="27">
+      <c r="A40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="13">
         <v>325</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="11">
         <v>51.2</v>
       </c>
-      <c r="D40" s="28" t="s">
-        <v>16</v>
+      <c r="D40" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E40">
         <f>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</f>
@@ -1726,136 +4083,136 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1907,12 +4264,1496 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.112</v>
+      </c>
+      <c r="H3" s="46">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.19</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.185</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.112</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.111</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.115</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.111</v>
+      </c>
+      <c r="H5" s="46">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="46">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C6" s="46">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D6" s="46">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="46">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.245</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.157</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.154</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.151</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.152</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.189</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.151</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.248</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.311</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.248</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.153</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.16</v>
+      </c>
+      <c r="F12" s="46">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G12" s="46">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.42</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.499</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.37</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H14" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.16</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.216</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.249</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.09</v>
+      </c>
+      <c r="C6" s="46">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D6" s="46">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G6" s="46">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.22</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.224</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.36</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.189</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.18</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.36</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.315</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.376</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.215</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.18</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.224</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.498</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.436</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.503</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.628</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H2" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.104</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.107</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.107</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.216</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.189</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.185</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.105</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.106</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H5" s="46">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="46">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C6" s="46">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D6" s="46">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="46">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.155</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.313</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.152</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.185</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.245</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.219</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.253</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.151</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.153</v>
+      </c>
+      <c r="F12" s="46">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.09</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.33</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H14" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.189</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.156</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.153</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.254</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.373</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.161</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.156</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="46">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C6" s="46">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D6" s="46">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F6" s="46">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="46">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.313</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.215</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.187</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.188</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.311</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.32</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.37</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.191</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F12" s="46">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.123</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.443</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.498</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.502</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H14" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6691FC6-37E9-41B6-B5A3-DFBDF6B1FE02}">
   <dimension ref="A2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,24 +5772,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="B2" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1957,33 +5798,33 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>34</v>
@@ -1994,31 +5835,31 @@
       <c r="D4">
         <v>34.200000000000003</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="4">
         <v>24.1</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="4">
         <v>13.8</v>
       </c>
       <c r="G4">
         <v>20.5</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="4">
         <v>13.8</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="4">
         <v>20.6</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="4">
         <v>13.3</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="4">
         <v>18.899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>27</v>
@@ -2029,31 +5870,31 @@
       <c r="D5">
         <v>31.2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="3">
         <v>20.5</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="4">
         <v>10.6</v>
       </c>
       <c r="G5">
         <v>16.8</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="4">
         <v>11</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="4">
         <v>10.4</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="4">
         <v>15.6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>27</v>
@@ -2064,31 +5905,31 @@
       <c r="D6">
         <v>29.5</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="4">
         <v>19.8</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="4">
         <v>10.9</v>
       </c>
       <c r="G6">
         <v>16.600000000000001</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="4">
         <v>11</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="4">
         <v>16.5</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="4">
         <v>10.7</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="4">
         <v>15.3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>39</v>
@@ -2099,31 +5940,31 @@
       <c r="D7">
         <v>33.6</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="4">
         <v>26.9</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="4">
         <v>17.2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="4">
         <v>24</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="4">
         <v>24.2</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="4">
         <v>22.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -2134,31 +5975,31 @@
       <c r="D8">
         <v>20.2</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="17">
         <v>18.100000000000001</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="4">
         <v>11.1</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="4">
         <v>16.3</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="4">
         <v>11.6</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="4">
         <v>16.3</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="4">
         <v>10.7</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -2169,31 +6010,31 @@
       <c r="D9">
         <v>22.2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="4">
         <v>18.7</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="4">
         <v>10.6</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="4">
         <v>15.9</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="4">
         <v>11.2</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="4">
         <v>16</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="4">
         <v>10.3</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="4">
         <v>14.6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>39</v>
@@ -2204,25 +6045,25 @@
       <c r="D10">
         <v>28.1</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="4">
         <v>19.2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="4">
         <v>15.3</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="4">
         <v>9.4</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="4">
         <v>15.4</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="4">
         <v>9</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="4">
         <v>13.8</v>
       </c>
     </row>
@@ -2240,384 +6081,2947 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05DC54C-F496-4065-92A4-1093D5353B52}">
-  <dimension ref="A3:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5472D2D-A35E-4F13-90B7-812EFA533864}">
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="18">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18">
+        <v>27</v>
+      </c>
+      <c r="E3" s="18">
+        <v>27</v>
+      </c>
+      <c r="F3" s="18">
+        <v>39</v>
+      </c>
+      <c r="G3" s="18">
+        <v>19</v>
+      </c>
+      <c r="H3" s="18">
+        <v>22</v>
+      </c>
+      <c r="I3" s="18">
+        <v>39</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D4" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F4" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G4" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I4" s="18">
+        <v>28.2</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D5" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G5" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I5" s="18">
+        <v>28.1</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="F6" s="18">
+        <v>26.9</v>
+      </c>
+      <c r="G6" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H6" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="I6" s="18">
+        <v>19.2</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D7" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="F7" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="I7" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="D8" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="E8" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F8" s="18">
+        <v>24</v>
+      </c>
+      <c r="G8" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="I8" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D9" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13">
-        <v>20.5</v>
-      </c>
-      <c r="D4" s="13">
-        <v>31.2</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" ref="E4" si="0">(D4-C4)/D4</f>
-        <v>0.34294871794871795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
-        <v>19</v>
-      </c>
-      <c r="C5" s="11">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D5" s="11">
-        <v>20.2</v>
-      </c>
-      <c r="E5" s="12">
-        <f>(D5-C5)/D5</f>
-        <v>0.10396039603960386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2">
-        <v>26.9</v>
-      </c>
-      <c r="D6" s="11">
-        <v>33.6</v>
-      </c>
-      <c r="E6" s="12">
-        <f>(D6-C6)/D6</f>
-        <v>0.19940476190476197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E9" s="18">
+        <v>11</v>
+      </c>
+      <c r="F9" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G9" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="I9" s="18">
+        <v>9.4</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="D10" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E10" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="F10" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H10" s="18">
+        <v>16</v>
+      </c>
+      <c r="I10" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="E11" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="F11" s="18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G11" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="H11" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="I11" s="18">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
-        <v>20.3</v>
-      </c>
-      <c r="D7" s="11">
-        <v>29.3</v>
-      </c>
-      <c r="E7" s="12">
-        <f>(D7-C7)/D7</f>
-        <v>0.30716723549488056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D12" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="E12" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="G12" s="18">
+        <v>15</v>
+      </c>
+      <c r="H12" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="I12" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/centernet_resnet50_v1_fpn_512x512_coco17_tpu-8.tar.gz" xr:uid="{02E2B456-2BDF-40BE-B1A1-9795E126E70B}"/>
-    <hyperlink ref="A5" r:id="rId2" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/ssd_mobilenet_v2_320x320_coco17_tpu-8.tar.gz" xr:uid="{044B226A-D0DC-4B49-8CAE-8F4516C3B8C4}"/>
-    <hyperlink ref="A6" r:id="rId3" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/efficientdet_d0_coco17_tpu-32.tar.gz" xr:uid="{56C339E1-BEEB-44DD-9BD2-10548D3C712E}"/>
-    <hyperlink ref="A7" r:id="rId4" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/faster_rcnn_resnet50_v1_640x640_coco17_tpu-8.tar.gz" xr:uid="{2A7138AC-6F9D-4B40-88B0-F3AF3120A546}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03603E1-08B9-499D-B7F2-B0A8A1F05A38}">
-  <dimension ref="A3:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA134B-6382-4675-9D3B-D18439BEABE0}">
+  <dimension ref="B3:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>27</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="I3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E4" s="18">
         <v>31.2</v>
       </c>
-      <c r="D4" s="16">
-        <v>31.2</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="15">
-        <v>19</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="F4" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="H4" s="18">
         <v>20.2</v>
       </c>
-      <c r="D5" s="17">
-        <v>20.2</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="15">
-        <v>39</v>
-      </c>
-      <c r="C6" s="16">
-        <v>33.6</v>
-      </c>
-      <c r="D6" s="16">
-        <v>33.6</v>
+      <c r="I4" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="24"/>
+      <c r="D5" s="32">
+        <f t="shared" ref="D5:J5" si="0">(D4-D6)/D4</f>
+        <v>0.2953216374269006</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.34294871794871795</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.32881355932203388</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.19940476190476197</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.10396039603960386</v>
+      </c>
+      <c r="I5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.15765765765765766</v>
+      </c>
+      <c r="J5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.31672597864768687</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="18">
+        <v>24.1</v>
       </c>
       <c r="E6" s="18">
-        <v>25.7</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14">
-        <v>53</v>
-      </c>
-      <c r="C7" s="17">
-        <v>29.3</v>
-      </c>
-      <c r="D7" s="17">
-        <v>29.3</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+        <v>20.5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="G6" s="18">
+        <v>26.9</v>
+      </c>
+      <c r="H6" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I6" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="J6" s="18">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="24"/>
+      <c r="D8" s="31">
+        <f t="shared" ref="D8:J8" si="1">(D$6-D9)/D$6</f>
+        <v>0.42738589211618255</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.48292682926829272</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.4494949494949495</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.36059479553903345</v>
+      </c>
+      <c r="H8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.38674033149171277</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.43315508021390375</v>
+      </c>
+      <c r="J8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="41">
+        <v>24.88289</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="G9" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="24"/>
+      <c r="D10" s="31">
+        <f t="shared" ref="D10:J10" si="2">(D$6-D11)/D$6</f>
+        <v>0.1493775933609959</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.18048780487804875</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.16161616161616157</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.10780669144981408</v>
+      </c>
+      <c r="H10" s="31">
+        <f t="shared" si="2"/>
+        <v>9.9447513812154734E-2</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.14973262032085558</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.20312499999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
+        <v>27.889510000000001</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="E11" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="F11" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G11" s="18">
+        <v>24</v>
+      </c>
+      <c r="H11" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I11" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="J11" s="18">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="24"/>
+      <c r="D13" s="31">
+        <f>(D$6-D14)/D$6</f>
+        <v>0.42738589211618255</v>
+      </c>
+      <c r="E13" s="31">
+        <f>(E$6-E14)/E$6</f>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="F13" s="31">
+        <f t="shared" ref="F13:I13" si="3">(F$6-F14)/F$6</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="3"/>
+        <v>0.34572490706319692</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="3"/>
+        <v>0.3591160220994476</v>
+      </c>
+      <c r="I13" s="31">
+        <f t="shared" si="3"/>
+        <v>0.40106951871657753</v>
+      </c>
+      <c r="J13" s="31">
+        <f>(J$6-J14)/J$6</f>
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="41">
+        <v>24.853814</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E14" s="18">
+        <v>11</v>
+      </c>
+      <c r="F14" s="18">
+        <v>11</v>
+      </c>
+      <c r="G14" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H14" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="I14" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="J14" s="18">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="24"/>
+      <c r="D15" s="28">
+        <f>(D$6-D16)/D$6</f>
+        <v>0.14522821576763484</v>
+      </c>
+      <c r="E15" s="28">
+        <f t="shared" ref="E15:J15" si="4">(E$6-E16)/E$6</f>
+        <v>0.17560975609756105</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.10037174721189589</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="4"/>
+        <v>9.9447513812154734E-2</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.14438502673796788</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.19791666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="41">
+        <v>27.872768000000001</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="E16" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F16" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="G16" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I16" s="18">
+        <v>16</v>
+      </c>
+      <c r="J16" s="18">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="24"/>
+      <c r="D18" s="28">
+        <f>(D$6-D19)/D$6</f>
+        <v>0.44813278008298757</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" ref="E18:J18" si="5">(E$6-E19)/E$6</f>
+        <v>0.49268292682926829</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.45959595959595967</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.39033457249070636</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.40883977900552493</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.44919786096256681</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="41">
+        <v>25.02739</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="E19" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="F19" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="G19" s="18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H19" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="I19" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="J19" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="24"/>
+      <c r="D20" s="31">
+        <f>(D$6-D21)/D$6</f>
+        <v>0.21576763485477188</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" ref="E20:J20" si="6">(E$6-E21)/E$6</f>
+        <v>0.23902439024390246</v>
+      </c>
+      <c r="F20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.15985130111524154</v>
+      </c>
+      <c r="H20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.17127071823204426</v>
+      </c>
+      <c r="I20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.21925133689839571</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.28124999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>27.6897979999999</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E21" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="F21" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="G21" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="H21" s="18">
+        <v>15</v>
+      </c>
+      <c r="I21" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="J21" s="18">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="41">
+        <v>28.195789999999999</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20.479099999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>17.055199999999999</v>
+      </c>
+      <c r="G23" s="49">
+        <v>23.957100000000001</v>
+      </c>
+      <c r="H23">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="41">
+        <v>20.446567999999999</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.6402000000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.0423999999999998</v>
+      </c>
+      <c r="G24" s="49">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="H24">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="41">
+        <v>29.075797999999899</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22.216200000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>18.7498</v>
+      </c>
+      <c r="G25" s="49">
+        <v>25.747399999999999</v>
+      </c>
+      <c r="H25" s="43">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="41">
+        <v>25.1388959999999</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="1">
+        <v>16.156400000000001</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="49">
+        <v>19.9026</v>
+      </c>
+      <c r="H26">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="4">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="4">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="4">
+        <v>17.899999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/centernet_resnet50_v1_fpn_512x512_coco17_tpu-8.tar.gz" xr:uid="{FA598177-8CAB-4E79-AD9F-858C372E8777}"/>
-    <hyperlink ref="A5" r:id="rId2" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/ssd_mobilenet_v2_320x320_coco17_tpu-8.tar.gz" xr:uid="{A85664BC-284C-4108-8EC6-B014353E16E8}"/>
-    <hyperlink ref="A6" r:id="rId3" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/efficientdet_d0_coco17_tpu-32.tar.gz" xr:uid="{B723733D-B195-4DE2-B092-A9C7DA4BA3DD}"/>
-    <hyperlink ref="A7" r:id="rId4" display="http://download.tensorflow.org/models/object_detection/tf2/20200711/faster_rcnn_resnet50_v1_640x640_coco17_tpu-8.tar.gz" xr:uid="{67DEDA60-125B-44F0-B8EA-2F5BD4BECF11}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5472D2D-A35E-4F13-90B7-812EFA533864}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112D7606-9C8B-41DF-A553-5965F3EFCEBB}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="9" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D3" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F3" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G3" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I3" s="33">
+        <v>28.1</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="E4" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="F4" s="18">
+        <v>26.9</v>
+      </c>
+      <c r="G4" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H4" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="I4" s="33">
+        <v>19.2</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="D5" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E5" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H5" s="18">
+        <v>16</v>
+      </c>
+      <c r="I5" s="33">
+        <v>15.4</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="D6" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="E6" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F6" s="18">
+        <v>24</v>
+      </c>
+      <c r="G6" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="I6" s="33">
+        <v>15.3</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D7" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="F7" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="G7" s="18">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="I7" s="33">
+        <v>13.8</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D8" s="18">
+        <v>11</v>
+      </c>
+      <c r="E8" s="18">
+        <v>11</v>
+      </c>
+      <c r="F8" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G8" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="H8" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="I8" s="33">
+        <v>9.4</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="F9" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="I9" s="33">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="35">
+        <v>13.3</v>
+      </c>
+      <c r="D10" s="35">
+        <v>10.4</v>
+      </c>
+      <c r="E10" s="35">
+        <v>10.7</v>
+      </c>
+      <c r="F10" s="35">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G10" s="35">
+        <v>10.7</v>
+      </c>
+      <c r="H10" s="35">
+        <v>10.3</v>
+      </c>
+      <c r="I10" s="36">
+        <v>9</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EA95B5-81FA-4847-8115-7473FD5464FC}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.312</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.222</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.46</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.371</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.36</v>
+      </c>
+      <c r="C6" s="46">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0.31</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H6" s="46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.106</v>
+      </c>
+      <c r="C7" s="46">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D7" s="46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.06</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G7" s="46">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H7" s="46">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.311</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.104</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.16</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.52</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.378</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.217</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.219</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.441</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.33</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.442</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.224</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.223</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.125</v>
+      </c>
+      <c r="F13" s="46">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G13" s="46">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.46</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="G15" s="46">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="H15" s="46">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:H15">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>B4=MAX($B4:$H4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>B4=MIN($B4:$H4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2C188C-874F-40B9-8096-DC9C26D94CA6}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="B3:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.187</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.435</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.309</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.253</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.216</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.182</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.191</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.106</v>
+      </c>
+      <c r="C6" s="46">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G6" s="46">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.316</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.314</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.372</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.251</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.307</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.495</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.248</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.222</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.251</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.307</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.31</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.372</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.245</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.246</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0.114</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.151</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.69</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H14" xr:uid="{3E2C188C-874F-40B9-8096-DC9C26D94CA6}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.106</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.109</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.111</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.106</v>
+      </c>
+      <c r="H3" s="46">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.182</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.184</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.19</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.108</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.111</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.109</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.105</v>
+      </c>
+      <c r="H5" s="46">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="46">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C6" s="46">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D6" s="46">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F6" s="46">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G6" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.157</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.156</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.188</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.152</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.251</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.221</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.311</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.156</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.156</v>
+      </c>
+      <c r="F12" s="46">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G12" s="46">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.42</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.495</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.38</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H2" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.24</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.159</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.215</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.248</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="46">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C6" s="46">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D6" s="46">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G6" s="46">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.219</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.222</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.433</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.223</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.193</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.187</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.182</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.316</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.184</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.495</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.433</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H2" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9320A-5536-400B-BFB4-0746ACB0CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79BDE42-E106-45C9-919F-6ACC661046D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
@@ -37,6 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">pgd_resnet!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -583,7 +584,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -693,7 +694,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="2" builtinId="8"/>
@@ -6492,7 +6492,7 @@
   <dimension ref="B3:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7012,17 +7012,26 @@
       <c r="C23" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>20.479099999999999</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>17.055199999999999</v>
       </c>
-      <c r="G23" s="49">
+      <c r="F23" s="4">
+        <v>16.732700000000001</v>
+      </c>
+      <c r="G23" s="43">
         <v>23.957100000000001</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>15.9</v>
+      </c>
+      <c r="I23" s="4">
+        <v>15.7637</v>
+      </c>
+      <c r="J23" s="4">
+        <v>15.238200000000001</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -7032,17 +7041,26 @@
       <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>5.6402000000000001</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>4.0423999999999998</v>
       </c>
-      <c r="G24" s="49">
+      <c r="F24" s="4">
+        <v>5.1342999999999996</v>
+      </c>
+      <c r="G24" s="43">
         <v>7.3920000000000003</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>4.8</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3.1427999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -7052,17 +7070,26 @@
       <c r="C25" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>22.216200000000001</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>18.7498</v>
       </c>
-      <c r="G25" s="49">
+      <c r="F25" s="4">
+        <v>18.194600000000001</v>
+      </c>
+      <c r="G25" s="43">
         <v>25.747399999999999</v>
       </c>
       <c r="H25" s="43">
         <v>17.399999999999999</v>
+      </c>
+      <c r="I25" s="4">
+        <v>17.494299999999999</v>
+      </c>
+      <c r="J25" s="4">
+        <v>17.2562</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -7072,15 +7099,26 @@
       <c r="C26" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>16.156400000000001</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="G26" s="49">
+      <c r="E26" s="4">
+        <v>12.839</v>
+      </c>
+      <c r="F26" s="4">
+        <v>12.609400000000001</v>
+      </c>
+      <c r="G26" s="43">
         <v>19.9026</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>13.4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>12.5435</v>
+      </c>
+      <c r="J26" s="4">
+        <v>11.161300000000001</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79BDE42-E106-45C9-919F-6ACC661046D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C370A-DD94-41B3-AD5A-2F0F4C07DF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
@@ -37,7 +37,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">pgd_resnet!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5379,7 +5378,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H14"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6492,11 +6491,12 @@
   <dimension ref="B3:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
@@ -7122,55 +7122,151 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="41">
+        <v>28.139831999999998</v>
+      </c>
       <c r="C28" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="41">
+        <v>20.435661999999901</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="41">
+        <v>29.071529999999999</v>
+      </c>
       <c r="C30" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="41">
+        <v>25.118027999999999</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="41">
+        <v>28.1811720000001</v>
+      </c>
       <c r="C33" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="4">
+        <v>19.975300000000001</v>
+      </c>
+      <c r="E33" s="4">
+        <v>16.698799999999999</v>
+      </c>
+      <c r="F33" s="4">
+        <v>16.102499999999999</v>
+      </c>
+      <c r="G33" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>15.216100000000001</v>
+      </c>
+      <c r="I33" s="4">
+        <v>15.3818</v>
+      </c>
+      <c r="J33" s="4">
+        <v>15.008699999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="41">
+        <v>20.62227</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="4">
+      <c r="D34" s="4">
+        <v>5.8933999999999997</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4.1532</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5.0208000000000004</v>
+      </c>
+      <c r="G34" s="4">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="4">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <v>5.2434000000000003</v>
+      </c>
+      <c r="I34" s="4">
+        <v>5.3193999999999999</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3.4377</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="41">
+        <v>28.863011999999799</v>
+      </c>
       <c r="C35" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="4">
+        <v>21.221800000000002</v>
+      </c>
+      <c r="E35" s="4">
+        <v>17.5502</v>
+      </c>
+      <c r="F35" s="4">
+        <v>17.078099999999999</v>
+      </c>
+      <c r="G35" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H35" s="4">
+        <v>16.4985</v>
+      </c>
+      <c r="I35" s="4">
+        <v>16.534600000000001</v>
+      </c>
+      <c r="J35" s="4">
+        <v>15.9984</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="41">
+        <v>25.025085999999899</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="4">
+      <c r="D36" s="4">
+        <v>14.8064</v>
+      </c>
+      <c r="E36" s="4">
+        <v>11.4621</v>
+      </c>
+      <c r="F36" s="4">
+        <v>11.530099999999999</v>
+      </c>
+      <c r="G36" s="4">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="4">
-        <v>17.899999999999999</v>
+      <c r="H36" s="4">
+        <v>11.9268</v>
+      </c>
+      <c r="I36" s="4">
+        <v>10.9421</v>
+      </c>
+      <c r="J36" s="4">
+        <v>9.8658999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7184,7 +7280,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8327,7 +8423,7 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C370A-DD94-41B3-AD5A-2F0F4C07DF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9428C7-E685-4FFF-9CEA-EE34353EF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
     <sheet name="List of models" sheetId="4" r:id="rId1"/>
@@ -583,7 +583,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -681,7 +681,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -692,6 +691,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4284,338 +4293,338 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>0.11</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.11</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.112</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>0.22800000000000001</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0.19</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.185</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.29699999999999999</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.19900000000000001</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0.14099999999999999</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.112</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.111</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.17699999999999999</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.115</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.111</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>5.5E-2</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>0.02</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0.20899999999999999</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>0.17699999999999999</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0.17799999999999999</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.245</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>0.157</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.154</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>0.24199999999999999</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0.16400000000000001</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.33900000000000002</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.32100000000000001</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>0.17599999999999999</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0.151</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.152</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.189</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.151</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>0.28499999999999998</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0.248</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.25</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.23499999999999999</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>0.217</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0.29699999999999999</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.311</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.248</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.24299999999999999</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>0.153</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.16</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0.39900000000000002</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.36199999999999999</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.42</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>0.36299999999999999</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>0.34699999999999998</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>0.499</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>0.37</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.54600000000000004</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>0.46400000000000002</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>0.39900000000000002</v>
       </c>
     </row>
@@ -4654,338 +4663,338 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>0.20599999999999999</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.16</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>0.154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>0.32600000000000001</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.27100000000000002</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.28100000000000003</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.27700000000000002</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0.216</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.249</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.16400000000000001</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>0.154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>0.09</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>0.26300000000000001</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>0.22</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.224</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>0.36</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0.25</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.43</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.33500000000000002</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>0.22600000000000001</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0.19800000000000001</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.189</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.18</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>0.183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>0.36</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.315</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.35899999999999999</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.28799999999999998</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.28100000000000003</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0.376</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.33100000000000002</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.38400000000000001</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.30499999999999999</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.30399999999999999</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>0.313</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>0.215</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.18</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.224</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>0.10299999999999999</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0.498</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.51600000000000001</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>0.44800000000000001</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>0.436</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>0.61099999999999999</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>0.503</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.628</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.66800000000000004</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>0.55300000000000005</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>0.50900000000000001</v>
       </c>
     </row>
@@ -5024,338 +5033,338 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>0.13300000000000001</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>0.104</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.107</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>0.107</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.10299999999999999</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>0.09</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>0.216</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.27700000000000002</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.189</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.185</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0.13700000000000001</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.105</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.11</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.106</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>0.02</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0.19900000000000001</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>0.16400000000000001</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>0.13900000000000001</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0.155</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.313</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.152</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.185</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>0.27700000000000002</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.245</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.28499999999999998</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.219</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>0.214</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0.28799999999999998</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0.253</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.25800000000000001</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>0.23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>0.151</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.153</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>0.09</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0.38500000000000001</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0.33</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.35599999999999998</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.41099999999999998</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>0.34499999999999997</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>0.33</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>0.311</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>0.49099999999999999</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>0.36599999999999999</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.40600000000000003</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.54500000000000004</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>0.45300000000000001</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>0.4</v>
       </c>
     </row>
@@ -5394,338 +5403,338 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>0.189</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>0.156</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.153</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.22600000000000001</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>0.15</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.254</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.373</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>0.247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0.19600000000000001</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.161</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.156</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.15</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>0.04</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0.28100000000000003</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.313</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>0.20100000000000001</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>0.32700000000000001</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0.23899999999999999</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.40699999999999997</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.4</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>0.215</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0.187</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.188</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.17899999999999999</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0.311</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.34599999999999997</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0.32800000000000001</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.32</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.37</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.28899999999999998</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>0.20300000000000001</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0.191</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>0.123</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.158</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0.47699999999999998</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0.42699999999999999</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.443</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.498</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>0.43099999999999999</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>0.48399999999999999</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.502</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>0.53100000000000003</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>0.48499999999999999</v>
       </c>
     </row>
@@ -5771,20 +5780,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6490,8 +6499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA134B-6382-4675-9D3B-D18439BEABE0}">
   <dimension ref="B3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6561,11 +6570,11 @@
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" s="24"/>
       <c r="D5" s="32">
-        <f t="shared" ref="D5:J5" si="0">(D4-D6)/D4</f>
+        <f>(D4-D6)/D4</f>
         <v>0.2953216374269006</v>
       </c>
       <c r="E5" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:J5" si="0">(E4-E6)/E4</f>
         <v>0.34294871794871795</v>
       </c>
       <c r="F5" s="32">
@@ -7012,25 +7021,25 @@
       <c r="C23" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="49">
         <v>20.479099999999999</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="49">
         <v>17.055199999999999</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="49">
         <v>16.732700000000001</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="50">
         <v>23.957100000000001</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="49">
         <v>15.9</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="49">
         <v>15.7637</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="49">
         <v>15.238200000000001</v>
       </c>
     </row>
@@ -7038,28 +7047,28 @@
       <c r="B24" s="41">
         <v>20.446567999999999</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="49">
         <v>5.6402000000000001</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="49">
         <v>4.0423999999999998</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="49">
         <v>5.1342999999999996</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="50">
         <v>7.3920000000000003</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="49">
         <v>4.8</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="49">
         <v>4.5</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="49">
         <v>3.1427999999999998</v>
       </c>
     </row>
@@ -7070,25 +7079,25 @@
       <c r="C25" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="49">
         <v>22.216200000000001</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="49">
         <v>18.7498</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="49">
         <v>18.194600000000001</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="50">
         <v>25.747399999999999</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="50">
         <v>17.399999999999999</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="49">
         <v>17.494299999999999</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="49">
         <v>17.2562</v>
       </c>
     </row>
@@ -7099,27 +7108,36 @@
       <c r="C26" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="49">
         <v>16.156400000000001</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="49">
         <v>12.839</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="49">
         <v>12.609400000000001</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="50">
         <v>19.9026</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="49">
         <v>13.4</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="49">
         <v>12.5435</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="49">
         <v>11.161300000000001</v>
       </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="41">
@@ -7128,6 +7146,27 @@
       <c r="C28" s="42" t="s">
         <v>86</v>
       </c>
+      <c r="D28" s="49">
+        <v>20.967199999999998</v>
+      </c>
+      <c r="E28" s="49">
+        <v>17.3626</v>
+      </c>
+      <c r="F28" s="49">
+        <v>16.8384</v>
+      </c>
+      <c r="G28" s="50">
+        <v>24.311199999999999</v>
+      </c>
+      <c r="H28" s="49">
+        <v>16.304099999999998</v>
+      </c>
+      <c r="I28" s="49">
+        <v>16.229900000000001</v>
+      </c>
+      <c r="J28" s="49">
+        <v>15.817600000000001</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="41">
@@ -7136,6 +7175,27 @@
       <c r="C29" s="42" t="s">
         <v>87</v>
       </c>
+      <c r="D29" s="49">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E29" s="49">
+        <v>3.9685999999999999</v>
+      </c>
+      <c r="F29" s="49">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="G29" s="49">
+        <v>7.8151999999999999</v>
+      </c>
+      <c r="H29" s="49">
+        <v>5.1481000000000003</v>
+      </c>
+      <c r="I29" s="49">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="J29" s="49">
+        <v>3.2141000000000002</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="41">
@@ -7144,6 +7204,27 @@
       <c r="C30" s="42" t="s">
         <v>84</v>
       </c>
+      <c r="D30" s="49">
+        <v>22.316600000000001</v>
+      </c>
+      <c r="E30" s="49">
+        <v>18.8017</v>
+      </c>
+      <c r="F30" s="49">
+        <v>18.0425</v>
+      </c>
+      <c r="G30" s="49">
+        <v>25.9008</v>
+      </c>
+      <c r="H30" s="49">
+        <v>17.532900000000001</v>
+      </c>
+      <c r="I30" s="49">
+        <v>17.705200000000001</v>
+      </c>
+      <c r="J30" s="49">
+        <v>17.386399999999998</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="41">
@@ -7152,6 +7233,36 @@
       <c r="C31" s="42" t="s">
         <v>85</v>
       </c>
+      <c r="D31" s="49">
+        <v>16.230499999999999</v>
+      </c>
+      <c r="E31" s="49">
+        <v>13.0413</v>
+      </c>
+      <c r="F31" s="49">
+        <v>12.755100000000001</v>
+      </c>
+      <c r="G31" s="49">
+        <v>20.104679999999998</v>
+      </c>
+      <c r="H31" s="49">
+        <v>13.5511</v>
+      </c>
+      <c r="I31" s="49">
+        <v>12.843299999999999</v>
+      </c>
+      <c r="J31" s="49">
+        <v>11.408200000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="41">
@@ -7160,25 +7271,25 @@
       <c r="C33" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="49">
         <v>19.975300000000001</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="49">
         <v>16.698799999999999</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="49">
         <v>16.102499999999999</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="49">
         <v>23.2</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="49">
         <v>15.216100000000001</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="49">
         <v>15.3818</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="49">
         <v>15.008699999999999</v>
       </c>
     </row>
@@ -7189,25 +7300,25 @@
       <c r="C34" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="49">
         <v>5.8933999999999997</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="49">
         <v>4.1532</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="49">
         <v>5.0208000000000004</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="49">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="49">
         <v>5.2434000000000003</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="49">
         <v>5.3193999999999999</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="49">
         <v>3.4377</v>
       </c>
     </row>
@@ -7218,25 +7329,25 @@
       <c r="C35" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="49">
         <v>21.221800000000002</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="49">
         <v>17.5502</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="49">
         <v>17.078099999999999</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="49">
         <v>17.899999999999999</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="49">
         <v>16.4985</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="49">
         <v>16.534600000000001</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="49">
         <v>15.9984</v>
       </c>
     </row>
@@ -7247,25 +7358,25 @@
       <c r="C36" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="49">
         <v>14.8064</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="49">
         <v>11.4621</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="49">
         <v>11.530099999999999</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="49">
         <v>24.7</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="49">
         <v>11.9268</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="49">
         <v>10.9421</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="49">
         <v>9.8658999999999999</v>
       </c>
     </row>
@@ -7660,338 +7771,338 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>0.34200000000000003</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0.312</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.33600000000000002</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.20200000000000001</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.222</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0.51600000000000001</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.46</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.51500000000000001</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.34899999999999998</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.371</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>0.36</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>0.33200000000000002</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>0.31</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>0.35599999999999998</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0.106</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.06</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>0.30599999999999999</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0.28499999999999998</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.26700000000000002</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.311</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.104</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.16</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.255</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>0.50700000000000001</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.45700000000000002</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.52</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.38500000000000001</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.378</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0.28599999999999998</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.27300000000000002</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.217</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.219</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0.45700000000000002</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.441</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.33</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.33900000000000002</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>0.48899999999999999</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0.47699999999999998</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.442</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.46899999999999997</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>0.34899999999999998</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>0.36599999999999999</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0.224</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0.223</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.14699999999999999</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.125</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>0.46</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>0.44500000000000001</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.48699999999999999</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.26500000000000001</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>0.34499999999999997</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>0.66300000000000003</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="45">
         <v>0.64900000000000002</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="45">
         <v>0.63900000000000001</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>0.66700000000000004</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <v>0.60199999999999998</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="45">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="45">
         <v>0.59299999999999997</v>
       </c>
     </row>
@@ -8069,338 +8180,338 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>0.24099999999999999</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.19800000000000001</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.26900000000000002</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.187</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>0.192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>0.375</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.32</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.435</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.309</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.31900000000000001</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0.253</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.216</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.27700000000000002</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.182</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.191</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>0.106</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>0.09</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>0.11899999999999999</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0.35599999999999998</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>0.316</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0.314</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.372</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>0.251</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.26300000000000001</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>0.40699999999999997</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0.30599999999999999</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.307</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.495</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.46800000000000003</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>0.248</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0.22700000000000001</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.222</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.251</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.20200000000000001</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.2</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>0.39600000000000002</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.35499999999999998</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.38300000000000001</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.307</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.31</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0.41299999999999998</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0.38600000000000001</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.372</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.40899999999999997</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.32500000000000001</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.33300000000000002</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>0.245</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.246</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>0.114</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>0.151</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0.54200000000000004</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0.50900000000000001</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.51100000000000001</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.55100000000000005</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>0.47899999999999998</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>0.48199999999999998</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>0.66800000000000004</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.60299999999999998</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.69</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>0.59499999999999997</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>0.57799999999999996</v>
       </c>
     </row>
@@ -8439,340 +8550,340 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>0.106</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.109</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>0.111</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.106</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>0.22600000000000001</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0.182</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.184</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.19</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0.14099999999999999</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.108</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.111</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.109</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.105</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>4.7E-2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>6.3E-2</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0.20699999999999999</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>0.17299999999999999</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0.17699999999999999</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.24</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>0.128</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>0.25700000000000001</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0.157</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.16900000000000001</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>0.17699999999999999</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.156</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.188</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.152</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>0.28199999999999997</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.251</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.23100000000000001</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.221</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>0.214</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0.29499999999999998</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.311</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>0.156</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.156</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0.39200000000000002</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0.34399999999999997</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.42</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>0.35399999999999998</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>0.495</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>0.38</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.55700000000000005</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>0.47499999999999998</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>0.41399999999999998</v>
       </c>
     </row>
@@ -8811,338 +8922,338 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>0.20499999999999999</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.24</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.159</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>0.153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>0.32400000000000001</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>0.27900000000000003</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0.215</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.17299999999999999</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.17199999999999999</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>0.248</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>0.153</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>3.1E-2</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0.30099999999999999</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>0.219</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.222</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>0.35399999999999998</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>0.433</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>0.223</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0.193</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>0.23300000000000001</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>0.187</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.182</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>0.182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>0.35799999999999998</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>0.316</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.35699999999999998</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.28499999999999998</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0.375</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0.34</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>0.30099999999999999</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>0.312</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>0.21199999999999999</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0.19900000000000001</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>0.184</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>0.22</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>0.13200000000000001</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>0.158</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0.495</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>0.45400000000000001</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>0.44500000000000001</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>0.433</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>0.625</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>0.5</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.65200000000000002</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>0.55200000000000005</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>0.53300000000000003</v>
       </c>
     </row>

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9428C7-E685-4FFF-9CEA-EE34353EF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0596C557-DACB-4229-BA33-8839C0C2F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
     <sheet name="List of models" sheetId="4" r:id="rId1"/>
     <sheet name="Combined results" sheetId="5" r:id="rId2"/>
     <sheet name="IMAGE" sheetId="3" r:id="rId3"/>
     <sheet name="Percentages" sheetId="6" r:id="rId4"/>
-    <sheet name="Graph" sheetId="8" r:id="rId5"/>
-    <sheet name="Coco_original" sheetId="9" r:id="rId6"/>
-    <sheet name="Coco_224" sheetId="10" r:id="rId7"/>
-    <sheet name="fgsm_mobilenet" sheetId="11" r:id="rId8"/>
-    <sheet name="pgd_mobilenet" sheetId="14" r:id="rId9"/>
-    <sheet name="fgsm_resnet" sheetId="12" r:id="rId10"/>
-    <sheet name="pgd_resnet" sheetId="16" r:id="rId11"/>
-    <sheet name="fgsm_efficientnet" sheetId="13" r:id="rId12"/>
-    <sheet name="pgd_efficientnet" sheetId="18" r:id="rId13"/>
+    <sheet name="Percentages (2)" sheetId="19" r:id="rId5"/>
+    <sheet name="Graph" sheetId="8" r:id="rId6"/>
+    <sheet name="Coco_original" sheetId="9" r:id="rId7"/>
+    <sheet name="Coco_224" sheetId="10" r:id="rId8"/>
+    <sheet name="fgsm_mobilenet" sheetId="11" r:id="rId9"/>
+    <sheet name="pgd_mobilenet" sheetId="14" r:id="rId10"/>
+    <sheet name="fgsm_resnet" sheetId="12" r:id="rId11"/>
+    <sheet name="pgd_resnet" sheetId="16" r:id="rId12"/>
+    <sheet name="fgsm_efficientnet" sheetId="13" r:id="rId13"/>
+    <sheet name="pgd_efficientnet" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Coco_224!$A$2:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">fgsm_efficientnet!$A$2:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">fgsm_mobilenet!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">fgsm_resnet!$A$2:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">pgd_efficientnet!$A$2:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">pgd_mobilenet!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">pgd_resnet!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Coco_224!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">fgsm_efficientnet!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">fgsm_mobilenet!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">fgsm_resnet!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">pgd_efficientnet!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">pgd_mobilenet!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">pgd_resnet!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="98">
   <si>
     <t>Speed (ms)</t>
   </si>
@@ -583,7 +584,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -680,7 +681,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -692,14 +692,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +704,77 @@
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2985,7 +3051,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
     <filterColumn colId="0">
       <customFilters>
@@ -3002,11 +3068,11 @@
     <sortCondition descending="1" ref="C1:C40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="38" dataCellStyle="Hyperlinkki"/>
-    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="48" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="44">
       <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3022,33 +3088,33 @@
     <tableColumn id="2" xr3:uid="{FCB279FD-5628-4714-B5F6-CA3772C5E7ED}" name="Speed (ms)"/>
     <tableColumn id="3" xr3:uid="{F55163EC-ECBF-4FB9-BC64-F8FD4E943A5A}" name="COCO mAP"/>
     <tableColumn id="4" xr3:uid="{94BAFA4F-62B2-42DD-87D9-D6AF414518AF}" name="Original mAP"/>
-    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="B2:I10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="B2:I10" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="B2:I10" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I10">
     <sortCondition descending="1" ref="F2:F10"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet v2 320x320" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet v2 320x320" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4273,6 +4339,376 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C3" s="44">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D3" s="44">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E3" s="44">
+        <v>0.24</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0.159</v>
+      </c>
+      <c r="H3" s="44">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="44">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D4" s="44">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E4" s="44">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H4" s="44">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="44">
+        <v>0.215</v>
+      </c>
+      <c r="C5" s="44">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0.248</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="44">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C6" s="44">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D6" s="44">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F6" s="44">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G6" s="44">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H6" s="44">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="44">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0.219</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0.222</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="44">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0.433</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H8" s="44">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="44">
+        <v>0.223</v>
+      </c>
+      <c r="C9" s="44">
+        <v>0.193</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.187</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0.182</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="44">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C10" s="44">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0.316</v>
+      </c>
+      <c r="E10" s="44">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="44">
+        <v>0.34</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H11" s="44">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="44">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.184</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="44">
+        <v>0.495</v>
+      </c>
+      <c r="C13" s="44">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0.433</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="44">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E14" s="44">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F14" s="44">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G14" s="44">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H14" s="44">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H2" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -4293,348 +4729,348 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>0.11</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <v>0.11</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <v>0.112</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="44">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>0.22800000000000001</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0.19</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0.185</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0.29699999999999999</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>0.19900000000000001</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>0.14099999999999999</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>0.112</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>0.111</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0.17699999999999999</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.115</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>0.111</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>5.5E-2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>0.02</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>0.20899999999999999</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>0.17699999999999999</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>0.17799999999999999</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>0.245</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>0.157</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>0.154</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>0.24199999999999999</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0.16400000000000001</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0.33900000000000002</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.32100000000000001</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>0.17599999999999999</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0.151</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>0.152</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>0.189</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.151</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>0.28499999999999998</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>0.248</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0.25</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>0.23499999999999999</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>0.217</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>0.29699999999999999</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>0.311</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>0.248</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <v>0.24299999999999999</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>0.153</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.16</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <v>0.107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>0.39900000000000002</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>0.36199999999999999</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>0.42</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>0.36299999999999999</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <v>0.34699999999999998</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>0.499</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>0.37</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.54600000000000004</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>0.46400000000000002</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <v>0.39900000000000002</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4642,7 +5078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -4663,348 +5099,348 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>0.20599999999999999</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <v>0.16</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="44">
         <v>0.154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>0.32600000000000001</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0.27100000000000002</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>0.28100000000000003</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>0.27700000000000002</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>0.216</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0.249</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.16400000000000001</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <v>0.154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>0.09</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>0.26300000000000001</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>0.22</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>0.224</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>0.36</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0.25</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.43</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>0.33500000000000002</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>0.22600000000000001</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0.19800000000000001</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.189</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>0.18</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>0.183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>0.36</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0.315</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>0.35899999999999999</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>0.28799999999999998</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>0.28100000000000003</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>0.376</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>0.33100000000000002</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>0.38400000000000001</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>0.30499999999999999</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <v>0.30399999999999999</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <v>0.313</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>0.215</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>0.18</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.224</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>0.10299999999999999</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>0.498</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>0.51600000000000001</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>0.44800000000000001</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <v>0.436</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>0.61099999999999999</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>0.503</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.628</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>0.66800000000000004</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>0.55300000000000005</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <v>0.50900000000000001</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5012,7 +5448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -5033,348 +5469,348 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>0.13300000000000001</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>0.104</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <v>0.107</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>0.107</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <v>0.10299999999999999</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="44">
         <v>0.09</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>0.216</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0.27700000000000002</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>0.189</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>0.185</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>0.13700000000000001</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>0.105</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>0.11</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.106</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>0.02</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>0.19900000000000001</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>0.16400000000000001</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>0.13900000000000001</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0.155</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0.313</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>0.152</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>0.185</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>0.27700000000000002</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0.245</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>0.28499999999999998</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>0.219</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>0.214</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>0.28799999999999998</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>0.253</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>0.25800000000000001</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <v>0.23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>0.151</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.153</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>0.09</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>0.38500000000000001</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>0.33</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>0.35599999999999998</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>0.41099999999999998</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>0.34499999999999997</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <v>0.33</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <v>0.311</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>0.49099999999999999</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>0.36599999999999999</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0.40600000000000003</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.54500000000000004</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>0.45300000000000001</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5382,7 +5818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}">
   <dimension ref="A2:H18"/>
   <sheetViews>
@@ -5403,338 +5839,338 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>0.189</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>0.156</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <v>0.153</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>0.22600000000000001</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>0.15</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="44">
         <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0.26200000000000001</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0.254</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0.373</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>0.247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>0.19600000000000001</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>0.161</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>0.156</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.15</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>0.04</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>0.28100000000000003</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>0.313</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>0.20100000000000001</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>0.32700000000000001</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0.23899999999999999</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0.40699999999999997</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.4</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>0.215</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0.187</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>0.188</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.17899999999999999</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>0.311</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>0.34599999999999997</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>0.32800000000000001</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>0.32</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>0.37</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <v>0.28899999999999998</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>0.20300000000000001</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>0.191</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>0.123</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <v>0.158</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>0.47699999999999998</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>0.42699999999999999</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>0.443</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>0.498</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>0.43099999999999999</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>0.48399999999999999</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0.502</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>0.53100000000000003</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <v>0.48499999999999999</v>
       </c>
     </row>
@@ -5744,10 +6180,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5780,20 +6216,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6093,7 +6529,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6497,10 +6933,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA134B-6382-4675-9D3B-D18439BEABE0}">
-  <dimension ref="B3:J36"/>
+  <dimension ref="B3:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6574,7 +7010,7 @@
         <v>0.2953216374269006</v>
       </c>
       <c r="E5" s="32">
-        <f t="shared" ref="D5:J5" si="0">(E4-E6)/E4</f>
+        <f t="shared" ref="E5:J5" si="0">(E4-E6)/E4</f>
         <v>0.34294871794871795</v>
       </c>
       <c r="F5" s="32">
@@ -6701,7 +7137,7 @@
         <v>0.1493775933609959</v>
       </c>
       <c r="E10" s="31">
-        <f t="shared" si="2"/>
+        <f>(E$6-E11)/E$6</f>
         <v>0.18048780487804875</v>
       </c>
       <c r="F10" s="31">
@@ -7015,368 +7451,733 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="41">
-        <v>28.195789999999999</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="49">
-        <v>20.479099999999999</v>
-      </c>
-      <c r="E23" s="49">
-        <v>17.055199999999999</v>
-      </c>
-      <c r="F23" s="49">
-        <v>16.732700000000001</v>
-      </c>
-      <c r="G23" s="50">
-        <v>23.957100000000001</v>
-      </c>
-      <c r="H23" s="49">
-        <v>15.9</v>
-      </c>
-      <c r="I23" s="49">
-        <v>15.7637</v>
-      </c>
-      <c r="J23" s="49">
-        <v>15.238200000000001</v>
+      <c r="C23" s="43"/>
+      <c r="D23" s="31">
+        <f>(D$6-D24)/D$6</f>
+        <v>0.1502448132780084</v>
+      </c>
+      <c r="E23" s="31">
+        <f>(E$6-E24)/E$6</f>
+        <v>0.16803902439024393</v>
+      </c>
+      <c r="F23" s="31">
+        <f t="shared" ref="F23:J23" si="7">(F$6-F24)/F$6</f>
+        <v>0.15491414141414139</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="7"/>
+        <v>0.10940148698884752</v>
+      </c>
+      <c r="H23" s="31">
+        <f t="shared" si="7"/>
+        <v>0.1215469613259669</v>
+      </c>
+      <c r="I23" s="31">
+        <f t="shared" si="7"/>
+        <v>0.15702139037433152</v>
+      </c>
+      <c r="J23" s="31">
+        <f t="shared" si="7"/>
+        <v>0.20634374999999994</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="41">
-        <v>20.446567999999999</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="49">
-        <v>5.6402000000000001</v>
-      </c>
-      <c r="E24" s="49">
-        <v>4.0423999999999998</v>
-      </c>
-      <c r="F24" s="49">
-        <v>5.1342999999999996</v>
-      </c>
-      <c r="G24" s="50">
-        <v>7.3920000000000003</v>
-      </c>
-      <c r="H24" s="49">
-        <v>4.8</v>
-      </c>
-      <c r="I24" s="49">
-        <v>4.5</v>
-      </c>
-      <c r="J24" s="49">
-        <v>3.1427999999999998</v>
+        <v>28.195789999999999</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="47">
+        <v>20.479099999999999</v>
+      </c>
+      <c r="E24" s="47">
+        <v>17.055199999999999</v>
+      </c>
+      <c r="F24" s="47">
+        <v>16.732700000000001</v>
+      </c>
+      <c r="G24" s="48">
+        <v>23.957100000000001</v>
+      </c>
+      <c r="H24" s="47">
+        <v>15.9</v>
+      </c>
+      <c r="I24" s="47">
+        <v>15.7637</v>
+      </c>
+      <c r="J24" s="47">
+        <v>15.238200000000001</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="41">
-        <v>29.075797999999899</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="49">
-        <v>22.216200000000001</v>
-      </c>
-      <c r="E25" s="49">
-        <v>18.7498</v>
-      </c>
-      <c r="F25" s="49">
-        <v>18.194600000000001</v>
-      </c>
-      <c r="G25" s="50">
-        <v>25.747399999999999</v>
-      </c>
-      <c r="H25" s="50">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I25" s="49">
-        <v>17.494299999999999</v>
-      </c>
-      <c r="J25" s="49">
-        <v>17.2562</v>
+      <c r="B25" s="41"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="31">
+        <f>(D$6-D26)/D$6</f>
+        <v>0.76596680497925307</v>
+      </c>
+      <c r="E25" s="31">
+        <f>(E$6-E26)/E$6</f>
+        <v>0.80280975609756089</v>
+      </c>
+      <c r="F25" s="31">
+        <f t="shared" ref="F25" si="8">(F$6-F26)/F$6</f>
+        <v>0.74069191919191923</v>
+      </c>
+      <c r="G25" s="31">
+        <f t="shared" ref="G25" si="9">(G$6-G26)/G$6</f>
+        <v>0.72520446096654279</v>
+      </c>
+      <c r="H25" s="31">
+        <f t="shared" ref="H25" si="10">(H$6-H26)/H$6</f>
+        <v>0.73480662983425415</v>
+      </c>
+      <c r="I25" s="31">
+        <f t="shared" ref="I25" si="11">(I$6-I26)/I$6</f>
+        <v>0.75935828877005351</v>
+      </c>
+      <c r="J25" s="31">
+        <f t="shared" ref="J25" si="12">(J$6-J26)/J$6</f>
+        <v>0.8363124999999999</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="41">
-        <v>25.1388959999999</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="49">
-        <v>16.156400000000001</v>
-      </c>
-      <c r="E26" s="49">
-        <v>12.839</v>
-      </c>
-      <c r="F26" s="49">
-        <v>12.609400000000001</v>
-      </c>
-      <c r="G26" s="50">
-        <v>19.9026</v>
-      </c>
-      <c r="H26" s="49">
-        <v>13.4</v>
-      </c>
-      <c r="I26" s="49">
-        <v>12.5435</v>
-      </c>
-      <c r="J26" s="49">
-        <v>11.161300000000001</v>
+        <v>20.446567999999999</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="47">
+        <v>5.6402000000000001</v>
+      </c>
+      <c r="E26" s="47">
+        <v>4.0423999999999998</v>
+      </c>
+      <c r="F26" s="47">
+        <v>5.1342999999999996</v>
+      </c>
+      <c r="G26" s="48">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="H26" s="47">
+        <v>4.8</v>
+      </c>
+      <c r="I26" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="J26" s="47">
+        <v>3.1427999999999998</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="31">
+        <f>(D$6-D28)/D$6</f>
+        <v>7.8165975103734464E-2</v>
+      </c>
+      <c r="E27" s="31">
+        <f>(E$6-E28)/E$6</f>
+        <v>8.5375609756097537E-2</v>
+      </c>
+      <c r="F27" s="31">
+        <f t="shared" ref="F27" si="13">(F$6-F28)/F$6</f>
+        <v>8.1080808080808059E-2</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" ref="G27" si="14">(G$6-G28)/G$6</f>
+        <v>4.2847583643122668E-2</v>
+      </c>
+      <c r="H27" s="31">
+        <f t="shared" ref="H27" si="15">(H$6-H28)/H$6</f>
+        <v>3.8674033149171422E-2</v>
+      </c>
+      <c r="I27" s="31">
+        <f t="shared" ref="I27" si="16">(I$6-I28)/I$6</f>
+        <v>6.4475935828877021E-2</v>
+      </c>
+      <c r="J27" s="31">
+        <f t="shared" ref="J27" si="17">(J$6-J28)/J$6</f>
+        <v>0.10123958333333331</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="41">
-        <v>28.139831999999998</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="49">
-        <v>20.967199999999998</v>
-      </c>
-      <c r="E28" s="49">
-        <v>17.3626</v>
-      </c>
-      <c r="F28" s="49">
-        <v>16.8384</v>
-      </c>
-      <c r="G28" s="50">
-        <v>24.311199999999999</v>
-      </c>
-      <c r="H28" s="49">
-        <v>16.304099999999998</v>
-      </c>
-      <c r="I28" s="49">
-        <v>16.229900000000001</v>
-      </c>
-      <c r="J28" s="49">
-        <v>15.817600000000001</v>
+        <v>29.075797999999899</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="47">
+        <v>22.216200000000001</v>
+      </c>
+      <c r="E28" s="47">
+        <v>18.7498</v>
+      </c>
+      <c r="F28" s="47">
+        <v>18.194600000000001</v>
+      </c>
+      <c r="G28" s="48">
+        <v>25.747399999999999</v>
+      </c>
+      <c r="H28" s="48">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I28" s="47">
+        <v>17.494299999999999</v>
+      </c>
+      <c r="J28" s="47">
+        <v>17.2562</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="41">
-        <v>20.435661999999901</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="49">
-        <v>5.5350000000000001</v>
-      </c>
-      <c r="E29" s="49">
-        <v>3.9685999999999999</v>
-      </c>
-      <c r="F29" s="49">
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="G29" s="49">
-        <v>7.8151999999999999</v>
-      </c>
-      <c r="H29" s="49">
-        <v>5.1481000000000003</v>
-      </c>
-      <c r="I29" s="49">
-        <v>4.8479999999999999</v>
-      </c>
-      <c r="J29" s="49">
-        <v>3.2141000000000002</v>
+      <c r="B29" s="41"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="31">
+        <f>(D$6-D30)/D$6</f>
+        <v>0.32960995850622404</v>
+      </c>
+      <c r="E29" s="31">
+        <f>(E$6-E30)/E$6</f>
+        <v>0.37370731707317073</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" ref="F29" si="18">(F$6-F30)/F$6</f>
+        <v>0.36316161616161613</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" ref="G29" si="19">(G$6-G30)/G$6</f>
+        <v>0.26012639405204457</v>
+      </c>
+      <c r="H29" s="31">
+        <f t="shared" ref="H29" si="20">(H$6-H30)/H$6</f>
+        <v>0.25966850828729288</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" ref="I29" si="21">(I$6-I30)/I$6</f>
+        <v>0.32922459893048128</v>
+      </c>
+      <c r="J29" s="31">
+        <f t="shared" ref="J29" si="22">(J$6-J30)/J$6</f>
+        <v>0.4186822916666666</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="41">
-        <v>29.071529999999999</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="49">
-        <v>22.316600000000001</v>
-      </c>
-      <c r="E30" s="49">
-        <v>18.8017</v>
-      </c>
-      <c r="F30" s="49">
-        <v>18.0425</v>
-      </c>
-      <c r="G30" s="49">
-        <v>25.9008</v>
-      </c>
-      <c r="H30" s="49">
-        <v>17.532900000000001</v>
-      </c>
-      <c r="I30" s="49">
-        <v>17.705200000000001</v>
-      </c>
-      <c r="J30" s="49">
-        <v>17.386399999999998</v>
+        <v>25.1388959999999</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="47">
+        <v>16.156400000000001</v>
+      </c>
+      <c r="E30" s="47">
+        <v>12.839</v>
+      </c>
+      <c r="F30" s="47">
+        <v>12.609400000000001</v>
+      </c>
+      <c r="G30" s="48">
+        <v>19.9026</v>
+      </c>
+      <c r="H30" s="47">
+        <v>13.4</v>
+      </c>
+      <c r="I30" s="47">
+        <v>12.5435</v>
+      </c>
+      <c r="J30" s="47">
+        <v>11.161300000000001</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="41">
-        <v>25.118027999999999</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="49">
-        <v>16.230499999999999</v>
-      </c>
-      <c r="E31" s="49">
-        <v>13.0413</v>
-      </c>
-      <c r="F31" s="49">
-        <v>12.755100000000001</v>
-      </c>
-      <c r="G31" s="49">
-        <v>20.104679999999998</v>
-      </c>
-      <c r="H31" s="49">
-        <v>13.5511</v>
-      </c>
-      <c r="I31" s="49">
-        <v>12.843299999999999</v>
-      </c>
-      <c r="J31" s="49">
-        <v>11.408200000000001</v>
+      <c r="B31" s="41"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="31">
+        <f>(D$6-D32)/D$6</f>
+        <v>0.12999170124481341</v>
+      </c>
+      <c r="E31" s="31">
+        <f>(E$6-E32)/E$6</f>
+        <v>0.15304390243902435</v>
+      </c>
+      <c r="F31" s="31">
+        <f t="shared" ref="F31" si="23">(F$6-F32)/F$6</f>
+        <v>0.14957575757575761</v>
+      </c>
+      <c r="G31" s="31">
+        <f t="shared" ref="G31" si="24">(G$6-G32)/G$6</f>
+        <v>9.6237918215613352E-2</v>
+      </c>
+      <c r="H31" s="31">
+        <f t="shared" ref="H31" si="25">(H$6-H32)/H$6</f>
+        <v>9.9220994475138283E-2</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" ref="I31" si="26">(I$6-I32)/I$6</f>
+        <v>0.13209090909090901</v>
+      </c>
+      <c r="J31" s="31">
+        <f t="shared" ref="J31" si="27">(J$6-J32)/J$6</f>
+        <v>0.17616666666666661</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
+      <c r="B32" s="41">
+        <v>28.139831999999998</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="47">
+        <v>20.967199999999998</v>
+      </c>
+      <c r="E32" s="47">
+        <v>17.3626</v>
+      </c>
+      <c r="F32" s="47">
+        <v>16.8384</v>
+      </c>
+      <c r="G32" s="48">
+        <v>24.311199999999999</v>
+      </c>
+      <c r="H32" s="47">
+        <v>16.304099999999998</v>
+      </c>
+      <c r="I32" s="47">
+        <v>16.229900000000001</v>
+      </c>
+      <c r="J32" s="47">
+        <v>15.817600000000001</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="41">
-        <v>28.1811720000001</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="49">
-        <v>19.975300000000001</v>
-      </c>
-      <c r="E33" s="49">
-        <v>16.698799999999999</v>
-      </c>
-      <c r="F33" s="49">
-        <v>16.102499999999999</v>
-      </c>
-      <c r="G33" s="49">
-        <v>23.2</v>
-      </c>
-      <c r="H33" s="49">
-        <v>15.216100000000001</v>
-      </c>
-      <c r="I33" s="49">
-        <v>15.3818</v>
-      </c>
-      <c r="J33" s="49">
-        <v>15.008699999999999</v>
+      <c r="B33" s="41"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="31">
+        <f>(D$6-D34)/D$6</f>
+        <v>0.77033195020746892</v>
+      </c>
+      <c r="E33" s="31">
+        <f>(E$6-E34)/E$6</f>
+        <v>0.80640975609756105</v>
+      </c>
+      <c r="F33" s="31">
+        <f t="shared" ref="F33" si="28">(F$6-F34)/F$6</f>
+        <v>0.7591919191919192</v>
+      </c>
+      <c r="G33" s="31">
+        <f t="shared" ref="G33" si="29">(G$6-G34)/G$6</f>
+        <v>0.70947211895910778</v>
+      </c>
+      <c r="H33" s="31">
+        <f t="shared" ref="H33" si="30">(H$6-H34)/H$6</f>
+        <v>0.71557458563535914</v>
+      </c>
+      <c r="I33" s="31">
+        <f t="shared" ref="I33" si="31">(I$6-I34)/I$6</f>
+        <v>0.74074866310160437</v>
+      </c>
+      <c r="J33" s="31">
+        <f t="shared" ref="J33" si="32">(J$6-J34)/J$6</f>
+        <v>0.83259895833333331</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="41">
-        <v>20.62227</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="49">
-        <v>5.8933999999999997</v>
-      </c>
-      <c r="E34" s="49">
-        <v>4.1532</v>
-      </c>
-      <c r="F34" s="49">
-        <v>5.0208000000000004</v>
-      </c>
-      <c r="G34" s="49">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H34" s="49">
-        <v>5.2434000000000003</v>
-      </c>
-      <c r="I34" s="49">
-        <v>5.3193999999999999</v>
-      </c>
-      <c r="J34" s="49">
-        <v>3.4377</v>
+        <v>20.435661999999901</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="47">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E34" s="47">
+        <v>3.9685999999999999</v>
+      </c>
+      <c r="F34" s="47">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="G34" s="47">
+        <v>7.8151999999999999</v>
+      </c>
+      <c r="H34" s="47">
+        <v>5.1481000000000003</v>
+      </c>
+      <c r="I34" s="47">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="J34" s="47">
+        <v>3.2141000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="41">
-        <v>28.863011999999799</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="49">
-        <v>21.221800000000002</v>
-      </c>
-      <c r="E35" s="49">
-        <v>17.5502</v>
-      </c>
-      <c r="F35" s="49">
-        <v>17.078099999999999</v>
-      </c>
-      <c r="G35" s="49">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H35" s="49">
-        <v>16.4985</v>
-      </c>
-      <c r="I35" s="49">
-        <v>16.534600000000001</v>
-      </c>
-      <c r="J35" s="49">
-        <v>15.9984</v>
+      <c r="B35" s="41"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="31">
+        <f>(D$6-D36)/D$6</f>
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="E35" s="31">
+        <f>(E$6-E36)/E$6</f>
+        <v>8.2843902439024369E-2</v>
+      </c>
+      <c r="F35" s="31">
+        <f t="shared" ref="F35" si="33">(F$6-F36)/F$6</f>
+        <v>8.8762626262626279E-2</v>
+      </c>
+      <c r="G35" s="31">
+        <f t="shared" ref="G35" si="34">(G$6-G36)/G$6</f>
+        <v>3.7144981412639347E-2</v>
+      </c>
+      <c r="H35" s="31">
+        <f t="shared" ref="H35" si="35">(H$6-H36)/H$6</f>
+        <v>3.1331491712707174E-2</v>
+      </c>
+      <c r="I35" s="31">
+        <f t="shared" ref="I35" si="36">(I$6-I36)/I$6</f>
+        <v>5.3197860962566734E-2</v>
+      </c>
+      <c r="J35" s="31">
+        <f t="shared" ref="J35" si="37">(J$6-J36)/J$6</f>
+        <v>9.4458333333333394E-2</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="41">
+        <v>29.071529999999999</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="47">
+        <v>22.316600000000001</v>
+      </c>
+      <c r="E36" s="47">
+        <v>18.8017</v>
+      </c>
+      <c r="F36" s="47">
+        <v>18.0425</v>
+      </c>
+      <c r="G36" s="47">
+        <v>25.9008</v>
+      </c>
+      <c r="H36" s="47">
+        <v>17.532900000000001</v>
+      </c>
+      <c r="I36" s="47">
+        <v>17.705200000000001</v>
+      </c>
+      <c r="J36" s="47">
+        <v>17.386399999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="31">
+        <f>(D$6-D38)/D$6</f>
+        <v>0.32653526970954366</v>
+      </c>
+      <c r="E37" s="31">
+        <f>(E$6-E38)/E$6</f>
+        <v>0.3638390243902439</v>
+      </c>
+      <c r="F37" s="31">
+        <f t="shared" ref="F37" si="38">(F$6-F38)/F$6</f>
+        <v>0.35580303030303029</v>
+      </c>
+      <c r="G37" s="31">
+        <f t="shared" ref="G37" si="39">(G$6-G38)/G$6</f>
+        <v>0.25261412639405206</v>
+      </c>
+      <c r="H37" s="31">
+        <f t="shared" ref="H37" si="40">(H$6-H38)/H$6</f>
+        <v>0.25132044198895032</v>
+      </c>
+      <c r="I37" s="31">
+        <f t="shared" ref="I37" si="41">(I$6-I38)/I$6</f>
+        <v>0.31319251336898396</v>
+      </c>
+      <c r="J37" s="31">
+        <f t="shared" ref="J37" si="42">(J$6-J38)/J$6</f>
+        <v>0.40582291666666659</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="41">
+        <v>25.118027999999999</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="47">
+        <v>16.230499999999999</v>
+      </c>
+      <c r="E38" s="47">
+        <v>13.0413</v>
+      </c>
+      <c r="F38" s="47">
+        <v>12.755100000000001</v>
+      </c>
+      <c r="G38" s="47">
+        <v>20.104679999999998</v>
+      </c>
+      <c r="H38" s="47">
+        <v>13.5511</v>
+      </c>
+      <c r="I38" s="47">
+        <v>12.843299999999999</v>
+      </c>
+      <c r="J38" s="47">
+        <v>11.408200000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="41"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="31">
+        <f>(D$6-D40)/D$6</f>
+        <v>0.17114937759336102</v>
+      </c>
+      <c r="E39" s="31">
+        <f>(E$6-E40)/E$6</f>
+        <v>0.1854243902439025</v>
+      </c>
+      <c r="F39" s="31">
+        <f t="shared" ref="F39" si="43">(F$6-F40)/F$6</f>
+        <v>0.18674242424242432</v>
+      </c>
+      <c r="G39" s="31">
+        <f t="shared" ref="G39" si="44">(G$6-G40)/G$6</f>
+        <v>0.13754646840148696</v>
+      </c>
+      <c r="H39" s="31">
+        <f t="shared" ref="H39" si="45">(H$6-H40)/H$6</f>
+        <v>0.15933149171270719</v>
+      </c>
+      <c r="I39" s="31">
+        <f t="shared" ref="I39" si="46">(I$6-I40)/I$6</f>
+        <v>0.17744385026737963</v>
+      </c>
+      <c r="J39" s="31">
+        <f t="shared" ref="J39" si="47">(J$6-J40)/J$6</f>
+        <v>0.218296875</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="41">
+        <v>28.1811720000001</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="47">
+        <v>19.975300000000001</v>
+      </c>
+      <c r="E40" s="47">
+        <v>16.698799999999999</v>
+      </c>
+      <c r="F40" s="47">
+        <v>16.102499999999999</v>
+      </c>
+      <c r="G40" s="47">
+        <v>23.2</v>
+      </c>
+      <c r="H40" s="47">
+        <v>15.216100000000001</v>
+      </c>
+      <c r="I40" s="47">
+        <v>15.3818</v>
+      </c>
+      <c r="J40" s="47">
+        <v>15.008699999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="41"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="31">
+        <f>(D$6-D42)/D$6</f>
+        <v>0.75546058091286306</v>
+      </c>
+      <c r="E41" s="31">
+        <f>(E$6-E42)/E$6</f>
+        <v>0.79740487804878057</v>
+      </c>
+      <c r="F41" s="31">
+        <f t="shared" ref="F41" si="48">(F$6-F42)/F$6</f>
+        <v>0.74642424242424232</v>
+      </c>
+      <c r="G41" s="31">
+        <f t="shared" ref="G41" si="49">(G$6-G42)/G$6</f>
+        <v>0.69516728624535318</v>
+      </c>
+      <c r="H41" s="31">
+        <f t="shared" ref="H41" si="50">(H$6-H42)/H$6</f>
+        <v>0.7103093922651933</v>
+      </c>
+      <c r="I41" s="31">
+        <f t="shared" ref="I41" si="51">(I$6-I42)/I$6</f>
+        <v>0.71554010695187165</v>
+      </c>
+      <c r="J41" s="31">
+        <f t="shared" ref="J41" si="52">(J$6-J42)/J$6</f>
+        <v>0.82095312500000006</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="41">
+        <v>20.62227</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="47">
+        <v>5.8933999999999997</v>
+      </c>
+      <c r="E42" s="47">
+        <v>4.1532</v>
+      </c>
+      <c r="F42" s="47">
+        <v>5.0208000000000004</v>
+      </c>
+      <c r="G42" s="47">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H42" s="47">
+        <v>5.2434000000000003</v>
+      </c>
+      <c r="I42" s="47">
+        <v>5.3193999999999999</v>
+      </c>
+      <c r="J42" s="47">
+        <v>3.4377</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="41"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="31">
+        <f>(D$6-D44)/D$6</f>
+        <v>0.11942738589211616</v>
+      </c>
+      <c r="E43" s="31">
+        <f>(E$6-E44)/E$6</f>
+        <v>0.14389268292682925</v>
+      </c>
+      <c r="F43" s="31">
+        <f t="shared" ref="F43" si="53">(F$6-F44)/F$6</f>
+        <v>0.13746969696969705</v>
+      </c>
+      <c r="G43" s="31">
+        <f t="shared" ref="G43" si="54">(G$6-G44)/G$6</f>
+        <v>0.33457249070631973</v>
+      </c>
+      <c r="H43" s="31">
+        <f t="shared" ref="H43" si="55">(H$6-H44)/H$6</f>
+        <v>8.8480662983425495E-2</v>
+      </c>
+      <c r="I43" s="31">
+        <f t="shared" ref="I43" si="56">(I$6-I44)/I$6</f>
+        <v>0.11579679144385017</v>
+      </c>
+      <c r="J43" s="31">
+        <f t="shared" ref="J43" si="57">(J$6-J44)/J$6</f>
+        <v>0.16674999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="41">
+        <v>28.863011999999799</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="47">
+        <v>21.221800000000002</v>
+      </c>
+      <c r="E44" s="47">
+        <v>17.5502</v>
+      </c>
+      <c r="F44" s="47">
+        <v>17.078099999999999</v>
+      </c>
+      <c r="G44" s="47">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H44" s="47">
+        <v>16.4985</v>
+      </c>
+      <c r="I44" s="47">
+        <v>16.534600000000001</v>
+      </c>
+      <c r="J44" s="47">
+        <v>15.9984</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="41"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="31">
+        <f>(D$6-D46)/D$6</f>
+        <v>0.38562655601659757</v>
+      </c>
+      <c r="E45" s="31">
+        <f>(E$6-E46)/E$6</f>
+        <v>0.44087317073170734</v>
+      </c>
+      <c r="F45" s="31">
+        <f t="shared" ref="F45" si="58">(F$6-F46)/F$6</f>
+        <v>0.41767171717171725</v>
+      </c>
+      <c r="G45" s="31">
+        <f t="shared" ref="G45" si="59">(G$6-G46)/G$6</f>
+        <v>8.1784386617100344E-2</v>
+      </c>
+      <c r="H45" s="31">
+        <f t="shared" ref="H45" si="60">(H$6-H46)/H$6</f>
+        <v>0.34106077348066305</v>
+      </c>
+      <c r="I45" s="31">
+        <f t="shared" ref="I45" si="61">(I$6-I46)/I$6</f>
+        <v>0.4148609625668449</v>
+      </c>
+      <c r="J45" s="31">
+        <f t="shared" ref="J45" si="62">(J$6-J46)/J$6</f>
+        <v>0.48615104166666667</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="41">
         <v>25.025085999999899</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C46" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D46" s="47">
         <v>14.8064</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E46" s="47">
         <v>11.4621</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F46" s="47">
         <v>11.530099999999999</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G46" s="47">
         <v>24.7</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H46" s="47">
         <v>11.9268</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I46" s="47">
         <v>10.9421</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J46" s="47">
         <v>9.8658999999999999</v>
       </c>
     </row>
@@ -7387,6 +8188,736 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A79AA3-4CCE-409D-A9FF-831D4BDD5DE6}">
+  <dimension ref="B3:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E4" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="H4" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="I4" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="24"/>
+      <c r="D5" s="32">
+        <f>(D4-D6)/D4</f>
+        <v>0.2953216374269006</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" ref="E5:J5" si="0">(E4-E6)/E4</f>
+        <v>0.34294871794871795</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.32881355932203388</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.19940476190476197</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.10396039603960386</v>
+      </c>
+      <c r="I5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.15765765765765766</v>
+      </c>
+      <c r="J5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.31672597864768687</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="G6" s="18">
+        <v>26.9</v>
+      </c>
+      <c r="H6" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I6" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="J6" s="18">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
+        <v>28.195789999999999</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="47">
+        <v>20.479099999999999</v>
+      </c>
+      <c r="E8" s="47">
+        <v>17.055199999999999</v>
+      </c>
+      <c r="F8" s="47">
+        <v>16.732700000000001</v>
+      </c>
+      <c r="G8" s="48">
+        <v>23.957100000000001</v>
+      </c>
+      <c r="H8" s="47">
+        <v>15.9</v>
+      </c>
+      <c r="I8" s="47">
+        <v>15.7637</v>
+      </c>
+      <c r="J8" s="47">
+        <v>15.238200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="41">
+        <v>24.88289</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="G9" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="41">
+        <v>20.446567999999999</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="47">
+        <v>5.6402000000000001</v>
+      </c>
+      <c r="E10" s="47">
+        <v>4.0423999999999998</v>
+      </c>
+      <c r="F10" s="47">
+        <v>5.1342999999999996</v>
+      </c>
+      <c r="G10" s="48">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="H10" s="47">
+        <v>4.8</v>
+      </c>
+      <c r="I10" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="47">
+        <v>3.1427999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="41"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
+        <v>28.139831999999998</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="47">
+        <v>20.967199999999998</v>
+      </c>
+      <c r="E12" s="47">
+        <v>17.3626</v>
+      </c>
+      <c r="F12" s="47">
+        <v>16.8384</v>
+      </c>
+      <c r="G12" s="48">
+        <v>24.311199999999999</v>
+      </c>
+      <c r="H12" s="47">
+        <v>16.304099999999998</v>
+      </c>
+      <c r="I12" s="47">
+        <v>16.229900000000001</v>
+      </c>
+      <c r="J12" s="47">
+        <v>15.817600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
+        <v>24.853814</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E13" s="18">
+        <v>11</v>
+      </c>
+      <c r="F13" s="18">
+        <v>11</v>
+      </c>
+      <c r="G13" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="I13" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="J13" s="18">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="41">
+        <v>20.435661999999901</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="47">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E14" s="47">
+        <v>3.9685999999999999</v>
+      </c>
+      <c r="F14" s="47">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="G14" s="47">
+        <v>7.8151999999999999</v>
+      </c>
+      <c r="H14" s="47">
+        <v>5.1481000000000003</v>
+      </c>
+      <c r="I14" s="47">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="J14" s="47">
+        <v>3.2141000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="41">
+        <v>28.1811720000001</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="47">
+        <v>19.975300000000001</v>
+      </c>
+      <c r="E16" s="47">
+        <v>16.698799999999999</v>
+      </c>
+      <c r="F16" s="47">
+        <v>16.102499999999999</v>
+      </c>
+      <c r="G16" s="47">
+        <v>23.2</v>
+      </c>
+      <c r="H16" s="47">
+        <v>15.216100000000001</v>
+      </c>
+      <c r="I16" s="47">
+        <v>15.3818</v>
+      </c>
+      <c r="J16" s="47">
+        <v>15.008699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="41">
+        <v>25.02739</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="E17" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="F17" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="G17" s="18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H17" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="I17" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="J17" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="41">
+        <v>20.62227</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="47">
+        <v>5.8933999999999997</v>
+      </c>
+      <c r="E18" s="47">
+        <v>4.1532</v>
+      </c>
+      <c r="F18" s="47">
+        <v>5.0208000000000004</v>
+      </c>
+      <c r="G18" s="47">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H18" s="47">
+        <v>5.2434000000000003</v>
+      </c>
+      <c r="I18" s="47">
+        <v>5.3193999999999999</v>
+      </c>
+      <c r="J18" s="47">
+        <v>3.4377</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="41">
+        <v>29.075797999999899</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="47">
+        <v>22.216200000000001</v>
+      </c>
+      <c r="E20" s="47">
+        <v>18.7498</v>
+      </c>
+      <c r="F20" s="47">
+        <v>18.194600000000001</v>
+      </c>
+      <c r="G20" s="48">
+        <v>25.747399999999999</v>
+      </c>
+      <c r="H20" s="48">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I20" s="47">
+        <v>17.494299999999999</v>
+      </c>
+      <c r="J20" s="47">
+        <v>17.2562</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>27.889510000000001</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="E21" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="F21" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G21" s="18">
+        <v>24</v>
+      </c>
+      <c r="H21" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I21" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="J21" s="18">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="41">
+        <v>25.1388959999999</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="47">
+        <v>16.156400000000001</v>
+      </c>
+      <c r="E22" s="47">
+        <v>12.839</v>
+      </c>
+      <c r="F22" s="47">
+        <v>12.609400000000001</v>
+      </c>
+      <c r="G22" s="48">
+        <v>19.9026</v>
+      </c>
+      <c r="H22" s="47">
+        <v>13.4</v>
+      </c>
+      <c r="I22" s="47">
+        <v>12.5435</v>
+      </c>
+      <c r="J22" s="47">
+        <v>11.161300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="24"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="41">
+        <v>29.071529999999999</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="47">
+        <v>22.316600000000001</v>
+      </c>
+      <c r="E24" s="47">
+        <v>18.8017</v>
+      </c>
+      <c r="F24" s="47">
+        <v>18.0425</v>
+      </c>
+      <c r="G24" s="47">
+        <v>25.9008</v>
+      </c>
+      <c r="H24" s="47">
+        <v>17.532900000000001</v>
+      </c>
+      <c r="I24" s="47">
+        <v>17.705200000000001</v>
+      </c>
+      <c r="J24" s="47">
+        <v>17.386399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="41">
+        <v>27.872768000000001</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="E25" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F25" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="G25" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="H25" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I25" s="18">
+        <v>16</v>
+      </c>
+      <c r="J25" s="18">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="41">
+        <v>25.118027999999999</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="47">
+        <v>16.230499999999999</v>
+      </c>
+      <c r="E26" s="47">
+        <v>13.0413</v>
+      </c>
+      <c r="F26" s="47">
+        <v>12.755100000000001</v>
+      </c>
+      <c r="G26" s="47">
+        <v>20.104679999999998</v>
+      </c>
+      <c r="H26" s="47">
+        <v>13.5511</v>
+      </c>
+      <c r="I26" s="47">
+        <v>12.843299999999999</v>
+      </c>
+      <c r="J26" s="47">
+        <v>11.408200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="41">
+        <v>28.863011999999799</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="47">
+        <v>21.221800000000002</v>
+      </c>
+      <c r="E28" s="47">
+        <v>17.5502</v>
+      </c>
+      <c r="F28" s="47">
+        <v>17.078099999999999</v>
+      </c>
+      <c r="G28" s="47">
+        <v>24.7</v>
+      </c>
+      <c r="H28" s="47">
+        <v>16.4985</v>
+      </c>
+      <c r="I28" s="47">
+        <v>16.534600000000001</v>
+      </c>
+      <c r="J28" s="47">
+        <v>15.9984</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="41">
+        <v>27.6897979999999</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E29" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="F29" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="G29" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="H29" s="18">
+        <v>15</v>
+      </c>
+      <c r="I29" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="J29" s="18">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="41">
+        <v>25.025085999999899</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="47">
+        <v>14.8064</v>
+      </c>
+      <c r="E30" s="47">
+        <v>11.4621</v>
+      </c>
+      <c r="F30" s="47">
+        <v>11.530099999999999</v>
+      </c>
+      <c r="G30" s="47">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H30" s="47">
+        <v>11.9268</v>
+      </c>
+      <c r="I30" s="47">
+        <v>10.9421</v>
+      </c>
+      <c r="J30" s="47">
+        <v>9.8658999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D8:J30">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D8=MIN($D8:$J8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D8=MAX($D8:$J8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112D7606-9C8B-41DF-A553-5965F3EFCEBB}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -7736,7 +9267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EA95B5-81FA-4847-8115-7473FD5464FC}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -7771,338 +9302,338 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>0.34200000000000003</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0.312</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0.33600000000000002</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>0.20200000000000001</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>0.222</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>0.51600000000000001</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>0.46</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0.51500000000000001</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.34899999999999998</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>0.371</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>0.36</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>0.33200000000000002</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>0.31</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>0.35599999999999998</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>0.106</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>0.06</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>0.30599999999999999</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0.28499999999999998</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0.26700000000000002</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0.311</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.104</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>0.16</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>0.255</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>0.50700000000000001</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>0.45700000000000002</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>0.52</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.38500000000000001</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>0.378</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>0.28599999999999998</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0.27300000000000002</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>0.217</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>0.219</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>0.45700000000000002</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>0.441</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>0.33</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <v>0.33900000000000002</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>0.48899999999999999</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>0.47699999999999998</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>0.442</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.46899999999999997</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>0.34899999999999998</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>0.36599999999999999</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>0.224</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>0.223</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>0.14699999999999999</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>0.125</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>0.46</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>0.44500000000000001</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.48699999999999999</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>0.26500000000000001</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>0.34499999999999997</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="44">
         <v>0.66300000000000003</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
         <v>0.64900000000000002</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <v>0.63900000000000001</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="44">
         <v>0.66700000000000004</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <v>0.60199999999999998</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="44">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="44">
         <v>0.59299999999999997</v>
       </c>
     </row>
@@ -8148,10 +9679,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H15">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>B4=MAX($B4:$H4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>B4=MIN($B4:$H4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8159,12 +9690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2C188C-874F-40B9-8096-DC9C26D94CA6}">
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="B3:H14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8180,348 +9711,348 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>0.24099999999999999</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <v>0.19800000000000001</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>0.26900000000000002</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <v>0.187</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="44">
         <v>0.192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>0.375</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0.32</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0.435</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>0.309</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>0.31900000000000001</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>0.253</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>0.216</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0.27700000000000002</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.182</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>0.191</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>0.106</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>0.09</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>0.11899999999999999</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>0.35599999999999998</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>0.316</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>0.314</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>0.372</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>0.251</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>0.26300000000000001</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>0.40699999999999997</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0.30599999999999999</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0.307</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0.495</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.46800000000000003</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>0.248</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0.22700000000000001</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>0.222</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>0.251</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.20200000000000001</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>0.2</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>0.39600000000000002</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0.35499999999999998</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>0.38300000000000001</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>0.307</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>0.31</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>0.41299999999999998</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>0.38600000000000001</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>0.372</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>0.40899999999999997</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>0.32500000000000001</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <v>0.33300000000000002</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>0.245</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.246</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>0.114</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>0.151</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>0.54200000000000004</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>0.50900000000000001</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>0.51100000000000001</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>0.55100000000000005</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>0.47899999999999998</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <v>0.48199999999999998</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>0.66800000000000004</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0.60299999999999998</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>0.69</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>0.59499999999999997</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <v>0.57799999999999996</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{3E2C188C-874F-40B9-8096-DC9C26D94CA6}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8529,7 +10060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -8550,720 +10081,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>0.106</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="44">
         <v>0.109</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>0.111</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <v>0.106</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="44">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>0.22600000000000001</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0.182</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0.184</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>0.19</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>0.14099999999999999</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>0.108</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>0.111</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.109</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>0.105</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>4.7E-2</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>6.3E-2</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>0.20699999999999999</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>0.17299999999999999</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>0.17699999999999999</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>0.24</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>0.128</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>0.25700000000000001</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0.157</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>0.16900000000000001</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>0.17699999999999999</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>0.156</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>0.188</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.152</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>0.28199999999999997</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0.251</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>0.23100000000000001</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>0.221</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>0.214</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>0.29499999999999998</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>0.311</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>0.156</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.156</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>0.39200000000000002</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>0.34399999999999997</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>0.42</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>0.35399999999999998</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>0.495</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>0.38</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>0.55700000000000005</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>0.47499999999999998</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <v>0.41399999999999998</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>B3=MIN($B3:$H3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}">
-  <dimension ref="A2:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="45">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C3" s="45">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D3" s="45">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E3" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="F3" s="45">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="G3" s="45">
-        <v>0.159</v>
-      </c>
-      <c r="H3" s="45">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="45">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="C4" s="45">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D4" s="45">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="E4" s="45">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="F4" s="45">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G4" s="45">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="45">
-        <v>0.215</v>
-      </c>
-      <c r="C5" s="45">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="D5" s="45">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="E5" s="45">
-        <v>0.248</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="G5" s="45">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="H5" s="45">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="45">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C6" s="45">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D6" s="45">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="F6" s="45">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G6" s="45">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H6" s="45">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="45">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="C7" s="45">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D7" s="45">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F7" s="45">
-        <v>0.219</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0.222</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="45">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="C8" s="45">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D8" s="45">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="F8" s="45">
-        <v>0.433</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="45">
-        <v>0.223</v>
-      </c>
-      <c r="C9" s="45">
-        <v>0.193</v>
-      </c>
-      <c r="D9" s="45">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E9" s="45">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F9" s="45">
-        <v>0.187</v>
-      </c>
-      <c r="G9" s="45">
-        <v>0.182</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="45">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C10" s="45">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D10" s="45">
-        <v>0.316</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F10" s="45">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="45">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="45">
-        <v>0.34</v>
-      </c>
-      <c r="D11" s="45">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="F11" s="45">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="G11" s="45">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="45">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="C12" s="45">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="D12" s="45">
-        <v>0.184</v>
-      </c>
-      <c r="E12" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="F12" s="45">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G12" s="45">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="45">
-        <v>0.495</v>
-      </c>
-      <c r="C13" s="45">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="D13" s="45">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="E13" s="45">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F13" s="45">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="G13" s="45">
-        <v>0.433</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="45">
-        <v>0.625</v>
-      </c>
-      <c r="C14" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="45">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="E14" s="45">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="F14" s="45">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="G14" s="45">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}"/>
-  <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>B3=MAX($B3:$H3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayravil\gradu\project_ae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0596C557-DACB-4229-BA33-8839C0C2F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2CB8B-C910-463A-97B7-4DB35CF71938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="6" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
-    <sheet name="List of models" sheetId="4" r:id="rId1"/>
-    <sheet name="Combined results" sheetId="5" r:id="rId2"/>
-    <sheet name="IMAGE" sheetId="3" r:id="rId3"/>
-    <sheet name="Percentages" sheetId="6" r:id="rId4"/>
-    <sheet name="Percentages (2)" sheetId="19" r:id="rId5"/>
-    <sheet name="Graph" sheetId="8" r:id="rId6"/>
+    <sheet name="List of Models" sheetId="4" r:id="rId1"/>
+    <sheet name="mAP_main_epsilon" sheetId="3" r:id="rId2"/>
+    <sheet name="mAP_main_attack_architecture" sheetId="19" r:id="rId3"/>
+    <sheet name="mAP_main_dropped_in_percentage" sheetId="6" r:id="rId4"/>
+    <sheet name="Graph" sheetId="8" r:id="rId5"/>
+    <sheet name="Combined results" sheetId="5" r:id="rId6"/>
     <sheet name="Coco_original" sheetId="9" r:id="rId7"/>
     <sheet name="Coco_224" sheetId="10" r:id="rId8"/>
     <sheet name="fgsm_mobilenet" sheetId="11" r:id="rId9"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="105">
   <si>
     <t>Speed (ms)</t>
   </si>
@@ -351,6 +351,27 @@
   <si>
     <t>EfficientNetB0 PGD 0.05</t>
   </si>
+  <si>
+    <t>Epsilon value 0.05</t>
+  </si>
+  <si>
+    <t>Epsilon value 0.02</t>
+  </si>
+  <si>
+    <t>Epsilon value 0.1</t>
+  </si>
+  <si>
+    <t>PSNR avg.</t>
+  </si>
+  <si>
+    <t>AP Drop</t>
+  </si>
+  <si>
+    <t>AP 50 Drop</t>
+  </si>
+  <si>
+    <t>AP 75 Drop</t>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +381,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\ %"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +442,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,8 +505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -578,13 +612,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -686,92 +748,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="2" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="116">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -948,6 +1011,524 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2229,7 +2810,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fi-FI"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2267,7 +2848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="42700655"/>
@@ -2350,7 +2931,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fi-FI"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2382,7 +2963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="42701487"/>
@@ -2425,7 +3006,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2455,7 +3036,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fi-FI"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3051,7 +3632,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="115">
   <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
     <filterColumn colId="0">
       <customFilters>
@@ -3068,11 +3649,11 @@
     <sortCondition descending="1" ref="C1:C40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="48" dataCellStyle="Hyperlinkki"/>
-    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="114" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="111"/>
+    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="110">
       <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3081,6 +3662,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="B2:I10" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101" tableBorderDxfId="100">
+  <autoFilter ref="B2:I10" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I10">
+    <sortCondition descending="1" ref="F2:F10"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet v2 320x320" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="92"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE0B9A59-E1F5-4263-96E5-87023CE0B01C}" name="Taulukko2" displayName="Taulukko2" ref="A3:K10" totalsRowShown="0">
   <autoFilter ref="A3:K10" xr:uid="{CE0B9A59-E1F5-4263-96E5-87023CE0B01C}"/>
   <tableColumns count="11">
@@ -3088,35 +3689,15 @@
     <tableColumn id="2" xr3:uid="{FCB279FD-5628-4714-B5F6-CA3772C5E7ED}" name="Speed (ms)"/>
     <tableColumn id="3" xr3:uid="{F55163EC-ECBF-4FB9-BC64-F8FD4E943A5A}" name="COCO mAP"/>
     <tableColumn id="4" xr3:uid="{94BAFA4F-62B2-42DD-87D9-D6AF414518AF}" name="Original mAP"/>
-    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="104"/>
+    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="B2:I10" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="B2:I10" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I10">
-    <sortCondition descending="1" ref="F2:F10"/>
-  </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet v2 320x320" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="26"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3420,20 +4001,20 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="52.83984375" customWidth="1"/>
+    <col min="2" max="2" width="17.68359375" customWidth="1"/>
+    <col min="3" max="3" width="21.578125" customWidth="1"/>
+    <col min="4" max="4" width="28.15625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +4031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -3468,7 +4049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3486,7 +4067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3504,7 +4085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3522,7 +4103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3540,7 +4121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -3558,7 +4139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -3576,7 +4157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -3594,7 +4175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -3612,7 +4193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -3630,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -3648,7 +4229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -3666,7 +4247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -3684,7 +4265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -3703,7 +4284,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -3722,7 +4303,7 @@
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -3741,7 +4322,7 @@
       </c>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -3760,7 +4341,7 @@
       </c>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3778,7 +4359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -3796,7 +4377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -3814,7 +4395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +4413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -3850,7 +4431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
@@ -3868,7 +4449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -3886,7 +4467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -3904,7 +4485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -3922,7 +4503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -3940,7 +4521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3958,7 +4539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -3976,7 +4557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -3994,7 +4575,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
@@ -4012,7 +4593,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
@@ -4030,7 +4611,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
@@ -4048,7 +4629,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>12</v>
       </c>
@@ -4066,7 +4647,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>21</v>
       </c>
@@ -4084,7 +4665,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -4102,7 +4683,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
@@ -4120,7 +4701,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
@@ -4138,7 +4719,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
         <v>23</v>
       </c>
@@ -4156,135 +4737,135 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
@@ -4346,19 +4927,19 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.26171875" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43"/>
       <c r="B2" s="42" t="s">
         <v>14</v>
@@ -4382,7 +4963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
@@ -4408,7 +4989,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
@@ -4434,7 +5015,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
@@ -4460,7 +5041,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
@@ -4486,7 +5067,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
@@ -4512,7 +5093,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -4538,7 +5119,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
@@ -4564,7 +5145,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
@@ -4590,7 +5171,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
@@ -4616,7 +5197,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
@@ -4642,7 +5223,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
@@ -4668,7 +5249,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
@@ -4697,10 +5278,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4716,19 +5297,19 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.26171875" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43"/>
       <c r="B2" s="42" t="s">
         <v>14</v>
@@ -4752,7 +5333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
@@ -4778,7 +5359,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
@@ -4804,7 +5385,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
@@ -4830,7 +5411,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
@@ -4856,7 +5437,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
@@ -4882,7 +5463,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -4908,7 +5489,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
@@ -4934,7 +5515,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
@@ -4960,7 +5541,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
@@ -4986,7 +5567,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
@@ -5012,7 +5593,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
@@ -5038,7 +5619,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
@@ -5067,10 +5648,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5086,19 +5667,19 @@
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.26171875" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43"/>
       <c r="B2" s="42" t="s">
         <v>14</v>
@@ -5122,7 +5703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
@@ -5148,7 +5729,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
@@ -5174,7 +5755,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
@@ -5200,7 +5781,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
@@ -5226,7 +5807,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
@@ -5252,7 +5833,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -5278,7 +5859,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
@@ -5304,7 +5885,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
@@ -5330,7 +5911,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
@@ -5356,7 +5937,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
@@ -5382,7 +5963,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
@@ -5408,7 +5989,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
@@ -5437,10 +6018,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5456,19 +6037,19 @@
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.26171875" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43"/>
       <c r="B2" s="42" t="s">
         <v>14</v>
@@ -5492,7 +6073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
@@ -5518,7 +6099,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
@@ -5544,7 +6125,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
@@ -5570,7 +6151,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
@@ -5596,7 +6177,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
@@ -5622,7 +6203,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -5648,7 +6229,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
@@ -5674,7 +6255,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
@@ -5700,7 +6281,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
@@ -5726,7 +6307,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
@@ -5752,7 +6333,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
@@ -5778,7 +6359,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
@@ -5807,10 +6388,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5826,19 +6407,19 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.26171875" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43"/>
       <c r="B2" s="42" t="s">
         <v>14</v>
@@ -5862,7 +6443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
@@ -5888,7 +6469,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
@@ -5914,7 +6495,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
@@ -5940,7 +6521,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
@@ -5966,7 +6547,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
@@ -5992,7 +6573,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -6018,7 +6599,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
@@ -6044,7 +6625,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
@@ -6070,7 +6651,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
@@ -6096,7 +6677,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
@@ -6122,7 +6703,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
@@ -6148,7 +6729,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
@@ -6174,16 +6755,16 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6193,45 +6774,3570 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5472D2D-A35E-4F13-90B7-812EFA533864}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.15625" customWidth="1"/>
+    <col min="6" max="6" width="14.15625" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.578125" customWidth="1"/>
+    <col min="10" max="10" width="11.41796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19"/>
+      <c r="B2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18">
+        <v>27</v>
+      </c>
+      <c r="E3" s="18">
+        <v>27</v>
+      </c>
+      <c r="F3" s="18">
+        <v>39</v>
+      </c>
+      <c r="G3" s="18">
+        <v>19</v>
+      </c>
+      <c r="H3" s="18">
+        <v>22</v>
+      </c>
+      <c r="I3" s="18">
+        <v>39</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="19"/>
+      <c r="B4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D4" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F4" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G4" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I4" s="18">
+        <v>28.2</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="19"/>
+      <c r="B5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D5" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G5" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I5" s="18">
+        <v>28.1</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="19"/>
+      <c r="B6" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="57">
+        <v>24.1</v>
+      </c>
+      <c r="D6" s="57">
+        <v>20.5</v>
+      </c>
+      <c r="E6" s="57">
+        <v>19.8</v>
+      </c>
+      <c r="F6" s="57">
+        <v>26.9</v>
+      </c>
+      <c r="G6" s="57">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H6" s="57">
+        <v>18.7</v>
+      </c>
+      <c r="I6" s="57">
+        <v>19.2</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="19"/>
+      <c r="B7" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="55">
+        <v>13.8</v>
+      </c>
+      <c r="D7" s="55">
+        <v>10.6</v>
+      </c>
+      <c r="E7" s="55">
+        <v>10.9</v>
+      </c>
+      <c r="F7" s="55">
+        <v>17.2</v>
+      </c>
+      <c r="G7" s="55">
+        <v>11.1</v>
+      </c>
+      <c r="H7" s="55">
+        <v>10.6</v>
+      </c>
+      <c r="I7" s="55">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J7" s="62">
+        <v>24.88289</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19"/>
+      <c r="B8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="D8" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="E8" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F8" s="18">
+        <v>24</v>
+      </c>
+      <c r="G8" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="I8" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="J8" s="62">
+        <v>27.889510000000001</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="19"/>
+      <c r="B9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D9" s="18">
+        <v>11</v>
+      </c>
+      <c r="E9" s="18">
+        <v>11</v>
+      </c>
+      <c r="F9" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G9" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="I9" s="18">
+        <v>9.4</v>
+      </c>
+      <c r="J9" s="62">
+        <v>24.853814</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="19"/>
+      <c r="B10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="D10" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E10" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="F10" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H10" s="18">
+        <v>16</v>
+      </c>
+      <c r="I10" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="J10" s="62">
+        <v>27.872768000000001</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="19"/>
+      <c r="B11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="E11" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="F11" s="18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G11" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="H11" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="I11" s="18">
+        <v>9</v>
+      </c>
+      <c r="J11" s="62">
+        <v>25.02739</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="19"/>
+      <c r="B12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D12" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="E12" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="G12" s="18">
+        <v>15</v>
+      </c>
+      <c r="H12" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="I12" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="J12" s="62">
+        <v>27.6897979999999</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="19"/>
+      <c r="B16" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19"/>
+      <c r="B17" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>34</v>
+      </c>
+      <c r="D17" s="18">
+        <v>27</v>
+      </c>
+      <c r="E17" s="18">
+        <v>27</v>
+      </c>
+      <c r="F17" s="18">
+        <v>39</v>
+      </c>
+      <c r="G17" s="18">
+        <v>19</v>
+      </c>
+      <c r="H17" s="18">
+        <v>22</v>
+      </c>
+      <c r="I17" s="18">
+        <v>39</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D18" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F18" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G18" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H18" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I18" s="18">
+        <v>28.2</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19"/>
+      <c r="B19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D19" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F19" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G19" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H19" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I19" s="18">
+        <v>28.1</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="19"/>
+      <c r="B20" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="57">
+        <v>24.1</v>
+      </c>
+      <c r="D20" s="57">
+        <v>20.5</v>
+      </c>
+      <c r="E20" s="57">
+        <v>19.8</v>
+      </c>
+      <c r="F20" s="57">
+        <v>26.9</v>
+      </c>
+      <c r="G20" s="57">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H20" s="57">
+        <v>18.7</v>
+      </c>
+      <c r="I20" s="57">
+        <v>19.2</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="19"/>
+      <c r="B21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="58">
+        <v>20.479099999999999</v>
+      </c>
+      <c r="D21" s="58">
+        <v>17.055199999999999</v>
+      </c>
+      <c r="E21" s="58">
+        <v>16.732700000000001</v>
+      </c>
+      <c r="F21" s="59">
+        <v>23.957100000000001</v>
+      </c>
+      <c r="G21" s="60">
+        <v>15.9</v>
+      </c>
+      <c r="H21" s="60">
+        <v>15.7637</v>
+      </c>
+      <c r="I21" s="60">
+        <v>15.238200000000001</v>
+      </c>
+      <c r="J21" s="62">
+        <v>28.195789999999999</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="19"/>
+      <c r="B22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="45">
+        <v>22.216200000000001</v>
+      </c>
+      <c r="D22" s="45">
+        <v>18.7498</v>
+      </c>
+      <c r="E22" s="45">
+        <v>18.194600000000001</v>
+      </c>
+      <c r="F22" s="49">
+        <v>25.747399999999999</v>
+      </c>
+      <c r="G22" s="49">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H22" s="50">
+        <v>17.494299999999999</v>
+      </c>
+      <c r="I22" s="50">
+        <v>17.2562</v>
+      </c>
+      <c r="J22" s="62">
+        <v>29.075797999999899</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="19"/>
+      <c r="B23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="45">
+        <v>20.967199999999998</v>
+      </c>
+      <c r="D23" s="45">
+        <v>17.3626</v>
+      </c>
+      <c r="E23" s="45">
+        <v>16.8384</v>
+      </c>
+      <c r="F23" s="49">
+        <v>24.311199999999999</v>
+      </c>
+      <c r="G23" s="50">
+        <v>16.304099999999998</v>
+      </c>
+      <c r="H23" s="50">
+        <v>16.229900000000001</v>
+      </c>
+      <c r="I23" s="50">
+        <v>15.817600000000001</v>
+      </c>
+      <c r="J23" s="62">
+        <v>28.139831999999998</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="19"/>
+      <c r="B24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="45">
+        <v>22.316600000000001</v>
+      </c>
+      <c r="D24" s="45">
+        <v>18.8017</v>
+      </c>
+      <c r="E24" s="45">
+        <v>18.0425</v>
+      </c>
+      <c r="F24" s="50">
+        <v>25.9008</v>
+      </c>
+      <c r="G24" s="50">
+        <v>17.532900000000001</v>
+      </c>
+      <c r="H24" s="50">
+        <v>17.705200000000001</v>
+      </c>
+      <c r="I24" s="50">
+        <v>17.386399999999998</v>
+      </c>
+      <c r="J24" s="62">
+        <v>29.071529999999999</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="19"/>
+      <c r="B25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="45">
+        <v>19.975300000000001</v>
+      </c>
+      <c r="D25" s="45">
+        <v>16.698799999999999</v>
+      </c>
+      <c r="E25" s="45">
+        <v>16.102499999999999</v>
+      </c>
+      <c r="F25" s="50">
+        <v>23.2</v>
+      </c>
+      <c r="G25" s="50">
+        <v>15.216100000000001</v>
+      </c>
+      <c r="H25" s="50">
+        <v>15.3818</v>
+      </c>
+      <c r="I25" s="50">
+        <v>15.008699999999999</v>
+      </c>
+      <c r="J25" s="62">
+        <v>28.1811720000001</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="19"/>
+      <c r="B26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="45">
+        <v>21.221800000000002</v>
+      </c>
+      <c r="D26" s="45">
+        <v>17.5502</v>
+      </c>
+      <c r="E26" s="45">
+        <v>17.078099999999999</v>
+      </c>
+      <c r="F26" s="50">
+        <v>24.7</v>
+      </c>
+      <c r="G26" s="50">
+        <v>16.4985</v>
+      </c>
+      <c r="H26" s="50">
+        <v>16.534600000000001</v>
+      </c>
+      <c r="I26" s="50">
+        <v>15.9984</v>
+      </c>
+      <c r="J26" s="62">
+        <v>28.863011999999799</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="19"/>
+      <c r="B30" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="19"/>
+      <c r="B31" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="18">
+        <v>34</v>
+      </c>
+      <c r="D31" s="18">
+        <v>27</v>
+      </c>
+      <c r="E31" s="18">
+        <v>27</v>
+      </c>
+      <c r="F31" s="18">
+        <v>39</v>
+      </c>
+      <c r="G31" s="18">
+        <v>19</v>
+      </c>
+      <c r="H31" s="18">
+        <v>22</v>
+      </c>
+      <c r="I31" s="18">
+        <v>39</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D32" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E32" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F32" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G32" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H32" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I32" s="18">
+        <v>28.2</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="19"/>
+      <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D33" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F33" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G33" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H33" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I33" s="18">
+        <v>28.1</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="19"/>
+      <c r="B34" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="57">
+        <v>24.1</v>
+      </c>
+      <c r="D34" s="57">
+        <v>20.5</v>
+      </c>
+      <c r="E34" s="57">
+        <v>19.8</v>
+      </c>
+      <c r="F34" s="57">
+        <v>26.9</v>
+      </c>
+      <c r="G34" s="57">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H34" s="57">
+        <v>18.7</v>
+      </c>
+      <c r="I34" s="57">
+        <v>19.2</v>
+      </c>
+      <c r="J34" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="19"/>
+      <c r="B35" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="58">
+        <v>5.6402000000000001</v>
+      </c>
+      <c r="D35" s="58">
+        <v>4.0423999999999998</v>
+      </c>
+      <c r="E35" s="58">
+        <v>5.1342999999999996</v>
+      </c>
+      <c r="F35" s="61">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="G35" s="58">
+        <v>4.8</v>
+      </c>
+      <c r="H35" s="58">
+        <v>4.5</v>
+      </c>
+      <c r="I35" s="58">
+        <v>3.1427999999999998</v>
+      </c>
+      <c r="J35" s="62">
+        <v>20.446567999999999</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="45">
+        <v>16.156400000000001</v>
+      </c>
+      <c r="D36" s="45">
+        <v>12.839</v>
+      </c>
+      <c r="E36" s="45">
+        <v>12.609400000000001</v>
+      </c>
+      <c r="F36" s="46">
+        <v>19.9026</v>
+      </c>
+      <c r="G36" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="H36" s="45">
+        <v>12.5435</v>
+      </c>
+      <c r="I36" s="45">
+        <v>11.161300000000001</v>
+      </c>
+      <c r="J36" s="62">
+        <v>25.1388959999999</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="19"/>
+      <c r="B37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="45">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="D37" s="45">
+        <v>3.9685999999999999</v>
+      </c>
+      <c r="E37" s="45">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="F37" s="45">
+        <v>7.8151999999999999</v>
+      </c>
+      <c r="G37" s="45">
+        <v>5.1481000000000003</v>
+      </c>
+      <c r="H37" s="45">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="I37" s="45">
+        <v>3.2141000000000002</v>
+      </c>
+      <c r="J37" s="62">
+        <v>20.435661999999901</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="19"/>
+      <c r="B38" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="45">
+        <v>16.230499999999999</v>
+      </c>
+      <c r="D38" s="45">
+        <v>13.0413</v>
+      </c>
+      <c r="E38" s="45">
+        <v>12.755100000000001</v>
+      </c>
+      <c r="F38" s="45">
+        <v>20.104679999999998</v>
+      </c>
+      <c r="G38" s="45">
+        <v>13.5511</v>
+      </c>
+      <c r="H38" s="45">
+        <v>12.843299999999999</v>
+      </c>
+      <c r="I38" s="45">
+        <v>11.408200000000001</v>
+      </c>
+      <c r="J38" s="62">
+        <v>25.118027999999999</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="19"/>
+      <c r="B39" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="45">
+        <v>5.8933999999999997</v>
+      </c>
+      <c r="D39" s="45">
+        <v>4.1532</v>
+      </c>
+      <c r="E39" s="45">
+        <v>5.0208000000000004</v>
+      </c>
+      <c r="F39" s="45">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G39" s="45">
+        <v>5.2434000000000003</v>
+      </c>
+      <c r="H39" s="45">
+        <v>5.3193999999999999</v>
+      </c>
+      <c r="I39" s="45">
+        <v>3.4377</v>
+      </c>
+      <c r="J39" s="62">
+        <v>20.62227</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="45">
+        <v>14.8064</v>
+      </c>
+      <c r="D40" s="45">
+        <v>11.4621</v>
+      </c>
+      <c r="E40" s="45">
+        <v>11.530099999999999</v>
+      </c>
+      <c r="F40" s="45">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G40" s="45">
+        <v>11.9268</v>
+      </c>
+      <c r="H40" s="45">
+        <v>10.9421</v>
+      </c>
+      <c r="I40" s="45">
+        <v>9.8658999999999999</v>
+      </c>
+      <c r="J40" s="62">
+        <v>25.025085999999899</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C21:E26 G21:H26 C35:E40 G35:H40">
+    <cfRule type="expression" dxfId="21" priority="35">
+      <formula>C21=MAX($D21:$J21)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="36">
+      <formula>C21=MIN($D21:$J21)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A79AA3-4CCE-409D-A9FF-831D4BDD5DE6}">
+  <dimension ref="B3:J31"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26171875" customWidth="1"/>
+    <col min="4" max="4" width="34.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="32.578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E4" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="H4" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="I4" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="24"/>
+      <c r="D5" s="31">
+        <f>(D4-D6)/D4</f>
+        <v>0.2953216374269006</v>
+      </c>
+      <c r="E5" s="31">
+        <f t="shared" ref="E5:J5" si="0">(E4-E6)/E4</f>
+        <v>0.34294871794871795</v>
+      </c>
+      <c r="F5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.32881355932203388</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.19940476190476197</v>
+      </c>
+      <c r="H5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.10396039603960386</v>
+      </c>
+      <c r="I5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.15765765765765766</v>
+      </c>
+      <c r="J5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.31672597864768687</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="G6" s="18">
+        <v>26.9</v>
+      </c>
+      <c r="H6" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I6" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="J6" s="18">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="62">
+        <v>28.195789999999999</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="45">
+        <v>20.479099999999999</v>
+      </c>
+      <c r="E8" s="45">
+        <v>17.055199999999999</v>
+      </c>
+      <c r="F8" s="45">
+        <v>16.732700000000001</v>
+      </c>
+      <c r="G8" s="46">
+        <v>23.957100000000001</v>
+      </c>
+      <c r="H8" s="45">
+        <v>15.9</v>
+      </c>
+      <c r="I8" s="45">
+        <v>15.7637</v>
+      </c>
+      <c r="J8" s="45">
+        <v>15.238200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="62">
+        <v>24.88289</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="G9" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="62">
+        <v>20.446567999999999</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="45">
+        <v>5.6402000000000001</v>
+      </c>
+      <c r="E10" s="45">
+        <v>4.0423999999999998</v>
+      </c>
+      <c r="F10" s="45">
+        <v>5.1342999999999996</v>
+      </c>
+      <c r="G10" s="46">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="H10" s="45">
+        <v>4.8</v>
+      </c>
+      <c r="I10" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="45">
+        <v>3.1427999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="62"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="62">
+        <v>28.139831999999998</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="45">
+        <v>20.967199999999998</v>
+      </c>
+      <c r="E12" s="45">
+        <v>17.3626</v>
+      </c>
+      <c r="F12" s="45">
+        <v>16.8384</v>
+      </c>
+      <c r="G12" s="46">
+        <v>24.311199999999999</v>
+      </c>
+      <c r="H12" s="45">
+        <v>16.304099999999998</v>
+      </c>
+      <c r="I12" s="45">
+        <v>16.229900000000001</v>
+      </c>
+      <c r="J12" s="45">
+        <v>15.817600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="62">
+        <v>24.853814</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E13" s="18">
+        <v>11</v>
+      </c>
+      <c r="F13" s="18">
+        <v>11</v>
+      </c>
+      <c r="G13" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="I13" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="J13" s="18">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="62">
+        <v>20.435661999999901</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="45">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E14" s="45">
+        <v>3.9685999999999999</v>
+      </c>
+      <c r="F14" s="45">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="G14" s="45">
+        <v>7.8151999999999999</v>
+      </c>
+      <c r="H14" s="45">
+        <v>5.1481000000000003</v>
+      </c>
+      <c r="I14" s="45">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="J14" s="45">
+        <v>3.2141000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="62"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="62">
+        <v>28.1811720000001</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="45">
+        <v>19.975300000000001</v>
+      </c>
+      <c r="E16" s="45">
+        <v>16.698799999999999</v>
+      </c>
+      <c r="F16" s="45">
+        <v>16.102499999999999</v>
+      </c>
+      <c r="G16" s="45">
+        <v>23.2</v>
+      </c>
+      <c r="H16" s="45">
+        <v>15.216100000000001</v>
+      </c>
+      <c r="I16" s="45">
+        <v>15.3818</v>
+      </c>
+      <c r="J16" s="45">
+        <v>15.008699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="62">
+        <v>25.02739</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="E17" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="F17" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="G17" s="18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H17" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="I17" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="J17" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="62">
+        <v>20.62227</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="45">
+        <v>5.8933999999999997</v>
+      </c>
+      <c r="E18" s="45">
+        <v>4.1532</v>
+      </c>
+      <c r="F18" s="45">
+        <v>5.0208000000000004</v>
+      </c>
+      <c r="G18" s="45">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H18" s="45">
+        <v>5.2434000000000003</v>
+      </c>
+      <c r="I18" s="45">
+        <v>5.3193999999999999</v>
+      </c>
+      <c r="J18" s="45">
+        <v>3.4377</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="66"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="62">
+        <v>29.075797999999899</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="45">
+        <v>22.216200000000001</v>
+      </c>
+      <c r="E20" s="45">
+        <v>18.7498</v>
+      </c>
+      <c r="F20" s="45">
+        <v>18.194600000000001</v>
+      </c>
+      <c r="G20" s="46">
+        <v>25.747399999999999</v>
+      </c>
+      <c r="H20" s="46">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I20" s="45">
+        <v>17.494299999999999</v>
+      </c>
+      <c r="J20" s="45">
+        <v>17.2562</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="62">
+        <v>27.889510000000001</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="E21" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="F21" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G21" s="18">
+        <v>24</v>
+      </c>
+      <c r="H21" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I21" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="J21" s="18">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="62">
+        <v>25.1388959999999</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="45">
+        <v>16.156400000000001</v>
+      </c>
+      <c r="E22" s="45">
+        <v>12.839</v>
+      </c>
+      <c r="F22" s="45">
+        <v>12.609400000000001</v>
+      </c>
+      <c r="G22" s="46">
+        <v>19.9026</v>
+      </c>
+      <c r="H22" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I22" s="45">
+        <v>12.5435</v>
+      </c>
+      <c r="J22" s="45">
+        <v>11.161300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="65"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="62">
+        <v>29.071529999999999</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="45">
+        <v>22.316600000000001</v>
+      </c>
+      <c r="E24" s="45">
+        <v>18.8017</v>
+      </c>
+      <c r="F24" s="45">
+        <v>18.0425</v>
+      </c>
+      <c r="G24" s="45">
+        <v>25.9008</v>
+      </c>
+      <c r="H24" s="45">
+        <v>17.532900000000001</v>
+      </c>
+      <c r="I24" s="45">
+        <v>17.705200000000001</v>
+      </c>
+      <c r="J24" s="45">
+        <v>17.386399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="62">
+        <v>27.872768000000001</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="E25" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F25" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="G25" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="H25" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I25" s="18">
+        <v>16</v>
+      </c>
+      <c r="J25" s="18">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="62">
+        <v>25.118027999999999</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="45">
+        <v>16.230499999999999</v>
+      </c>
+      <c r="E26" s="45">
+        <v>13.0413</v>
+      </c>
+      <c r="F26" s="45">
+        <v>12.755100000000001</v>
+      </c>
+      <c r="G26" s="45">
+        <v>20.104679999999998</v>
+      </c>
+      <c r="H26" s="45">
+        <v>13.5511</v>
+      </c>
+      <c r="I26" s="45">
+        <v>12.843299999999999</v>
+      </c>
+      <c r="J26" s="45">
+        <v>11.408200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="65"/>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="62">
+        <v>28.863011999999799</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="45">
+        <v>21.221800000000002</v>
+      </c>
+      <c r="E28" s="45">
+        <v>17.5502</v>
+      </c>
+      <c r="F28" s="45">
+        <v>17.078099999999999</v>
+      </c>
+      <c r="G28" s="45">
+        <v>24.7</v>
+      </c>
+      <c r="H28" s="45">
+        <v>16.4985</v>
+      </c>
+      <c r="I28" s="45">
+        <v>16.534600000000001</v>
+      </c>
+      <c r="J28" s="45">
+        <v>15.9984</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="62">
+        <v>27.6897979999999</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E29" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="F29" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="G29" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="H29" s="18">
+        <v>15</v>
+      </c>
+      <c r="I29" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="J29" s="18">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="62">
+        <v>25.025085999999899</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="45">
+        <v>14.8064</v>
+      </c>
+      <c r="E30" s="45">
+        <v>11.4621</v>
+      </c>
+      <c r="F30" s="45">
+        <v>11.530099999999999</v>
+      </c>
+      <c r="G30" s="45">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H30" s="45">
+        <v>11.9268</v>
+      </c>
+      <c r="I30" s="45">
+        <v>10.9421</v>
+      </c>
+      <c r="J30" s="45">
+        <v>9.8658999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="66"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D8:J10 D12:J14 D28:J30 D24:J26 D20:J22 D16:J18">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>D8=MAX($D8:$J8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="2">
+      <formula>D8=MIN($D8:$J8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA134B-6382-4675-9D3B-D18439BEABE0}">
+  <dimension ref="B3:J45"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26171875" customWidth="1"/>
+    <col min="4" max="4" width="34.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="32.578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E4" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="H4" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="I4" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="24"/>
+      <c r="D5" s="32">
+        <f>(D4-D6)/D4</f>
+        <v>0.2953216374269006</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" ref="E5:J5" si="0">(E4-E6)/E4</f>
+        <v>0.34294871794871795</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.32881355932203388</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.19940476190476197</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.10396039603960386</v>
+      </c>
+      <c r="I5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.15765765765765766</v>
+      </c>
+      <c r="J5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.31672597864768687</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="G6" s="18">
+        <v>26.9</v>
+      </c>
+      <c r="H6" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I6" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="J6" s="18">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="24"/>
+      <c r="D8" s="31">
+        <f t="shared" ref="D8:J8" si="1">(D$6-D9)/D$6</f>
+        <v>0.42738589211618255</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.48292682926829272</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.4494949494949495</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.36059479553903345</v>
+      </c>
+      <c r="H8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.38674033149171277</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.43315508021390375</v>
+      </c>
+      <c r="J8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="41">
+        <v>24.88289</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="G9" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="24"/>
+      <c r="D10" s="31">
+        <f t="shared" ref="D10:J10" si="2">(D$6-D11)/D$6</f>
+        <v>0.1493775933609959</v>
+      </c>
+      <c r="E10" s="31">
+        <f>(E$6-E11)/E$6</f>
+        <v>0.18048780487804875</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.16161616161616157</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.10780669144981408</v>
+      </c>
+      <c r="H10" s="31">
+        <f t="shared" si="2"/>
+        <v>9.9447513812154734E-2</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.14973262032085558</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.20312499999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="41">
+        <v>27.889510000000001</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="E11" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="F11" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G11" s="18">
+        <v>24</v>
+      </c>
+      <c r="H11" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I11" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="J11" s="18">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="24"/>
+      <c r="D13" s="31">
+        <f>(D$6-D14)/D$6</f>
+        <v>0.42738589211618255</v>
+      </c>
+      <c r="E13" s="31">
+        <f>(E$6-E14)/E$6</f>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="F13" s="31">
+        <f t="shared" ref="F13:I13" si="3">(F$6-F14)/F$6</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="3"/>
+        <v>0.34572490706319692</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="3"/>
+        <v>0.3591160220994476</v>
+      </c>
+      <c r="I13" s="31">
+        <f t="shared" si="3"/>
+        <v>0.40106951871657753</v>
+      </c>
+      <c r="J13" s="31">
+        <f>(J$6-J14)/J$6</f>
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="41">
+        <v>24.853814</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E14" s="18">
+        <v>11</v>
+      </c>
+      <c r="F14" s="18">
+        <v>11</v>
+      </c>
+      <c r="G14" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H14" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="I14" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="J14" s="18">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="24"/>
+      <c r="D15" s="28">
+        <f>(D$6-D16)/D$6</f>
+        <v>0.14522821576763484</v>
+      </c>
+      <c r="E15" s="28">
+        <f t="shared" ref="E15:J15" si="4">(E$6-E16)/E$6</f>
+        <v>0.17560975609756105</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.10037174721189589</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="4"/>
+        <v>9.9447513812154734E-2</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.14438502673796788</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.19791666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="41">
+        <v>27.872768000000001</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="E16" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F16" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="G16" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I16" s="18">
+        <v>16</v>
+      </c>
+      <c r="J16" s="18">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="24"/>
+      <c r="D18" s="28">
+        <f>(D$6-D19)/D$6</f>
+        <v>0.44813278008298757</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" ref="E18:J18" si="5">(E$6-E19)/E$6</f>
+        <v>0.49268292682926829</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.45959595959595967</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.39033457249070636</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.40883977900552493</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.44919786096256681</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="41">
+        <v>25.02739</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="E19" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="F19" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="G19" s="18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H19" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="I19" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="J19" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="24"/>
+      <c r="D20" s="31">
+        <f>(D$6-D21)/D$6</f>
+        <v>0.21576763485477188</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" ref="E20:J20" si="6">(E$6-E21)/E$6</f>
+        <v>0.23902439024390246</v>
+      </c>
+      <c r="F20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.15985130111524154</v>
+      </c>
+      <c r="H20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.17127071823204426</v>
+      </c>
+      <c r="I20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.21925133689839571</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.28124999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="41">
+        <v>27.6897979999999</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E21" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="F21" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="G21" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="H21" s="18">
+        <v>15</v>
+      </c>
+      <c r="I21" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="J21" s="18">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="24"/>
+      <c r="D22" s="31">
+        <f>(D$6-D23)/D$6</f>
+        <v>0.1502448132780084</v>
+      </c>
+      <c r="E22" s="31">
+        <f>(E$6-E23)/E$6</f>
+        <v>0.16803902439024393</v>
+      </c>
+      <c r="F22" s="31">
+        <f t="shared" ref="F22:J22" si="7">(F$6-F23)/F$6</f>
+        <v>0.15491414141414139</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="7"/>
+        <v>0.10940148698884752</v>
+      </c>
+      <c r="H22" s="31">
+        <f t="shared" si="7"/>
+        <v>0.1215469613259669</v>
+      </c>
+      <c r="I22" s="31">
+        <f t="shared" si="7"/>
+        <v>0.15702139037433152</v>
+      </c>
+      <c r="J22" s="31">
+        <f t="shared" si="7"/>
+        <v>0.20634374999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="41">
+        <v>28.195789999999999</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="45">
+        <v>20.479099999999999</v>
+      </c>
+      <c r="E23" s="45">
+        <v>17.055199999999999</v>
+      </c>
+      <c r="F23" s="45">
+        <v>16.732700000000001</v>
+      </c>
+      <c r="G23" s="46">
+        <v>23.957100000000001</v>
+      </c>
+      <c r="H23" s="45">
+        <v>15.9</v>
+      </c>
+      <c r="I23" s="45">
+        <v>15.7637</v>
+      </c>
+      <c r="J23" s="45">
+        <v>15.238200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="41"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="31">
+        <f>(D$6-D25)/D$6</f>
+        <v>0.76596680497925307</v>
+      </c>
+      <c r="E24" s="31">
+        <f>(E$6-E25)/E$6</f>
+        <v>0.80280975609756089</v>
+      </c>
+      <c r="F24" s="31">
+        <f t="shared" ref="F24" si="8">(F$6-F25)/F$6</f>
+        <v>0.74069191919191923</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" ref="G24" si="9">(G$6-G25)/G$6</f>
+        <v>0.72520446096654279</v>
+      </c>
+      <c r="H24" s="31">
+        <f t="shared" ref="H24" si="10">(H$6-H25)/H$6</f>
+        <v>0.73480662983425415</v>
+      </c>
+      <c r="I24" s="31">
+        <f t="shared" ref="I24" si="11">(I$6-I25)/I$6</f>
+        <v>0.75935828877005351</v>
+      </c>
+      <c r="J24" s="31">
+        <f t="shared" ref="J24" si="12">(J$6-J25)/J$6</f>
+        <v>0.8363124999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="41">
+        <v>20.446567999999999</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="45">
+        <v>5.6402000000000001</v>
+      </c>
+      <c r="E25" s="45">
+        <v>4.0423999999999998</v>
+      </c>
+      <c r="F25" s="45">
+        <v>5.1342999999999996</v>
+      </c>
+      <c r="G25" s="46">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="H25" s="45">
+        <v>4.8</v>
+      </c>
+      <c r="I25" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="J25" s="45">
+        <v>3.1427999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="41"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="31">
+        <f>(D$6-D27)/D$6</f>
+        <v>7.8165975103734464E-2</v>
+      </c>
+      <c r="E26" s="31">
+        <f>(E$6-E27)/E$6</f>
+        <v>8.5375609756097537E-2</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" ref="F26" si="13">(F$6-F27)/F$6</f>
+        <v>8.1080808080808059E-2</v>
+      </c>
+      <c r="G26" s="31">
+        <f t="shared" ref="G26" si="14">(G$6-G27)/G$6</f>
+        <v>4.2847583643122668E-2</v>
+      </c>
+      <c r="H26" s="31">
+        <f t="shared" ref="H26" si="15">(H$6-H27)/H$6</f>
+        <v>3.8674033149171422E-2</v>
+      </c>
+      <c r="I26" s="31">
+        <f t="shared" ref="I26" si="16">(I$6-I27)/I$6</f>
+        <v>6.4475935828877021E-2</v>
+      </c>
+      <c r="J26" s="31">
+        <f t="shared" ref="J26" si="17">(J$6-J27)/J$6</f>
+        <v>0.10123958333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="41">
+        <v>29.075797999999899</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="45">
+        <v>22.216200000000001</v>
+      </c>
+      <c r="E27" s="45">
+        <v>18.7498</v>
+      </c>
+      <c r="F27" s="45">
+        <v>18.194600000000001</v>
+      </c>
+      <c r="G27" s="46">
+        <v>25.747399999999999</v>
+      </c>
+      <c r="H27" s="46">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I27" s="45">
+        <v>17.494299999999999</v>
+      </c>
+      <c r="J27" s="45">
+        <v>17.2562</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="41"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="31">
+        <f>(D$6-D29)/D$6</f>
+        <v>0.32960995850622404</v>
+      </c>
+      <c r="E28" s="31">
+        <f>(E$6-E29)/E$6</f>
+        <v>0.37370731707317073</v>
+      </c>
+      <c r="F28" s="31">
+        <f t="shared" ref="F28" si="18">(F$6-F29)/F$6</f>
+        <v>0.36316161616161613</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" ref="G28" si="19">(G$6-G29)/G$6</f>
+        <v>0.26012639405204457</v>
+      </c>
+      <c r="H28" s="31">
+        <f t="shared" ref="H28" si="20">(H$6-H29)/H$6</f>
+        <v>0.25966850828729288</v>
+      </c>
+      <c r="I28" s="31">
+        <f t="shared" ref="I28" si="21">(I$6-I29)/I$6</f>
+        <v>0.32922459893048128</v>
+      </c>
+      <c r="J28" s="31">
+        <f t="shared" ref="J28" si="22">(J$6-J29)/J$6</f>
+        <v>0.4186822916666666</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="41">
+        <v>25.1388959999999</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="45">
+        <v>16.156400000000001</v>
+      </c>
+      <c r="E29" s="45">
+        <v>12.839</v>
+      </c>
+      <c r="F29" s="45">
+        <v>12.609400000000001</v>
+      </c>
+      <c r="G29" s="46">
+        <v>19.9026</v>
+      </c>
+      <c r="H29" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I29" s="45">
+        <v>12.5435</v>
+      </c>
+      <c r="J29" s="45">
+        <v>11.161300000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="41"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="31">
+        <f>(D$6-D31)/D$6</f>
+        <v>0.12999170124481341</v>
+      </c>
+      <c r="E30" s="31">
+        <f>(E$6-E31)/E$6</f>
+        <v>0.15304390243902435</v>
+      </c>
+      <c r="F30" s="31">
+        <f t="shared" ref="F30" si="23">(F$6-F31)/F$6</f>
+        <v>0.14957575757575761</v>
+      </c>
+      <c r="G30" s="31">
+        <f t="shared" ref="G30" si="24">(G$6-G31)/G$6</f>
+        <v>9.6237918215613352E-2</v>
+      </c>
+      <c r="H30" s="31">
+        <f t="shared" ref="H30" si="25">(H$6-H31)/H$6</f>
+        <v>9.9220994475138283E-2</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" ref="I30" si="26">(I$6-I31)/I$6</f>
+        <v>0.13209090909090901</v>
+      </c>
+      <c r="J30" s="31">
+        <f t="shared" ref="J30" si="27">(J$6-J31)/J$6</f>
+        <v>0.17616666666666661</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="41">
+        <v>28.139831999999998</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="45">
+        <v>20.967199999999998</v>
+      </c>
+      <c r="E31" s="45">
+        <v>17.3626</v>
+      </c>
+      <c r="F31" s="45">
+        <v>16.8384</v>
+      </c>
+      <c r="G31" s="46">
+        <v>24.311199999999999</v>
+      </c>
+      <c r="H31" s="45">
+        <v>16.304099999999998</v>
+      </c>
+      <c r="I31" s="45">
+        <v>16.229900000000001</v>
+      </c>
+      <c r="J31" s="45">
+        <v>15.817600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="41"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="31">
+        <f>(D$6-D33)/D$6</f>
+        <v>0.77033195020746892</v>
+      </c>
+      <c r="E32" s="31">
+        <f>(E$6-E33)/E$6</f>
+        <v>0.80640975609756105</v>
+      </c>
+      <c r="F32" s="31">
+        <f t="shared" ref="F32" si="28">(F$6-F33)/F$6</f>
+        <v>0.7591919191919192</v>
+      </c>
+      <c r="G32" s="31">
+        <f t="shared" ref="G32" si="29">(G$6-G33)/G$6</f>
+        <v>0.70947211895910778</v>
+      </c>
+      <c r="H32" s="31">
+        <f t="shared" ref="H32" si="30">(H$6-H33)/H$6</f>
+        <v>0.71557458563535914</v>
+      </c>
+      <c r="I32" s="31">
+        <f t="shared" ref="I32" si="31">(I$6-I33)/I$6</f>
+        <v>0.74074866310160437</v>
+      </c>
+      <c r="J32" s="31">
+        <f t="shared" ref="J32" si="32">(J$6-J33)/J$6</f>
+        <v>0.83259895833333331</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="41">
+        <v>20.435661999999901</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="45">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="E33" s="45">
+        <v>3.9685999999999999</v>
+      </c>
+      <c r="F33" s="45">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="G33" s="45">
+        <v>7.8151999999999999</v>
+      </c>
+      <c r="H33" s="45">
+        <v>5.1481000000000003</v>
+      </c>
+      <c r="I33" s="45">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="J33" s="45">
+        <v>3.2141000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="41"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="31">
+        <f>(D$6-D35)/D$6</f>
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="E34" s="31">
+        <f>(E$6-E35)/E$6</f>
+        <v>8.2843902439024369E-2</v>
+      </c>
+      <c r="F34" s="31">
+        <f t="shared" ref="F34" si="33">(F$6-F35)/F$6</f>
+        <v>8.8762626262626279E-2</v>
+      </c>
+      <c r="G34" s="31">
+        <f t="shared" ref="G34" si="34">(G$6-G35)/G$6</f>
+        <v>3.7144981412639347E-2</v>
+      </c>
+      <c r="H34" s="31">
+        <f t="shared" ref="H34" si="35">(H$6-H35)/H$6</f>
+        <v>3.1331491712707174E-2</v>
+      </c>
+      <c r="I34" s="31">
+        <f t="shared" ref="I34" si="36">(I$6-I35)/I$6</f>
+        <v>5.3197860962566734E-2</v>
+      </c>
+      <c r="J34" s="31">
+        <f t="shared" ref="J34" si="37">(J$6-J35)/J$6</f>
+        <v>9.4458333333333394E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="41">
+        <v>29.071529999999999</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="45">
+        <v>22.316600000000001</v>
+      </c>
+      <c r="E35" s="45">
+        <v>18.8017</v>
+      </c>
+      <c r="F35" s="45">
+        <v>18.0425</v>
+      </c>
+      <c r="G35" s="45">
+        <v>25.9008</v>
+      </c>
+      <c r="H35" s="45">
+        <v>17.532900000000001</v>
+      </c>
+      <c r="I35" s="45">
+        <v>17.705200000000001</v>
+      </c>
+      <c r="J35" s="45">
+        <v>17.386399999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="41"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="31">
+        <f>(D$6-D37)/D$6</f>
+        <v>0.32653526970954366</v>
+      </c>
+      <c r="E36" s="31">
+        <f>(E$6-E37)/E$6</f>
+        <v>0.3638390243902439</v>
+      </c>
+      <c r="F36" s="31">
+        <f t="shared" ref="F36" si="38">(F$6-F37)/F$6</f>
+        <v>0.35580303030303029</v>
+      </c>
+      <c r="G36" s="31">
+        <f t="shared" ref="G36" si="39">(G$6-G37)/G$6</f>
+        <v>0.25261412639405206</v>
+      </c>
+      <c r="H36" s="31">
+        <f t="shared" ref="H36" si="40">(H$6-H37)/H$6</f>
+        <v>0.25132044198895032</v>
+      </c>
+      <c r="I36" s="31">
+        <f t="shared" ref="I36" si="41">(I$6-I37)/I$6</f>
+        <v>0.31319251336898396</v>
+      </c>
+      <c r="J36" s="31">
+        <f t="shared" ref="J36" si="42">(J$6-J37)/J$6</f>
+        <v>0.40582291666666659</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="41">
+        <v>25.118027999999999</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="45">
+        <v>16.230499999999999</v>
+      </c>
+      <c r="E37" s="45">
+        <v>13.0413</v>
+      </c>
+      <c r="F37" s="45">
+        <v>12.755100000000001</v>
+      </c>
+      <c r="G37" s="45">
+        <v>20.104679999999998</v>
+      </c>
+      <c r="H37" s="45">
+        <v>13.5511</v>
+      </c>
+      <c r="I37" s="45">
+        <v>12.843299999999999</v>
+      </c>
+      <c r="J37" s="45">
+        <v>11.408200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="41"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="31">
+        <f>(D$6-D39)/D$6</f>
+        <v>0.17114937759336102</v>
+      </c>
+      <c r="E38" s="31">
+        <f>(E$6-E39)/E$6</f>
+        <v>0.1854243902439025</v>
+      </c>
+      <c r="F38" s="31">
+        <f t="shared" ref="F38" si="43">(F$6-F39)/F$6</f>
+        <v>0.18674242424242432</v>
+      </c>
+      <c r="G38" s="31">
+        <f t="shared" ref="G38" si="44">(G$6-G39)/G$6</f>
+        <v>0.13754646840148696</v>
+      </c>
+      <c r="H38" s="31">
+        <f t="shared" ref="H38" si="45">(H$6-H39)/H$6</f>
+        <v>0.15933149171270719</v>
+      </c>
+      <c r="I38" s="31">
+        <f t="shared" ref="I38" si="46">(I$6-I39)/I$6</f>
+        <v>0.17744385026737963</v>
+      </c>
+      <c r="J38" s="31">
+        <f t="shared" ref="J38" si="47">(J$6-J39)/J$6</f>
+        <v>0.218296875</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="41">
+        <v>28.1811720000001</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="45">
+        <v>19.975300000000001</v>
+      </c>
+      <c r="E39" s="45">
+        <v>16.698799999999999</v>
+      </c>
+      <c r="F39" s="45">
+        <v>16.102499999999999</v>
+      </c>
+      <c r="G39" s="45">
+        <v>23.2</v>
+      </c>
+      <c r="H39" s="45">
+        <v>15.216100000000001</v>
+      </c>
+      <c r="I39" s="45">
+        <v>15.3818</v>
+      </c>
+      <c r="J39" s="45">
+        <v>15.008699999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="41"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="31">
+        <f>(D$6-D41)/D$6</f>
+        <v>0.75546058091286306</v>
+      </c>
+      <c r="E40" s="31">
+        <f>(E$6-E41)/E$6</f>
+        <v>0.79740487804878057</v>
+      </c>
+      <c r="F40" s="31">
+        <f t="shared" ref="F40" si="48">(F$6-F41)/F$6</f>
+        <v>0.74642424242424232</v>
+      </c>
+      <c r="G40" s="31">
+        <f t="shared" ref="G40" si="49">(G$6-G41)/G$6</f>
+        <v>0.69516728624535318</v>
+      </c>
+      <c r="H40" s="31">
+        <f t="shared" ref="H40" si="50">(H$6-H41)/H$6</f>
+        <v>0.7103093922651933</v>
+      </c>
+      <c r="I40" s="31">
+        <f t="shared" ref="I40" si="51">(I$6-I41)/I$6</f>
+        <v>0.71554010695187165</v>
+      </c>
+      <c r="J40" s="31">
+        <f t="shared" ref="J40" si="52">(J$6-J41)/J$6</f>
+        <v>0.82095312500000006</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="41">
+        <v>20.62227</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="45">
+        <v>5.8933999999999997</v>
+      </c>
+      <c r="E41" s="45">
+        <v>4.1532</v>
+      </c>
+      <c r="F41" s="45">
+        <v>5.0208000000000004</v>
+      </c>
+      <c r="G41" s="45">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H41" s="45">
+        <v>5.2434000000000003</v>
+      </c>
+      <c r="I41" s="45">
+        <v>5.3193999999999999</v>
+      </c>
+      <c r="J41" s="45">
+        <v>3.4377</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="41"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="31">
+        <f>(D$6-D43)/D$6</f>
+        <v>0.11942738589211616</v>
+      </c>
+      <c r="E42" s="31">
+        <f>(E$6-E43)/E$6</f>
+        <v>0.14389268292682925</v>
+      </c>
+      <c r="F42" s="31">
+        <f t="shared" ref="F42" si="53">(F$6-F43)/F$6</f>
+        <v>0.13746969696969705</v>
+      </c>
+      <c r="G42" s="31">
+        <f t="shared" ref="G42" si="54">(G$6-G43)/G$6</f>
+        <v>0.33457249070631973</v>
+      </c>
+      <c r="H42" s="31">
+        <f t="shared" ref="H42" si="55">(H$6-H43)/H$6</f>
+        <v>8.8480662983425495E-2</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" ref="I42" si="56">(I$6-I43)/I$6</f>
+        <v>0.11579679144385017</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" ref="J42" si="57">(J$6-J43)/J$6</f>
+        <v>0.16674999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="41">
+        <v>28.863011999999799</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="45">
+        <v>21.221800000000002</v>
+      </c>
+      <c r="E43" s="45">
+        <v>17.5502</v>
+      </c>
+      <c r="F43" s="45">
+        <v>17.078099999999999</v>
+      </c>
+      <c r="G43" s="45">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H43" s="45">
+        <v>16.4985</v>
+      </c>
+      <c r="I43" s="45">
+        <v>16.534600000000001</v>
+      </c>
+      <c r="J43" s="45">
+        <v>15.9984</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="41"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="31">
+        <f>(D$6-D45)/D$6</f>
+        <v>0.38562655601659757</v>
+      </c>
+      <c r="E44" s="31">
+        <f>(E$6-E45)/E$6</f>
+        <v>0.44087317073170734</v>
+      </c>
+      <c r="F44" s="31">
+        <f t="shared" ref="F44" si="58">(F$6-F45)/F$6</f>
+        <v>0.41767171717171725</v>
+      </c>
+      <c r="G44" s="31">
+        <f t="shared" ref="G44" si="59">(G$6-G45)/G$6</f>
+        <v>8.1784386617100344E-2</v>
+      </c>
+      <c r="H44" s="31">
+        <f t="shared" ref="H44" si="60">(H$6-H45)/H$6</f>
+        <v>0.34106077348066305</v>
+      </c>
+      <c r="I44" s="31">
+        <f t="shared" ref="I44" si="61">(I$6-I45)/I$6</f>
+        <v>0.4148609625668449</v>
+      </c>
+      <c r="J44" s="31">
+        <f t="shared" ref="J44" si="62">(J$6-J45)/J$6</f>
+        <v>0.48615104166666667</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="41">
+        <v>25.025085999999899</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="45">
+        <v>14.8064</v>
+      </c>
+      <c r="E45" s="45">
+        <v>11.4621</v>
+      </c>
+      <c r="F45" s="45">
+        <v>11.530099999999999</v>
+      </c>
+      <c r="G45" s="45">
+        <v>24.7</v>
+      </c>
+      <c r="H45" s="45">
+        <v>11.9268</v>
+      </c>
+      <c r="I45" s="45">
+        <v>10.9421</v>
+      </c>
+      <c r="J45" s="45">
+        <v>9.8658999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112D7606-9C8B-41DF-A553-5965F3EFCEBB}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.15625" customWidth="1"/>
+    <col min="4" max="4" width="35.15625" customWidth="1"/>
+    <col min="5" max="5" width="31.15625" customWidth="1"/>
+    <col min="6" max="6" width="23.83984375" customWidth="1"/>
+    <col min="7" max="7" width="26.41796875" customWidth="1"/>
+    <col min="8" max="9" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19"/>
+      <c r="B2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="19"/>
+      <c r="B3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D3" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="F3" s="18">
+        <v>33.6</v>
+      </c>
+      <c r="G3" s="18">
+        <v>20.2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="I3" s="33">
+        <v>28.1</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="19"/>
+      <c r="B4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="E4" s="18">
+        <v>19.8</v>
+      </c>
+      <c r="F4" s="18">
+        <v>26.9</v>
+      </c>
+      <c r="G4" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H4" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="I4" s="33">
+        <v>19.2</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="19"/>
+      <c r="B5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="D5" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E5" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H5" s="18">
+        <v>16</v>
+      </c>
+      <c r="I5" s="33">
+        <v>15.4</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="19"/>
+      <c r="B6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="D6" s="18">
+        <v>16.8</v>
+      </c>
+      <c r="E6" s="18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F6" s="18">
+        <v>24</v>
+      </c>
+      <c r="G6" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>15.9</v>
+      </c>
+      <c r="I6" s="33">
+        <v>15.3</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="19"/>
+      <c r="B7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D7" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>15.3</v>
+      </c>
+      <c r="F7" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="G7" s="18">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18">
+        <v>14.6</v>
+      </c>
+      <c r="I7" s="33">
+        <v>13.8</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19"/>
+      <c r="B8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D8" s="18">
+        <v>11</v>
+      </c>
+      <c r="E8" s="18">
+        <v>11</v>
+      </c>
+      <c r="F8" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G8" s="18">
+        <v>11.6</v>
+      </c>
+      <c r="H8" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="I8" s="33">
+        <v>9.4</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="19"/>
+      <c r="B9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="F9" s="18">
+        <v>17.2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="I9" s="33">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="19"/>
+      <c r="B10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="35">
+        <v>13.3</v>
+      </c>
+      <c r="D10" s="35">
+        <v>10.4</v>
+      </c>
+      <c r="E10" s="35">
+        <v>10.7</v>
+      </c>
+      <c r="F10" s="35">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G10" s="35">
+        <v>10.7</v>
+      </c>
+      <c r="H10" s="35">
+        <v>10.3</v>
+      </c>
+      <c r="I10" s="36">
+        <v>9</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6691FC6-37E9-41B6-B5A3-DFBDF6B1FE02}">
   <dimension ref="A2:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.15625" customWidth="1"/>
+    <col min="3" max="3" width="12.83984375" customWidth="1"/>
+    <col min="4" max="4" width="23.83984375" customWidth="1"/>
+    <col min="5" max="5" width="43.578125" customWidth="1"/>
+    <col min="6" max="6" width="28.83984375" customWidth="1"/>
+    <col min="7" max="7" width="27.83984375" customWidth="1"/>
+    <col min="8" max="8" width="27.26171875" customWidth="1"/>
+    <col min="9" max="9" width="26.26171875" customWidth="1"/>
+    <col min="10" max="10" width="31.15625" customWidth="1"/>
+    <col min="11" max="11" width="30.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6266,7 +10372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6301,7 +10407,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6336,7 +10442,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6371,7 +10477,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6406,7 +10512,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -6441,7 +10547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -6476,7 +10582,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6524,2784 +10630,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5472D2D-A35E-4F13-90B7-812EFA533864}">
-  <dimension ref="A1:M27"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EA95B5-81FA-4847-8115-7473FD5464FC}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>34</v>
-      </c>
-      <c r="D3" s="18">
-        <v>27</v>
-      </c>
-      <c r="E3" s="18">
-        <v>27</v>
-      </c>
-      <c r="F3" s="18">
-        <v>39</v>
-      </c>
-      <c r="G3" s="18">
-        <v>19</v>
-      </c>
-      <c r="H3" s="18">
-        <v>22</v>
-      </c>
-      <c r="I3" s="18">
-        <v>39</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="18">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D4" s="18">
-        <v>31.2</v>
-      </c>
-      <c r="E4" s="18">
-        <v>29.5</v>
-      </c>
-      <c r="F4" s="18">
-        <v>33.6</v>
-      </c>
-      <c r="G4" s="18">
-        <v>20.2</v>
-      </c>
-      <c r="H4" s="18">
-        <v>22.2</v>
-      </c>
-      <c r="I4" s="18">
-        <v>28.2</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="18">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D5" s="18">
-        <v>31.2</v>
-      </c>
-      <c r="E5" s="18">
-        <v>29.5</v>
-      </c>
-      <c r="F5" s="18">
-        <v>33.6</v>
-      </c>
-      <c r="G5" s="18">
-        <v>20.2</v>
-      </c>
-      <c r="H5" s="18">
-        <v>22.2</v>
-      </c>
-      <c r="I5" s="18">
-        <v>28.1</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="18">
-        <v>24.1</v>
-      </c>
-      <c r="D6" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="E6" s="18">
-        <v>19.8</v>
-      </c>
-      <c r="F6" s="18">
-        <v>26.9</v>
-      </c>
-      <c r="G6" s="18">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H6" s="18">
-        <v>18.7</v>
-      </c>
-      <c r="I6" s="18">
-        <v>19.2</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="D7" s="18">
-        <v>10.6</v>
-      </c>
-      <c r="E7" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="F7" s="18">
-        <v>17.2</v>
-      </c>
-      <c r="G7" s="18">
-        <v>11.1</v>
-      </c>
-      <c r="H7" s="18">
-        <v>10.6</v>
-      </c>
-      <c r="I7" s="18">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="D8" s="18">
-        <v>16.8</v>
-      </c>
-      <c r="E8" s="18">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="F8" s="18">
-        <v>24</v>
-      </c>
-      <c r="G8" s="18">
-        <v>16.3</v>
-      </c>
-      <c r="H8" s="18">
-        <v>15.9</v>
-      </c>
-      <c r="I8" s="18">
-        <v>15.3</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="D9" s="18">
-        <v>11</v>
-      </c>
-      <c r="E9" s="18">
-        <v>11</v>
-      </c>
-      <c r="F9" s="18">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G9" s="18">
-        <v>11.6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>11.2</v>
-      </c>
-      <c r="I9" s="18">
-        <v>9.4</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="18">
-        <v>20.6</v>
-      </c>
-      <c r="D10" s="18">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E10" s="18">
-        <v>16.5</v>
-      </c>
-      <c r="F10" s="18">
-        <v>24.2</v>
-      </c>
-      <c r="G10" s="18">
-        <v>16.3</v>
-      </c>
-      <c r="H10" s="18">
-        <v>16</v>
-      </c>
-      <c r="I10" s="18">
-        <v>15.4</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="18">
-        <v>13.3</v>
-      </c>
-      <c r="D11" s="18">
-        <v>10.4</v>
-      </c>
-      <c r="E11" s="18">
-        <v>10.7</v>
-      </c>
-      <c r="F11" s="18">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G11" s="18">
-        <v>10.7</v>
-      </c>
-      <c r="H11" s="18">
-        <v>10.3</v>
-      </c>
-      <c r="I11" s="18">
-        <v>9</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="18">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D12" s="18">
-        <v>15.6</v>
-      </c>
-      <c r="E12" s="18">
-        <v>15.3</v>
-      </c>
-      <c r="F12" s="18">
-        <v>22.6</v>
-      </c>
-      <c r="G12" s="18">
-        <v>15</v>
-      </c>
-      <c r="H12" s="18">
-        <v>14.6</v>
-      </c>
-      <c r="I12" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA134B-6382-4675-9D3B-D18439BEABE0}">
-  <dimension ref="B3:J46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="18">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="E4" s="18">
-        <v>31.2</v>
-      </c>
-      <c r="F4" s="18">
-        <v>29.5</v>
-      </c>
-      <c r="G4" s="18">
-        <v>33.6</v>
-      </c>
-      <c r="H4" s="18">
-        <v>20.2</v>
-      </c>
-      <c r="I4" s="18">
-        <v>22.2</v>
-      </c>
-      <c r="J4" s="18">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
-      <c r="D5" s="32">
-        <f>(D4-D6)/D4</f>
-        <v>0.2953216374269006</v>
-      </c>
-      <c r="E5" s="32">
-        <f t="shared" ref="E5:J5" si="0">(E4-E6)/E4</f>
-        <v>0.34294871794871795</v>
-      </c>
-      <c r="F5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.32881355932203388</v>
-      </c>
-      <c r="G5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.19940476190476197</v>
-      </c>
-      <c r="H5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.10396039603960386</v>
-      </c>
-      <c r="I5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.15765765765765766</v>
-      </c>
-      <c r="J5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.31672597864768687</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="18">
-        <v>24.1</v>
-      </c>
-      <c r="E6" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="F6" s="18">
-        <v>19.8</v>
-      </c>
-      <c r="G6" s="18">
-        <v>26.9</v>
-      </c>
-      <c r="H6" s="18">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I6" s="18">
-        <v>18.7</v>
-      </c>
-      <c r="J6" s="18">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="24"/>
-      <c r="D8" s="31">
-        <f t="shared" ref="D8:J8" si="1">(D$6-D9)/D$6</f>
-        <v>0.42738589211618255</v>
-      </c>
-      <c r="E8" s="31">
-        <f t="shared" si="1"/>
-        <v>0.48292682926829272</v>
-      </c>
-      <c r="F8" s="31">
-        <f t="shared" si="1"/>
-        <v>0.4494949494949495</v>
-      </c>
-      <c r="G8" s="31">
-        <f t="shared" si="1"/>
-        <v>0.36059479553903345</v>
-      </c>
-      <c r="H8" s="31">
-        <f t="shared" si="1"/>
-        <v>0.38674033149171277</v>
-      </c>
-      <c r="I8" s="31">
-        <f t="shared" si="1"/>
-        <v>0.43315508021390375</v>
-      </c>
-      <c r="J8" s="31">
-        <f t="shared" si="1"/>
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="41">
-        <v>24.88289</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="E9" s="18">
-        <v>10.6</v>
-      </c>
-      <c r="F9" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="G9" s="18">
-        <v>17.2</v>
-      </c>
-      <c r="H9" s="18">
-        <v>11.1</v>
-      </c>
-      <c r="I9" s="18">
-        <v>10.6</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="24"/>
-      <c r="D10" s="31">
-        <f t="shared" ref="D10:J10" si="2">(D$6-D11)/D$6</f>
-        <v>0.1493775933609959</v>
-      </c>
-      <c r="E10" s="31">
-        <f>(E$6-E11)/E$6</f>
-        <v>0.18048780487804875</v>
-      </c>
-      <c r="F10" s="31">
-        <f t="shared" si="2"/>
-        <v>0.16161616161616157</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" si="2"/>
-        <v>0.10780669144981408</v>
-      </c>
-      <c r="H10" s="31">
-        <f t="shared" si="2"/>
-        <v>9.9447513812154734E-2</v>
-      </c>
-      <c r="I10" s="31">
-        <f t="shared" si="2"/>
-        <v>0.14973262032085558</v>
-      </c>
-      <c r="J10" s="31">
-        <f t="shared" si="2"/>
-        <v>0.20312499999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="41">
-        <v>27.889510000000001</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="E11" s="18">
-        <v>16.8</v>
-      </c>
-      <c r="F11" s="18">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G11" s="18">
-        <v>24</v>
-      </c>
-      <c r="H11" s="18">
-        <v>16.3</v>
-      </c>
-      <c r="I11" s="18">
-        <v>15.9</v>
-      </c>
-      <c r="J11" s="18">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="24"/>
-      <c r="D13" s="31">
-        <f>(D$6-D14)/D$6</f>
-        <v>0.42738589211618255</v>
-      </c>
-      <c r="E13" s="31">
-        <f>(E$6-E14)/E$6</f>
-        <v>0.46341463414634149</v>
-      </c>
-      <c r="F13" s="31">
-        <f t="shared" ref="F13:I13" si="3">(F$6-F14)/F$6</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="G13" s="31">
-        <f t="shared" si="3"/>
-        <v>0.34572490706319692</v>
-      </c>
-      <c r="H13" s="31">
-        <f t="shared" si="3"/>
-        <v>0.3591160220994476</v>
-      </c>
-      <c r="I13" s="31">
-        <f t="shared" si="3"/>
-        <v>0.40106951871657753</v>
-      </c>
-      <c r="J13" s="31">
-        <f>(J$6-J14)/J$6</f>
-        <v>0.51041666666666663</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
-        <v>24.853814</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="E14" s="18">
-        <v>11</v>
-      </c>
-      <c r="F14" s="18">
-        <v>11</v>
-      </c>
-      <c r="G14" s="18">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H14" s="18">
-        <v>11.6</v>
-      </c>
-      <c r="I14" s="18">
-        <v>11.2</v>
-      </c>
-      <c r="J14" s="18">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="24"/>
-      <c r="D15" s="28">
-        <f>(D$6-D16)/D$6</f>
-        <v>0.14522821576763484</v>
-      </c>
-      <c r="E15" s="28">
-        <f t="shared" ref="E15:J15" si="4">(E$6-E16)/E$6</f>
-        <v>0.17560975609756105</v>
-      </c>
-      <c r="F15" s="28">
-        <f t="shared" si="4"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="G15" s="28">
-        <f t="shared" si="4"/>
-        <v>0.10037174721189589</v>
-      </c>
-      <c r="H15" s="28">
-        <f t="shared" si="4"/>
-        <v>9.9447513812154734E-2</v>
-      </c>
-      <c r="I15" s="28">
-        <f t="shared" si="4"/>
-        <v>0.14438502673796788</v>
-      </c>
-      <c r="J15" s="28">
-        <f t="shared" si="4"/>
-        <v>0.19791666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
-        <v>27.872768000000001</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="18">
-        <v>20.6</v>
-      </c>
-      <c r="E16" s="18">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F16" s="18">
-        <v>16.5</v>
-      </c>
-      <c r="G16" s="18">
-        <v>24.2</v>
-      </c>
-      <c r="H16" s="18">
-        <v>16.3</v>
-      </c>
-      <c r="I16" s="18">
-        <v>16</v>
-      </c>
-      <c r="J16" s="18">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="24"/>
-      <c r="D18" s="28">
-        <f>(D$6-D19)/D$6</f>
-        <v>0.44813278008298757</v>
-      </c>
-      <c r="E18" s="28">
-        <f t="shared" ref="E18:J18" si="5">(E$6-E19)/E$6</f>
-        <v>0.49268292682926829</v>
-      </c>
-      <c r="F18" s="28">
-        <f t="shared" si="5"/>
-        <v>0.45959595959595967</v>
-      </c>
-      <c r="G18" s="28">
-        <f t="shared" si="5"/>
-        <v>0.39033457249070636</v>
-      </c>
-      <c r="H18" s="28">
-        <f t="shared" si="5"/>
-        <v>0.40883977900552493</v>
-      </c>
-      <c r="I18" s="28">
-        <f t="shared" si="5"/>
-        <v>0.44919786096256681</v>
-      </c>
-      <c r="J18" s="28">
-        <f t="shared" si="5"/>
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="41">
-        <v>25.02739</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="18">
-        <v>13.3</v>
-      </c>
-      <c r="E19" s="18">
-        <v>10.4</v>
-      </c>
-      <c r="F19" s="18">
-        <v>10.7</v>
-      </c>
-      <c r="G19" s="18">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H19" s="18">
-        <v>10.7</v>
-      </c>
-      <c r="I19" s="18">
-        <v>10.3</v>
-      </c>
-      <c r="J19" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="24"/>
-      <c r="D20" s="31">
-        <f>(D$6-D21)/D$6</f>
-        <v>0.21576763485477188</v>
-      </c>
-      <c r="E20" s="31">
-        <f t="shared" ref="E20:J20" si="6">(E$6-E21)/E$6</f>
-        <v>0.23902439024390246</v>
-      </c>
-      <c r="F20" s="31">
-        <f t="shared" si="6"/>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="G20" s="31">
-        <f t="shared" si="6"/>
-        <v>0.15985130111524154</v>
-      </c>
-      <c r="H20" s="31">
-        <f t="shared" si="6"/>
-        <v>0.17127071823204426</v>
-      </c>
-      <c r="I20" s="31">
-        <f t="shared" si="6"/>
-        <v>0.21925133689839571</v>
-      </c>
-      <c r="J20" s="31">
-        <f t="shared" si="6"/>
-        <v>0.28124999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="41">
-        <v>27.6897979999999</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="18">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E21" s="18">
-        <v>15.6</v>
-      </c>
-      <c r="F21" s="18">
-        <v>15.3</v>
-      </c>
-      <c r="G21" s="18">
-        <v>22.6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>15</v>
-      </c>
-      <c r="I21" s="18">
-        <v>14.6</v>
-      </c>
-      <c r="J21" s="18">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="43"/>
-      <c r="D23" s="31">
-        <f>(D$6-D24)/D$6</f>
-        <v>0.1502448132780084</v>
-      </c>
-      <c r="E23" s="31">
-        <f>(E$6-E24)/E$6</f>
-        <v>0.16803902439024393</v>
-      </c>
-      <c r="F23" s="31">
-        <f t="shared" ref="F23:J23" si="7">(F$6-F24)/F$6</f>
-        <v>0.15491414141414139</v>
-      </c>
-      <c r="G23" s="31">
-        <f t="shared" si="7"/>
-        <v>0.10940148698884752</v>
-      </c>
-      <c r="H23" s="31">
-        <f t="shared" si="7"/>
-        <v>0.1215469613259669</v>
-      </c>
-      <c r="I23" s="31">
-        <f t="shared" si="7"/>
-        <v>0.15702139037433152</v>
-      </c>
-      <c r="J23" s="31">
-        <f t="shared" si="7"/>
-        <v>0.20634374999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="41">
-        <v>28.195789999999999</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="47">
-        <v>20.479099999999999</v>
-      </c>
-      <c r="E24" s="47">
-        <v>17.055199999999999</v>
-      </c>
-      <c r="F24" s="47">
-        <v>16.732700000000001</v>
-      </c>
-      <c r="G24" s="48">
-        <v>23.957100000000001</v>
-      </c>
-      <c r="H24" s="47">
-        <v>15.9</v>
-      </c>
-      <c r="I24" s="47">
-        <v>15.7637</v>
-      </c>
-      <c r="J24" s="47">
-        <v>15.238200000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="31">
-        <f>(D$6-D26)/D$6</f>
-        <v>0.76596680497925307</v>
-      </c>
-      <c r="E25" s="31">
-        <f>(E$6-E26)/E$6</f>
-        <v>0.80280975609756089</v>
-      </c>
-      <c r="F25" s="31">
-        <f t="shared" ref="F25" si="8">(F$6-F26)/F$6</f>
-        <v>0.74069191919191923</v>
-      </c>
-      <c r="G25" s="31">
-        <f t="shared" ref="G25" si="9">(G$6-G26)/G$6</f>
-        <v>0.72520446096654279</v>
-      </c>
-      <c r="H25" s="31">
-        <f t="shared" ref="H25" si="10">(H$6-H26)/H$6</f>
-        <v>0.73480662983425415</v>
-      </c>
-      <c r="I25" s="31">
-        <f t="shared" ref="I25" si="11">(I$6-I26)/I$6</f>
-        <v>0.75935828877005351</v>
-      </c>
-      <c r="J25" s="31">
-        <f t="shared" ref="J25" si="12">(J$6-J26)/J$6</f>
-        <v>0.8363124999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="41">
-        <v>20.446567999999999</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="47">
-        <v>5.6402000000000001</v>
-      </c>
-      <c r="E26" s="47">
-        <v>4.0423999999999998</v>
-      </c>
-      <c r="F26" s="47">
-        <v>5.1342999999999996</v>
-      </c>
-      <c r="G26" s="48">
-        <v>7.3920000000000003</v>
-      </c>
-      <c r="H26" s="47">
-        <v>4.8</v>
-      </c>
-      <c r="I26" s="47">
-        <v>4.5</v>
-      </c>
-      <c r="J26" s="47">
-        <v>3.1427999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="31">
-        <f>(D$6-D28)/D$6</f>
-        <v>7.8165975103734464E-2</v>
-      </c>
-      <c r="E27" s="31">
-        <f>(E$6-E28)/E$6</f>
-        <v>8.5375609756097537E-2</v>
-      </c>
-      <c r="F27" s="31">
-        <f t="shared" ref="F27" si="13">(F$6-F28)/F$6</f>
-        <v>8.1080808080808059E-2</v>
-      </c>
-      <c r="G27" s="31">
-        <f t="shared" ref="G27" si="14">(G$6-G28)/G$6</f>
-        <v>4.2847583643122668E-2</v>
-      </c>
-      <c r="H27" s="31">
-        <f t="shared" ref="H27" si="15">(H$6-H28)/H$6</f>
-        <v>3.8674033149171422E-2</v>
-      </c>
-      <c r="I27" s="31">
-        <f t="shared" ref="I27" si="16">(I$6-I28)/I$6</f>
-        <v>6.4475935828877021E-2</v>
-      </c>
-      <c r="J27" s="31">
-        <f t="shared" ref="J27" si="17">(J$6-J28)/J$6</f>
-        <v>0.10123958333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="41">
-        <v>29.075797999999899</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="47">
-        <v>22.216200000000001</v>
-      </c>
-      <c r="E28" s="47">
-        <v>18.7498</v>
-      </c>
-      <c r="F28" s="47">
-        <v>18.194600000000001</v>
-      </c>
-      <c r="G28" s="48">
-        <v>25.747399999999999</v>
-      </c>
-      <c r="H28" s="48">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I28" s="47">
-        <v>17.494299999999999</v>
-      </c>
-      <c r="J28" s="47">
-        <v>17.2562</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="31">
-        <f>(D$6-D30)/D$6</f>
-        <v>0.32960995850622404</v>
-      </c>
-      <c r="E29" s="31">
-        <f>(E$6-E30)/E$6</f>
-        <v>0.37370731707317073</v>
-      </c>
-      <c r="F29" s="31">
-        <f t="shared" ref="F29" si="18">(F$6-F30)/F$6</f>
-        <v>0.36316161616161613</v>
-      </c>
-      <c r="G29" s="31">
-        <f t="shared" ref="G29" si="19">(G$6-G30)/G$6</f>
-        <v>0.26012639405204457</v>
-      </c>
-      <c r="H29" s="31">
-        <f t="shared" ref="H29" si="20">(H$6-H30)/H$6</f>
-        <v>0.25966850828729288</v>
-      </c>
-      <c r="I29" s="31">
-        <f t="shared" ref="I29" si="21">(I$6-I30)/I$6</f>
-        <v>0.32922459893048128</v>
-      </c>
-      <c r="J29" s="31">
-        <f t="shared" ref="J29" si="22">(J$6-J30)/J$6</f>
-        <v>0.4186822916666666</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="41">
-        <v>25.1388959999999</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="47">
-        <v>16.156400000000001</v>
-      </c>
-      <c r="E30" s="47">
-        <v>12.839</v>
-      </c>
-      <c r="F30" s="47">
-        <v>12.609400000000001</v>
-      </c>
-      <c r="G30" s="48">
-        <v>19.9026</v>
-      </c>
-      <c r="H30" s="47">
-        <v>13.4</v>
-      </c>
-      <c r="I30" s="47">
-        <v>12.5435</v>
-      </c>
-      <c r="J30" s="47">
-        <v>11.161300000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="31">
-        <f>(D$6-D32)/D$6</f>
-        <v>0.12999170124481341</v>
-      </c>
-      <c r="E31" s="31">
-        <f>(E$6-E32)/E$6</f>
-        <v>0.15304390243902435</v>
-      </c>
-      <c r="F31" s="31">
-        <f t="shared" ref="F31" si="23">(F$6-F32)/F$6</f>
-        <v>0.14957575757575761</v>
-      </c>
-      <c r="G31" s="31">
-        <f t="shared" ref="G31" si="24">(G$6-G32)/G$6</f>
-        <v>9.6237918215613352E-2</v>
-      </c>
-      <c r="H31" s="31">
-        <f t="shared" ref="H31" si="25">(H$6-H32)/H$6</f>
-        <v>9.9220994475138283E-2</v>
-      </c>
-      <c r="I31" s="31">
-        <f t="shared" ref="I31" si="26">(I$6-I32)/I$6</f>
-        <v>0.13209090909090901</v>
-      </c>
-      <c r="J31" s="31">
-        <f t="shared" ref="J31" si="27">(J$6-J32)/J$6</f>
-        <v>0.17616666666666661</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="41">
-        <v>28.139831999999998</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="47">
-        <v>20.967199999999998</v>
-      </c>
-      <c r="E32" s="47">
-        <v>17.3626</v>
-      </c>
-      <c r="F32" s="47">
-        <v>16.8384</v>
-      </c>
-      <c r="G32" s="48">
-        <v>24.311199999999999</v>
-      </c>
-      <c r="H32" s="47">
-        <v>16.304099999999998</v>
-      </c>
-      <c r="I32" s="47">
-        <v>16.229900000000001</v>
-      </c>
-      <c r="J32" s="47">
-        <v>15.817600000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="31">
-        <f>(D$6-D34)/D$6</f>
-        <v>0.77033195020746892</v>
-      </c>
-      <c r="E33" s="31">
-        <f>(E$6-E34)/E$6</f>
-        <v>0.80640975609756105</v>
-      </c>
-      <c r="F33" s="31">
-        <f t="shared" ref="F33" si="28">(F$6-F34)/F$6</f>
-        <v>0.7591919191919192</v>
-      </c>
-      <c r="G33" s="31">
-        <f t="shared" ref="G33" si="29">(G$6-G34)/G$6</f>
-        <v>0.70947211895910778</v>
-      </c>
-      <c r="H33" s="31">
-        <f t="shared" ref="H33" si="30">(H$6-H34)/H$6</f>
-        <v>0.71557458563535914</v>
-      </c>
-      <c r="I33" s="31">
-        <f t="shared" ref="I33" si="31">(I$6-I34)/I$6</f>
-        <v>0.74074866310160437</v>
-      </c>
-      <c r="J33" s="31">
-        <f t="shared" ref="J33" si="32">(J$6-J34)/J$6</f>
-        <v>0.83259895833333331</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="41">
-        <v>20.435661999999901</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="47">
-        <v>5.5350000000000001</v>
-      </c>
-      <c r="E34" s="47">
-        <v>3.9685999999999999</v>
-      </c>
-      <c r="F34" s="47">
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="G34" s="47">
-        <v>7.8151999999999999</v>
-      </c>
-      <c r="H34" s="47">
-        <v>5.1481000000000003</v>
-      </c>
-      <c r="I34" s="47">
-        <v>4.8479999999999999</v>
-      </c>
-      <c r="J34" s="47">
-        <v>3.2141000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="31">
-        <f>(D$6-D36)/D$6</f>
-        <v>7.400000000000001E-2</v>
-      </c>
-      <c r="E35" s="31">
-        <f>(E$6-E36)/E$6</f>
-        <v>8.2843902439024369E-2</v>
-      </c>
-      <c r="F35" s="31">
-        <f t="shared" ref="F35" si="33">(F$6-F36)/F$6</f>
-        <v>8.8762626262626279E-2</v>
-      </c>
-      <c r="G35" s="31">
-        <f t="shared" ref="G35" si="34">(G$6-G36)/G$6</f>
-        <v>3.7144981412639347E-2</v>
-      </c>
-      <c r="H35" s="31">
-        <f t="shared" ref="H35" si="35">(H$6-H36)/H$6</f>
-        <v>3.1331491712707174E-2</v>
-      </c>
-      <c r="I35" s="31">
-        <f t="shared" ref="I35" si="36">(I$6-I36)/I$6</f>
-        <v>5.3197860962566734E-2</v>
-      </c>
-      <c r="J35" s="31">
-        <f t="shared" ref="J35" si="37">(J$6-J36)/J$6</f>
-        <v>9.4458333333333394E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="41">
-        <v>29.071529999999999</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="47">
-        <v>22.316600000000001</v>
-      </c>
-      <c r="E36" s="47">
-        <v>18.8017</v>
-      </c>
-      <c r="F36" s="47">
-        <v>18.0425</v>
-      </c>
-      <c r="G36" s="47">
-        <v>25.9008</v>
-      </c>
-      <c r="H36" s="47">
-        <v>17.532900000000001</v>
-      </c>
-      <c r="I36" s="47">
-        <v>17.705200000000001</v>
-      </c>
-      <c r="J36" s="47">
-        <v>17.386399999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="31">
-        <f>(D$6-D38)/D$6</f>
-        <v>0.32653526970954366</v>
-      </c>
-      <c r="E37" s="31">
-        <f>(E$6-E38)/E$6</f>
-        <v>0.3638390243902439</v>
-      </c>
-      <c r="F37" s="31">
-        <f t="shared" ref="F37" si="38">(F$6-F38)/F$6</f>
-        <v>0.35580303030303029</v>
-      </c>
-      <c r="G37" s="31">
-        <f t="shared" ref="G37" si="39">(G$6-G38)/G$6</f>
-        <v>0.25261412639405206</v>
-      </c>
-      <c r="H37" s="31">
-        <f t="shared" ref="H37" si="40">(H$6-H38)/H$6</f>
-        <v>0.25132044198895032</v>
-      </c>
-      <c r="I37" s="31">
-        <f t="shared" ref="I37" si="41">(I$6-I38)/I$6</f>
-        <v>0.31319251336898396</v>
-      </c>
-      <c r="J37" s="31">
-        <f t="shared" ref="J37" si="42">(J$6-J38)/J$6</f>
-        <v>0.40582291666666659</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="41">
-        <v>25.118027999999999</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="47">
-        <v>16.230499999999999</v>
-      </c>
-      <c r="E38" s="47">
-        <v>13.0413</v>
-      </c>
-      <c r="F38" s="47">
-        <v>12.755100000000001</v>
-      </c>
-      <c r="G38" s="47">
-        <v>20.104679999999998</v>
-      </c>
-      <c r="H38" s="47">
-        <v>13.5511</v>
-      </c>
-      <c r="I38" s="47">
-        <v>12.843299999999999</v>
-      </c>
-      <c r="J38" s="47">
-        <v>11.408200000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="31">
-        <f>(D$6-D40)/D$6</f>
-        <v>0.17114937759336102</v>
-      </c>
-      <c r="E39" s="31">
-        <f>(E$6-E40)/E$6</f>
-        <v>0.1854243902439025</v>
-      </c>
-      <c r="F39" s="31">
-        <f t="shared" ref="F39" si="43">(F$6-F40)/F$6</f>
-        <v>0.18674242424242432</v>
-      </c>
-      <c r="G39" s="31">
-        <f t="shared" ref="G39" si="44">(G$6-G40)/G$6</f>
-        <v>0.13754646840148696</v>
-      </c>
-      <c r="H39" s="31">
-        <f t="shared" ref="H39" si="45">(H$6-H40)/H$6</f>
-        <v>0.15933149171270719</v>
-      </c>
-      <c r="I39" s="31">
-        <f t="shared" ref="I39" si="46">(I$6-I40)/I$6</f>
-        <v>0.17744385026737963</v>
-      </c>
-      <c r="J39" s="31">
-        <f t="shared" ref="J39" si="47">(J$6-J40)/J$6</f>
-        <v>0.218296875</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="41">
-        <v>28.1811720000001</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="47">
-        <v>19.975300000000001</v>
-      </c>
-      <c r="E40" s="47">
-        <v>16.698799999999999</v>
-      </c>
-      <c r="F40" s="47">
-        <v>16.102499999999999</v>
-      </c>
-      <c r="G40" s="47">
-        <v>23.2</v>
-      </c>
-      <c r="H40" s="47">
-        <v>15.216100000000001</v>
-      </c>
-      <c r="I40" s="47">
-        <v>15.3818</v>
-      </c>
-      <c r="J40" s="47">
-        <v>15.008699999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="41"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="31">
-        <f>(D$6-D42)/D$6</f>
-        <v>0.75546058091286306</v>
-      </c>
-      <c r="E41" s="31">
-        <f>(E$6-E42)/E$6</f>
-        <v>0.79740487804878057</v>
-      </c>
-      <c r="F41" s="31">
-        <f t="shared" ref="F41" si="48">(F$6-F42)/F$6</f>
-        <v>0.74642424242424232</v>
-      </c>
-      <c r="G41" s="31">
-        <f t="shared" ref="G41" si="49">(G$6-G42)/G$6</f>
-        <v>0.69516728624535318</v>
-      </c>
-      <c r="H41" s="31">
-        <f t="shared" ref="H41" si="50">(H$6-H42)/H$6</f>
-        <v>0.7103093922651933</v>
-      </c>
-      <c r="I41" s="31">
-        <f t="shared" ref="I41" si="51">(I$6-I42)/I$6</f>
-        <v>0.71554010695187165</v>
-      </c>
-      <c r="J41" s="31">
-        <f t="shared" ref="J41" si="52">(J$6-J42)/J$6</f>
-        <v>0.82095312500000006</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="41">
-        <v>20.62227</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="47">
-        <v>5.8933999999999997</v>
-      </c>
-      <c r="E42" s="47">
-        <v>4.1532</v>
-      </c>
-      <c r="F42" s="47">
-        <v>5.0208000000000004</v>
-      </c>
-      <c r="G42" s="47">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H42" s="47">
-        <v>5.2434000000000003</v>
-      </c>
-      <c r="I42" s="47">
-        <v>5.3193999999999999</v>
-      </c>
-      <c r="J42" s="47">
-        <v>3.4377</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="31">
-        <f>(D$6-D44)/D$6</f>
-        <v>0.11942738589211616</v>
-      </c>
-      <c r="E43" s="31">
-        <f>(E$6-E44)/E$6</f>
-        <v>0.14389268292682925</v>
-      </c>
-      <c r="F43" s="31">
-        <f t="shared" ref="F43" si="53">(F$6-F44)/F$6</f>
-        <v>0.13746969696969705</v>
-      </c>
-      <c r="G43" s="31">
-        <f t="shared" ref="G43" si="54">(G$6-G44)/G$6</f>
-        <v>0.33457249070631973</v>
-      </c>
-      <c r="H43" s="31">
-        <f t="shared" ref="H43" si="55">(H$6-H44)/H$6</f>
-        <v>8.8480662983425495E-2</v>
-      </c>
-      <c r="I43" s="31">
-        <f t="shared" ref="I43" si="56">(I$6-I44)/I$6</f>
-        <v>0.11579679144385017</v>
-      </c>
-      <c r="J43" s="31">
-        <f t="shared" ref="J43" si="57">(J$6-J44)/J$6</f>
-        <v>0.16674999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="41">
-        <v>28.863011999999799</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="47">
-        <v>21.221800000000002</v>
-      </c>
-      <c r="E44" s="47">
-        <v>17.5502</v>
-      </c>
-      <c r="F44" s="47">
-        <v>17.078099999999999</v>
-      </c>
-      <c r="G44" s="47">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H44" s="47">
-        <v>16.4985</v>
-      </c>
-      <c r="I44" s="47">
-        <v>16.534600000000001</v>
-      </c>
-      <c r="J44" s="47">
-        <v>15.9984</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="31">
-        <f>(D$6-D46)/D$6</f>
-        <v>0.38562655601659757</v>
-      </c>
-      <c r="E45" s="31">
-        <f>(E$6-E46)/E$6</f>
-        <v>0.44087317073170734</v>
-      </c>
-      <c r="F45" s="31">
-        <f t="shared" ref="F45" si="58">(F$6-F46)/F$6</f>
-        <v>0.41767171717171725</v>
-      </c>
-      <c r="G45" s="31">
-        <f t="shared" ref="G45" si="59">(G$6-G46)/G$6</f>
-        <v>8.1784386617100344E-2</v>
-      </c>
-      <c r="H45" s="31">
-        <f t="shared" ref="H45" si="60">(H$6-H46)/H$6</f>
-        <v>0.34106077348066305</v>
-      </c>
-      <c r="I45" s="31">
-        <f t="shared" ref="I45" si="61">(I$6-I46)/I$6</f>
-        <v>0.4148609625668449</v>
-      </c>
-      <c r="J45" s="31">
-        <f t="shared" ref="J45" si="62">(J$6-J46)/J$6</f>
-        <v>0.48615104166666667</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="41">
-        <v>25.025085999999899</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="47">
-        <v>14.8064</v>
-      </c>
-      <c r="E46" s="47">
-        <v>11.4621</v>
-      </c>
-      <c r="F46" s="47">
-        <v>11.530099999999999</v>
-      </c>
-      <c r="G46" s="47">
-        <v>24.7</v>
-      </c>
-      <c r="H46" s="47">
-        <v>11.9268</v>
-      </c>
-      <c r="I46" s="47">
-        <v>10.9421</v>
-      </c>
-      <c r="J46" s="47">
-        <v>9.8658999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A79AA3-4CCE-409D-A9FF-831D4BDD5DE6}">
-  <dimension ref="B3:J31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="18">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="E4" s="18">
-        <v>31.2</v>
-      </c>
-      <c r="F4" s="18">
-        <v>29.5</v>
-      </c>
-      <c r="G4" s="18">
-        <v>33.6</v>
-      </c>
-      <c r="H4" s="18">
-        <v>20.2</v>
-      </c>
-      <c r="I4" s="18">
-        <v>22.2</v>
-      </c>
-      <c r="J4" s="18">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
-      <c r="D5" s="32">
-        <f>(D4-D6)/D4</f>
-        <v>0.2953216374269006</v>
-      </c>
-      <c r="E5" s="32">
-        <f t="shared" ref="E5:J5" si="0">(E4-E6)/E4</f>
-        <v>0.34294871794871795</v>
-      </c>
-      <c r="F5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.32881355932203388</v>
-      </c>
-      <c r="G5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.19940476190476197</v>
-      </c>
-      <c r="H5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.10396039603960386</v>
-      </c>
-      <c r="I5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.15765765765765766</v>
-      </c>
-      <c r="J5" s="32">
-        <f t="shared" si="0"/>
-        <v>0.31672597864768687</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="18">
-        <v>24.1</v>
-      </c>
-      <c r="E6" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="F6" s="18">
-        <v>19.8</v>
-      </c>
-      <c r="G6" s="18">
-        <v>26.9</v>
-      </c>
-      <c r="H6" s="18">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I6" s="18">
-        <v>18.7</v>
-      </c>
-      <c r="J6" s="18">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="41">
-        <v>28.195789999999999</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="47">
-        <v>20.479099999999999</v>
-      </c>
-      <c r="E8" s="47">
-        <v>17.055199999999999</v>
-      </c>
-      <c r="F8" s="47">
-        <v>16.732700000000001</v>
-      </c>
-      <c r="G8" s="48">
-        <v>23.957100000000001</v>
-      </c>
-      <c r="H8" s="47">
-        <v>15.9</v>
-      </c>
-      <c r="I8" s="47">
-        <v>15.7637</v>
-      </c>
-      <c r="J8" s="47">
-        <v>15.238200000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="41">
-        <v>24.88289</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="E9" s="18">
-        <v>10.6</v>
-      </c>
-      <c r="F9" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="G9" s="18">
-        <v>17.2</v>
-      </c>
-      <c r="H9" s="18">
-        <v>11.1</v>
-      </c>
-      <c r="I9" s="18">
-        <v>10.6</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="41">
-        <v>20.446567999999999</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="47">
-        <v>5.6402000000000001</v>
-      </c>
-      <c r="E10" s="47">
-        <v>4.0423999999999998</v>
-      </c>
-      <c r="F10" s="47">
-        <v>5.1342999999999996</v>
-      </c>
-      <c r="G10" s="48">
-        <v>7.3920000000000003</v>
-      </c>
-      <c r="H10" s="47">
-        <v>4.8</v>
-      </c>
-      <c r="I10" s="47">
-        <v>4.5</v>
-      </c>
-      <c r="J10" s="47">
-        <v>3.1427999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="41">
-        <v>28.139831999999998</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="47">
-        <v>20.967199999999998</v>
-      </c>
-      <c r="E12" s="47">
-        <v>17.3626</v>
-      </c>
-      <c r="F12" s="47">
-        <v>16.8384</v>
-      </c>
-      <c r="G12" s="48">
-        <v>24.311199999999999</v>
-      </c>
-      <c r="H12" s="47">
-        <v>16.304099999999998</v>
-      </c>
-      <c r="I12" s="47">
-        <v>16.229900000000001</v>
-      </c>
-      <c r="J12" s="47">
-        <v>15.817600000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="41">
-        <v>24.853814</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="E13" s="18">
-        <v>11</v>
-      </c>
-      <c r="F13" s="18">
-        <v>11</v>
-      </c>
-      <c r="G13" s="18">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H13" s="18">
-        <v>11.6</v>
-      </c>
-      <c r="I13" s="18">
-        <v>11.2</v>
-      </c>
-      <c r="J13" s="18">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
-        <v>20.435661999999901</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="47">
-        <v>5.5350000000000001</v>
-      </c>
-      <c r="E14" s="47">
-        <v>3.9685999999999999</v>
-      </c>
-      <c r="F14" s="47">
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="G14" s="47">
-        <v>7.8151999999999999</v>
-      </c>
-      <c r="H14" s="47">
-        <v>5.1481000000000003</v>
-      </c>
-      <c r="I14" s="47">
-        <v>4.8479999999999999</v>
-      </c>
-      <c r="J14" s="47">
-        <v>3.2141000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
-        <v>28.1811720000001</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="47">
-        <v>19.975300000000001</v>
-      </c>
-      <c r="E16" s="47">
-        <v>16.698799999999999</v>
-      </c>
-      <c r="F16" s="47">
-        <v>16.102499999999999</v>
-      </c>
-      <c r="G16" s="47">
-        <v>23.2</v>
-      </c>
-      <c r="H16" s="47">
-        <v>15.216100000000001</v>
-      </c>
-      <c r="I16" s="47">
-        <v>15.3818</v>
-      </c>
-      <c r="J16" s="47">
-        <v>15.008699999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="41">
-        <v>25.02739</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="18">
-        <v>13.3</v>
-      </c>
-      <c r="E17" s="18">
-        <v>10.4</v>
-      </c>
-      <c r="F17" s="18">
-        <v>10.7</v>
-      </c>
-      <c r="G17" s="18">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H17" s="18">
-        <v>10.7</v>
-      </c>
-      <c r="I17" s="18">
-        <v>10.3</v>
-      </c>
-      <c r="J17" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="41">
-        <v>20.62227</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="47">
-        <v>5.8933999999999997</v>
-      </c>
-      <c r="E18" s="47">
-        <v>4.1532</v>
-      </c>
-      <c r="F18" s="47">
-        <v>5.0208000000000004</v>
-      </c>
-      <c r="G18" s="47">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H18" s="47">
-        <v>5.2434000000000003</v>
-      </c>
-      <c r="I18" s="47">
-        <v>5.3193999999999999</v>
-      </c>
-      <c r="J18" s="47">
-        <v>3.4377</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="41">
-        <v>29.075797999999899</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="47">
-        <v>22.216200000000001</v>
-      </c>
-      <c r="E20" s="47">
-        <v>18.7498</v>
-      </c>
-      <c r="F20" s="47">
-        <v>18.194600000000001</v>
-      </c>
-      <c r="G20" s="48">
-        <v>25.747399999999999</v>
-      </c>
-      <c r="H20" s="48">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I20" s="47">
-        <v>17.494299999999999</v>
-      </c>
-      <c r="J20" s="47">
-        <v>17.2562</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="41">
-        <v>27.889510000000001</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="E21" s="18">
-        <v>16.8</v>
-      </c>
-      <c r="F21" s="18">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G21" s="18">
-        <v>24</v>
-      </c>
-      <c r="H21" s="18">
-        <v>16.3</v>
-      </c>
-      <c r="I21" s="18">
-        <v>15.9</v>
-      </c>
-      <c r="J21" s="18">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="41">
-        <v>25.1388959999999</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="47">
-        <v>16.156400000000001</v>
-      </c>
-      <c r="E22" s="47">
-        <v>12.839</v>
-      </c>
-      <c r="F22" s="47">
-        <v>12.609400000000001</v>
-      </c>
-      <c r="G22" s="48">
-        <v>19.9026</v>
-      </c>
-      <c r="H22" s="47">
-        <v>13.4</v>
-      </c>
-      <c r="I22" s="47">
-        <v>12.5435</v>
-      </c>
-      <c r="J22" s="47">
-        <v>11.161300000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="24"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="41">
-        <v>29.071529999999999</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="47">
-        <v>22.316600000000001</v>
-      </c>
-      <c r="E24" s="47">
-        <v>18.8017</v>
-      </c>
-      <c r="F24" s="47">
-        <v>18.0425</v>
-      </c>
-      <c r="G24" s="47">
-        <v>25.9008</v>
-      </c>
-      <c r="H24" s="47">
-        <v>17.532900000000001</v>
-      </c>
-      <c r="I24" s="47">
-        <v>17.705200000000001</v>
-      </c>
-      <c r="J24" s="47">
-        <v>17.386399999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="41">
-        <v>27.872768000000001</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="18">
-        <v>20.6</v>
-      </c>
-      <c r="E25" s="18">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F25" s="18">
-        <v>16.5</v>
-      </c>
-      <c r="G25" s="18">
-        <v>24.2</v>
-      </c>
-      <c r="H25" s="18">
-        <v>16.3</v>
-      </c>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
-      <c r="J25" s="18">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="41">
-        <v>25.118027999999999</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="47">
-        <v>16.230499999999999</v>
-      </c>
-      <c r="E26" s="47">
-        <v>13.0413</v>
-      </c>
-      <c r="F26" s="47">
-        <v>12.755100000000001</v>
-      </c>
-      <c r="G26" s="47">
-        <v>20.104679999999998</v>
-      </c>
-      <c r="H26" s="47">
-        <v>13.5511</v>
-      </c>
-      <c r="I26" s="47">
-        <v>12.843299999999999</v>
-      </c>
-      <c r="J26" s="47">
-        <v>11.408200000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="41">
-        <v>28.863011999999799</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="47">
-        <v>21.221800000000002</v>
-      </c>
-      <c r="E28" s="47">
-        <v>17.5502</v>
-      </c>
-      <c r="F28" s="47">
-        <v>17.078099999999999</v>
-      </c>
-      <c r="G28" s="47">
-        <v>24.7</v>
-      </c>
-      <c r="H28" s="47">
-        <v>16.4985</v>
-      </c>
-      <c r="I28" s="47">
-        <v>16.534600000000001</v>
-      </c>
-      <c r="J28" s="47">
-        <v>15.9984</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="41">
-        <v>27.6897979999999</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="18">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E29" s="18">
-        <v>15.6</v>
-      </c>
-      <c r="F29" s="18">
-        <v>15.3</v>
-      </c>
-      <c r="G29" s="18">
-        <v>22.6</v>
-      </c>
-      <c r="H29" s="18">
-        <v>15</v>
-      </c>
-      <c r="I29" s="18">
-        <v>14.6</v>
-      </c>
-      <c r="J29" s="18">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="41">
-        <v>25.025085999999899</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="47">
-        <v>14.8064</v>
-      </c>
-      <c r="E30" s="47">
-        <v>11.4621</v>
-      </c>
-      <c r="F30" s="47">
-        <v>11.530099999999999</v>
-      </c>
-      <c r="G30" s="47">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H30" s="47">
-        <v>11.9268</v>
-      </c>
-      <c r="I30" s="47">
-        <v>10.9421</v>
-      </c>
-      <c r="J30" s="47">
-        <v>9.8658999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D8:J30">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>D8=MIN($D8:$J8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>D8=MAX($D8:$J8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112D7606-9C8B-41DF-A553-5965F3EFCEBB}">
-  <dimension ref="A1:M25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="9" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="18">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D3" s="18">
-        <v>31.2</v>
-      </c>
-      <c r="E3" s="18">
-        <v>29.5</v>
-      </c>
-      <c r="F3" s="18">
-        <v>33.6</v>
-      </c>
-      <c r="G3" s="18">
-        <v>20.2</v>
-      </c>
-      <c r="H3" s="18">
-        <v>22.2</v>
-      </c>
-      <c r="I3" s="33">
-        <v>28.1</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="18">
-        <v>24.1</v>
-      </c>
-      <c r="D4" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="E4" s="18">
-        <v>19.8</v>
-      </c>
-      <c r="F4" s="18">
-        <v>26.9</v>
-      </c>
-      <c r="G4" s="18">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H4" s="18">
-        <v>18.7</v>
-      </c>
-      <c r="I4" s="33">
-        <v>19.2</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="18">
-        <v>20.6</v>
-      </c>
-      <c r="D5" s="18">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E5" s="18">
-        <v>16.5</v>
-      </c>
-      <c r="F5" s="18">
-        <v>24.2</v>
-      </c>
-      <c r="G5" s="18">
-        <v>16.3</v>
-      </c>
-      <c r="H5" s="18">
-        <v>16</v>
-      </c>
-      <c r="I5" s="33">
-        <v>15.4</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="18">
-        <v>20.5</v>
-      </c>
-      <c r="D6" s="18">
-        <v>16.8</v>
-      </c>
-      <c r="E6" s="18">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="F6" s="18">
-        <v>24</v>
-      </c>
-      <c r="G6" s="18">
-        <v>16.3</v>
-      </c>
-      <c r="H6" s="18">
-        <v>15.9</v>
-      </c>
-      <c r="I6" s="33">
-        <v>15.3</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="18">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D7" s="18">
-        <v>15.6</v>
-      </c>
-      <c r="E7" s="18">
-        <v>15.3</v>
-      </c>
-      <c r="F7" s="18">
-        <v>22.6</v>
-      </c>
-      <c r="G7" s="18">
-        <v>15</v>
-      </c>
-      <c r="H7" s="18">
-        <v>14.6</v>
-      </c>
-      <c r="I7" s="33">
-        <v>13.8</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="D8" s="18">
-        <v>11</v>
-      </c>
-      <c r="E8" s="18">
-        <v>11</v>
-      </c>
-      <c r="F8" s="18">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G8" s="18">
-        <v>11.6</v>
-      </c>
-      <c r="H8" s="18">
-        <v>11.2</v>
-      </c>
-      <c r="I8" s="33">
-        <v>9.4</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="18">
-        <v>13.8</v>
-      </c>
-      <c r="D9" s="18">
-        <v>10.6</v>
-      </c>
-      <c r="E9" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="F9" s="18">
-        <v>17.2</v>
-      </c>
-      <c r="G9" s="18">
-        <v>11.1</v>
-      </c>
-      <c r="H9" s="18">
-        <v>10.6</v>
-      </c>
-      <c r="I9" s="33">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="35">
-        <v>13.3</v>
-      </c>
-      <c r="D10" s="35">
-        <v>10.4</v>
-      </c>
-      <c r="E10" s="35">
-        <v>10.7</v>
-      </c>
-      <c r="F10" s="35">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G10" s="35">
-        <v>10.7</v>
-      </c>
-      <c r="H10" s="35">
-        <v>10.3</v>
-      </c>
-      <c r="I10" s="36">
-        <v>9</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EA95B5-81FA-4847-8115-7473FD5464FC}">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="50.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26171875" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.578125" customWidth="1"/>
+    <col min="5" max="5" width="22.41796875" customWidth="1"/>
+    <col min="6" max="6" width="24.41796875" customWidth="1"/>
+    <col min="7" max="7" width="18.578125" customWidth="1"/>
+    <col min="8" max="8" width="17.15625" customWidth="1"/>
+    <col min="9" max="9" width="19.41796875" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.578125" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43"/>
       <c r="B3" s="42" t="s">
         <v>14</v>
@@ -9325,7 +10688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>71</v>
       </c>
@@ -9351,7 +10714,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>72</v>
       </c>
@@ -9377,7 +10740,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>73</v>
       </c>
@@ -9403,7 +10766,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>74</v>
       </c>
@@ -9429,7 +10792,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>75</v>
       </c>
@@ -9455,7 +10818,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>76</v>
       </c>
@@ -9481,7 +10844,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>77</v>
       </c>
@@ -9507,7 +10870,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>78</v>
       </c>
@@ -9533,7 +10896,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>79</v>
       </c>
@@ -9559,7 +10922,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>80</v>
       </c>
@@ -9585,7 +10948,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>81</v>
       </c>
@@ -9611,7 +10974,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="43" t="s">
         <v>82</v>
       </c>
@@ -9637,53 +11000,461 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="43"/>
+      <c r="B17" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="44">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C18" s="44">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D18" s="44">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0.187</v>
+      </c>
+      <c r="H18" s="44">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="44">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0.32</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0.435</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0.309</v>
+      </c>
+      <c r="G19" s="44">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="H19" s="44">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="44">
+        <v>0.253</v>
+      </c>
+      <c r="C20" s="44">
+        <v>0.216</v>
+      </c>
+      <c r="D20" s="44">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E20" s="44">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0.182</v>
+      </c>
+      <c r="G20" s="44">
+        <v>0.191</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="44">
+        <v>0.106</v>
+      </c>
+      <c r="C21" s="44">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D21" s="44">
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F21" s="44">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G21" s="44">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H21" s="44">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="44">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="C22" s="44">
+        <v>0.316</v>
+      </c>
+      <c r="D22" s="44">
+        <v>0.314</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0.372</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0.251</v>
+      </c>
+      <c r="G22" s="44">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H22" s="44">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="44">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0.307</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0.495</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="44">
+        <v>0.248</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D24" s="44">
+        <v>0.222</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0.251</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G24" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="44">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C25" s="44">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D25" s="44">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0.307</v>
+      </c>
+      <c r="G25" s="44">
+        <v>0.31</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="44">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0.372</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="44">
+        <v>0.245</v>
+      </c>
+      <c r="C27" s="44">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D27" s="44">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0.246</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0.114</v>
+      </c>
+      <c r="G27" s="44">
+        <v>0.151</v>
+      </c>
+      <c r="H27" s="44">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="44">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="C28" s="44">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D28" s="44">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="F28" s="44">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G28" s="44">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H28" s="44">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="44">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="C29" s="44">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D29" s="44">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0.69</v>
+      </c>
+      <c r="G29" s="44">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H29" s="44">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="67">
+        <f>(B4-B18)/B4</f>
+        <v>0.29532163742690065</v>
+      </c>
+      <c r="C31" s="67">
+        <f>(C4-C18)/C4</f>
+        <v>0.34294871794871801</v>
+      </c>
+      <c r="D31" s="67">
+        <f>(D4-D18)/D4</f>
+        <v>0.32881355932203382</v>
+      </c>
+      <c r="E31" s="67">
+        <f>(E4-E18)/E4</f>
+        <v>0.19940476190476192</v>
+      </c>
+      <c r="F31" s="67">
+        <f>(F4-F18)/F4</f>
+        <v>0.10396039603960405</v>
+      </c>
+      <c r="G31" s="67">
+        <f t="shared" ref="C31:H33" si="0">(G4-G18)/G4</f>
+        <v>0.15765765765765766</v>
+      </c>
+      <c r="H31" s="67">
+        <f t="shared" si="0"/>
+        <v>0.31672597864768687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="67">
+        <f>(B5-B19)/B5</f>
+        <v>0.27325581395348841</v>
+      </c>
+      <c r="C32" s="67">
+        <f>(C5-C19)/C5</f>
+        <v>0.31752577319587622</v>
+      </c>
+      <c r="D32" s="67">
+        <f>(D5-D19)/D5</f>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="E32" s="67">
+        <f>(E5-E19)/E5</f>
+        <v>0.15533980582524273</v>
+      </c>
+      <c r="F32" s="67">
+        <f>(F5-F19)/F5</f>
+        <v>0.11461318051575926</v>
+      </c>
+      <c r="G32" s="67">
+        <f t="shared" si="0"/>
+        <v>0.14016172506738542</v>
+      </c>
+      <c r="H32" s="67">
+        <f t="shared" si="0"/>
+        <v>0.2878787878787879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="67">
+        <f>(B6-B20)/B6</f>
+        <v>0.29722222222222217</v>
+      </c>
+      <c r="C33" s="67">
+        <f>(C6-C20)/C6</f>
+        <v>0.3493975903614458</v>
+      </c>
+      <c r="D33" s="67">
+        <f>(D6-D20)/D6</f>
+        <v>0.33225806451612905</v>
+      </c>
+      <c r="E33" s="67">
+        <f>(E6-E20)/E6</f>
+        <v>0.22191011235955047</v>
+      </c>
+      <c r="F33" s="67">
+        <f>(F6-F20)/F6</f>
+        <v>0.10784313725490192</v>
+      </c>
+      <c r="G33" s="67">
+        <f t="shared" si="0"/>
+        <v>0.1767241379310345</v>
+      </c>
+      <c r="H33" s="67">
+        <f t="shared" si="0"/>
+        <v>0.33666666666666661</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H15">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>B4=MAX($B4:$H4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>B4=MIN($B4:$H4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:H29">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>B18=MAX($B18:$H18)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>B18=MIN($B18:$H18)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9695,22 +11466,22 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H14" sqref="A2:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.26171875" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43"/>
       <c r="B2" s="42" t="s">
         <v>14</v>
@@ -9734,7 +11505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
@@ -9760,7 +11531,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
@@ -9786,7 +11557,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
@@ -9812,7 +11583,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
@@ -9838,7 +11609,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
@@ -9864,7 +11635,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -9890,7 +11661,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
@@ -9916,7 +11687,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
@@ -9942,7 +11713,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
@@ -9968,7 +11739,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
@@ -9994,7 +11765,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
@@ -10020,7 +11791,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
@@ -10049,10 +11820,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{3E2C188C-874F-40B9-8096-DC9C26D94CA6}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10068,19 +11839,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.26171875" customWidth="1"/>
+    <col min="6" max="6" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43" t="s">
         <v>83</v>
       </c>
@@ -10106,7 +11877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43" t="s">
         <v>71</v>
       </c>
@@ -10132,7 +11903,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>72</v>
       </c>
@@ -10158,7 +11929,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
@@ -10184,7 +11955,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>74</v>
       </c>
@@ -10210,7 +11981,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>75</v>
       </c>
@@ -10236,7 +12007,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -10262,7 +12033,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>77</v>
       </c>
@@ -10288,7 +12059,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>78</v>
       </c>
@@ -10314,7 +12085,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>79</v>
       </c>
@@ -10340,7 +12111,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>80</v>
       </c>
@@ -10366,7 +12137,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>81</v>
       </c>
@@ -10392,7 +12163,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>82</v>
       </c>
@@ -10421,10 +12192,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayravil\gradu\project_ae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2CB8B-C910-463A-97B7-4DB35CF71938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D5B77C-51F1-4815-973D-4CAE9E80271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="6" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Models" sheetId="4" r:id="rId1"/>
@@ -754,12 +754,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,13 +803,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="2" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="46">
     <dxf>
       <font>
         <b/>
@@ -1015,522 +1015,25 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1743,25 +1246,32 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3632,7 +3142,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
     <filterColumn colId="0">
       <customFilters>
@@ -3649,11 +3159,11 @@
     <sortCondition descending="1" ref="C1:C40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="114" dataCellStyle="Hyperlinkki"/>
-    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="110">
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="44" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="40">
       <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3662,20 +3172,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="B2:I10" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101" tableBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="B2:I10" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="B2:I10" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I10">
     <sortCondition descending="1" ref="F2:F10"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet v2 320x320" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet v2 320x320" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3689,13 +3199,13 @@
     <tableColumn id="2" xr3:uid="{FCB279FD-5628-4714-B5F6-CA3772C5E7ED}" name="Speed (ms)"/>
     <tableColumn id="3" xr3:uid="{F55163EC-ECBF-4FB9-BC64-F8FD4E943A5A}" name="COCO mAP"/>
     <tableColumn id="4" xr3:uid="{94BAFA4F-62B2-42DD-87D9-D6AF414518AF}" name="Original mAP"/>
-    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="106"/>
-    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="104"/>
-    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{72B1677E-E4BD-4FCC-BDF1-147EC5E3AEC0}" name="image size 224x224 mAP " dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{DF732D79-10F8-4D8A-B0AC-C29C8DC03B35}" name="mobilenet fgsm 0,05eps mAP " dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{250D920B-7FBC-436D-BAB0-69351313A449}" name="mobilenet pgd 0,05eps mAP " dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{39F637D3-BF27-452D-91CC-DED59DD22D8A}" name="resnet50 fgsm 0,05eps mAP " dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{75569383-0EE6-4AB7-971D-DB368AC814A0}" name="resnet50 pgd 0,05eps mAP " dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{24F3D28F-8284-4352-B528-F84CEA8C0A68}" name="efficientnet0 fgsm 0,05eps mAP " dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{48F05E36-E57D-4FEA-BF91-03C11A0E8C0D}" name="efficientnet0 pgd 0,05eps mAP " dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5278,10 +4788,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5294,7 +4804,7 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5648,10 +5158,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6018,10 +5528,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6388,10 +5898,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6761,10 +6271,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6931,31 +6441,31 @@
     </row>
     <row r="6" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="19"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="55">
         <v>24.1</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="55">
         <v>20.5</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="55">
         <v>19.8</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="55">
         <v>26.9</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="55">
         <v>18.100000000000001</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="55">
         <v>18.7</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="55">
         <v>19.2</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="61" t="s">
         <v>101</v>
       </c>
       <c r="K6" s="19"/>
@@ -6964,31 +6474,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19"/>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="53">
         <v>13.8</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <v>10.6</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="53">
         <v>10.9</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>17.2</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="53">
         <v>11.1</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <v>10.6</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="53">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="60">
         <v>24.88289</v>
       </c>
       <c r="K7" s="19"/>
@@ -7021,7 +6531,7 @@
       <c r="I8" s="18">
         <v>15.3</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="60">
         <v>27.889510000000001</v>
       </c>
       <c r="K8" s="19"/>
@@ -7054,7 +6564,7 @@
       <c r="I9" s="18">
         <v>9.4</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="60">
         <v>24.853814</v>
       </c>
       <c r="K9" s="19"/>
@@ -7087,7 +6597,7 @@
       <c r="I10" s="18">
         <v>15.4</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="60">
         <v>27.872768000000001</v>
       </c>
       <c r="K10" s="19"/>
@@ -7120,7 +6630,7 @@
       <c r="I11" s="18">
         <v>9</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="60">
         <v>25.02739</v>
       </c>
       <c r="K11" s="19"/>
@@ -7153,7 +6663,7 @@
       <c r="I12" s="18">
         <v>13.8</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="60">
         <v>27.6897979999999</v>
       </c>
       <c r="K12" s="19"/>
@@ -7175,14 +6685,14 @@
       <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19"/>
@@ -7321,31 +6831,31 @@
     </row>
     <row r="20" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="19"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>24.1</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="55">
         <v>20.5</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="55">
         <v>19.8</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="55">
         <v>26.9</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="55">
         <v>18.100000000000001</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="55">
         <v>18.7</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="55">
         <v>19.2</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="61" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="19"/>
@@ -7354,31 +6864,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="19"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="56">
         <v>20.479099999999999</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="56">
         <v>17.055199999999999</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="56">
         <v>16.732700000000001</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <v>23.957100000000001</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="58">
         <v>15.9</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="58">
         <v>15.7637</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="58">
         <v>15.238200000000001</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="60">
         <v>28.195789999999999</v>
       </c>
       <c r="K21" s="19"/>
@@ -7399,19 +6909,19 @@
       <c r="E22" s="45">
         <v>18.194600000000001</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="47">
         <v>25.747399999999999</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="47">
         <v>17.399999999999999</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="48">
         <v>17.494299999999999</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="48">
         <v>17.2562</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="60">
         <v>29.075797999999899</v>
       </c>
       <c r="K22" s="19"/>
@@ -7432,19 +6942,19 @@
       <c r="E23" s="45">
         <v>16.8384</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="47">
         <v>24.311199999999999</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="48">
         <v>16.304099999999998</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="48">
         <v>16.229900000000001</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="48">
         <v>15.817600000000001</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="60">
         <v>28.139831999999998</v>
       </c>
       <c r="K23" s="19"/>
@@ -7465,19 +6975,19 @@
       <c r="E24" s="45">
         <v>18.0425</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="48">
         <v>25.9008</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="48">
         <v>17.532900000000001</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="48">
         <v>17.705200000000001</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="48">
         <v>17.386399999999998</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="60">
         <v>29.071529999999999</v>
       </c>
       <c r="K24" s="19"/>
@@ -7498,19 +7008,19 @@
       <c r="E25" s="45">
         <v>16.102499999999999</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="48">
         <v>23.2</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="48">
         <v>15.216100000000001</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="48">
         <v>15.3818</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="48">
         <v>15.008699999999999</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="60">
         <v>28.1811720000001</v>
       </c>
       <c r="K25" s="19"/>
@@ -7531,19 +7041,19 @@
       <c r="E26" s="45">
         <v>17.078099999999999</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="48">
         <v>24.7</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="48">
         <v>16.4985</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="48">
         <v>16.534600000000001</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="48">
         <v>15.9984</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="60">
         <v>28.863011999999799</v>
       </c>
       <c r="K26" s="19"/>
@@ -7701,31 +7211,31 @@
     </row>
     <row r="34" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="19"/>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="55">
         <v>24.1</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="55">
         <v>20.5</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="55">
         <v>19.8</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="55">
         <v>26.9</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="55">
         <v>18.100000000000001</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="55">
         <v>18.7</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="55">
         <v>19.2</v>
       </c>
-      <c r="J34" s="63" t="s">
+      <c r="J34" s="61" t="s">
         <v>101</v>
       </c>
       <c r="K34" s="19"/>
@@ -7734,31 +7244,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="19"/>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="56">
         <v>5.6402000000000001</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="56">
         <v>4.0423999999999998</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="56">
         <v>5.1342999999999996</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="59">
         <v>7.3920000000000003</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="56">
         <v>4.8</v>
       </c>
-      <c r="H35" s="58">
+      <c r="H35" s="56">
         <v>4.5</v>
       </c>
-      <c r="I35" s="58">
+      <c r="I35" s="56">
         <v>3.1427999999999998</v>
       </c>
-      <c r="J35" s="62">
+      <c r="J35" s="60">
         <v>20.446567999999999</v>
       </c>
       <c r="K35" s="19"/>
@@ -7791,7 +7301,7 @@
       <c r="I36" s="45">
         <v>11.161300000000001</v>
       </c>
-      <c r="J36" s="62">
+      <c r="J36" s="60">
         <v>25.1388959999999</v>
       </c>
       <c r="K36" s="19"/>
@@ -7824,7 +7334,7 @@
       <c r="I37" s="45">
         <v>3.2141000000000002</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J37" s="60">
         <v>20.435661999999901</v>
       </c>
       <c r="K37" s="19"/>
@@ -7857,7 +7367,7 @@
       <c r="I38" s="45">
         <v>11.408200000000001</v>
       </c>
-      <c r="J38" s="62">
+      <c r="J38" s="60">
         <v>25.118027999999999</v>
       </c>
       <c r="K38" s="19"/>
@@ -7890,7 +7400,7 @@
       <c r="I39" s="45">
         <v>3.4377</v>
       </c>
-      <c r="J39" s="62">
+      <c r="J39" s="60">
         <v>20.62227</v>
       </c>
       <c r="K39" s="19"/>
@@ -7923,7 +7433,7 @@
       <c r="I40" s="45">
         <v>9.8658999999999999</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="60">
         <v>25.025085999999899</v>
       </c>
       <c r="K40" s="19"/>
@@ -7946,10 +7456,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:E26 G21:H26 C35:E40 G35:H40">
-    <cfRule type="expression" dxfId="21" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>C21=MAX($D21:$J21)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>C21=MIN($D21:$J21)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7962,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A79AA3-4CCE-409D-A9FF-831D4BDD5DE6}">
   <dimension ref="B3:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8085,7 +7595,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="62" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="29"/>
@@ -8098,7 +7608,7 @@
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="62">
+      <c r="B8" s="60">
         <v>28.195789999999999</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -8127,7 +7637,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="62">
+      <c r="B9" s="60">
         <v>24.88289</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -8156,7 +7666,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="62">
+      <c r="B10" s="60">
         <v>20.446567999999999</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -8185,7 +7695,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="62"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="24"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -8196,7 +7706,7 @@
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="62">
+      <c r="B12" s="60">
         <v>28.139831999999998</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -8225,7 +7735,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="62">
+      <c r="B13" s="60">
         <v>24.853814</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -8254,7 +7764,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="62">
+      <c r="B14" s="60">
         <v>20.435661999999901</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -8283,7 +7793,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="62"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="24"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
@@ -8294,7 +7804,7 @@
       <c r="J15" s="45"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="62">
+      <c r="B16" s="60">
         <v>28.1811720000001</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -8323,7 +7833,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="62">
+      <c r="B17" s="60">
         <v>25.02739</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -8352,7 +7862,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="62">
+      <c r="B18" s="60">
         <v>20.62227</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -8381,7 +7891,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="66"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -8392,7 +7902,7 @@
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="62">
+      <c r="B20" s="60">
         <v>29.075797999999899</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -8421,7 +7931,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="62">
+      <c r="B21" s="60">
         <v>27.889510000000001</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -8450,7 +7960,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="62">
+      <c r="B22" s="60">
         <v>25.1388959999999</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -8479,7 +7989,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="65"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="24"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -8490,7 +8000,7 @@
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="62">
+      <c r="B24" s="60">
         <v>29.071529999999999</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -8519,7 +8029,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="62">
+      <c r="B25" s="60">
         <v>27.872768000000001</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -8548,7 +8058,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="62">
+      <c r="B26" s="60">
         <v>25.118027999999999</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -8577,11 +8087,11 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="65"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="24"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="62">
+      <c r="B28" s="60">
         <v>28.863011999999799</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -8610,7 +8120,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="62">
+      <c r="B29" s="60">
         <v>27.6897979999999</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -8639,7 +8149,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="62">
+      <c r="B30" s="60">
         <v>25.025085999999899</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -8668,7 +8178,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="66"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
@@ -8680,10 +8190,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:J10 D12:J14 D28:J30 D24:J26 D20:J22 D16:J18">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>D8=MAX($D8:$J8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>D8=MIN($D8:$J8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8697,7 +8207,7 @@
   <dimension ref="B3:J45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10322,20 +9832,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -10634,7 +10144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EA95B5-81FA-4847-8115-7473FD5464FC}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -11345,32 +10855,32 @@
       <c r="A31" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="67">
-        <f>(B4-B18)/B4</f>
+      <c r="B31" s="65">
+        <f t="shared" ref="B31:F33" si="0">(B4-B18)/B4</f>
         <v>0.29532163742690065</v>
       </c>
-      <c r="C31" s="67">
-        <f>(C4-C18)/C4</f>
+      <c r="C31" s="65">
+        <f t="shared" si="0"/>
         <v>0.34294871794871801</v>
       </c>
-      <c r="D31" s="67">
-        <f>(D4-D18)/D4</f>
+      <c r="D31" s="65">
+        <f t="shared" si="0"/>
         <v>0.32881355932203382</v>
       </c>
-      <c r="E31" s="67">
-        <f>(E4-E18)/E4</f>
+      <c r="E31" s="65">
+        <f t="shared" si="0"/>
         <v>0.19940476190476192</v>
       </c>
-      <c r="F31" s="67">
-        <f>(F4-F18)/F4</f>
+      <c r="F31" s="65">
+        <f t="shared" si="0"/>
         <v>0.10396039603960405</v>
       </c>
-      <c r="G31" s="67">
-        <f t="shared" ref="C31:H33" si="0">(G4-G18)/G4</f>
+      <c r="G31" s="65">
+        <f t="shared" ref="G31:H33" si="1">(G4-G18)/G4</f>
         <v>0.15765765765765766</v>
       </c>
-      <c r="H31" s="67">
-        <f t="shared" si="0"/>
+      <c r="H31" s="65">
+        <f t="shared" si="1"/>
         <v>0.31672597864768687</v>
       </c>
     </row>
@@ -11378,32 +10888,32 @@
       <c r="A32" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="67">
-        <f>(B5-B19)/B5</f>
+      <c r="B32" s="65">
+        <f t="shared" si="0"/>
         <v>0.27325581395348841</v>
       </c>
-      <c r="C32" s="67">
-        <f>(C5-C19)/C5</f>
+      <c r="C32" s="65">
+        <f t="shared" si="0"/>
         <v>0.31752577319587622</v>
       </c>
-      <c r="D32" s="67">
-        <f>(D5-D19)/D5</f>
+      <c r="D32" s="65">
+        <f t="shared" si="0"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="E32" s="67">
-        <f>(E5-E19)/E5</f>
+      <c r="E32" s="65">
+        <f t="shared" si="0"/>
         <v>0.15533980582524273</v>
       </c>
-      <c r="F32" s="67">
-        <f>(F5-F19)/F5</f>
+      <c r="F32" s="65">
+        <f t="shared" si="0"/>
         <v>0.11461318051575926</v>
       </c>
-      <c r="G32" s="67">
-        <f t="shared" si="0"/>
+      <c r="G32" s="65">
+        <f t="shared" si="1"/>
         <v>0.14016172506738542</v>
       </c>
-      <c r="H32" s="67">
-        <f t="shared" si="0"/>
+      <c r="H32" s="65">
+        <f t="shared" si="1"/>
         <v>0.2878787878787879</v>
       </c>
     </row>
@@ -11411,32 +10921,32 @@
       <c r="A33" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="67">
-        <f>(B6-B20)/B6</f>
+      <c r="B33" s="65">
+        <f t="shared" si="0"/>
         <v>0.29722222222222217</v>
       </c>
-      <c r="C33" s="67">
-        <f>(C6-C20)/C6</f>
+      <c r="C33" s="65">
+        <f t="shared" si="0"/>
         <v>0.3493975903614458</v>
       </c>
-      <c r="D33" s="67">
-        <f>(D6-D20)/D6</f>
+      <c r="D33" s="65">
+        <f t="shared" si="0"/>
         <v>0.33225806451612905</v>
       </c>
-      <c r="E33" s="67">
-        <f>(E6-E20)/E6</f>
+      <c r="E33" s="65">
+        <f t="shared" si="0"/>
         <v>0.22191011235955047</v>
       </c>
-      <c r="F33" s="67">
-        <f>(F6-F20)/F6</f>
+      <c r="F33" s="65">
+        <f t="shared" si="0"/>
         <v>0.10784313725490192</v>
       </c>
-      <c r="G33" s="67">
-        <f t="shared" si="0"/>
+      <c r="G33" s="65">
+        <f t="shared" si="1"/>
         <v>0.1767241379310345</v>
       </c>
-      <c r="H33" s="67">
-        <f t="shared" si="0"/>
+      <c r="H33" s="65">
+        <f t="shared" si="1"/>
         <v>0.33666666666666661</v>
       </c>
     </row>
@@ -11450,10 +10960,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H29">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>B18=MAX($B18:$H18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>B18=MIN($B18:$H18)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11820,10 +11330,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{3E2C188C-874F-40B9-8096-DC9C26D94CA6}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11836,7 +11346,7 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12192,10 +11702,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C01F8-5976-4328-8782-8C670BCAA91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09873F01-27AC-4CF3-9F6C-B2A4DA3C3C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-38520" yWindow="-1155" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Models" sheetId="4" r:id="rId1"/>
     <sheet name="AP_tables_by_epsilon" sheetId="3" r:id="rId2"/>
-    <sheet name="AP_main_by_attack-epsilon" sheetId="20" r:id="rId3"/>
-    <sheet name="AP_main_by_attack-architecture" sheetId="19" r:id="rId4"/>
-    <sheet name="AP_main_drop_percentages" sheetId="6" r:id="rId5"/>
-    <sheet name="Graphs" sheetId="8" r:id="rId6"/>
-    <sheet name="coco-original vs coco-224" sheetId="9" r:id="rId7"/>
-    <sheet name="MN-0.05-FGSM" sheetId="11" r:id="rId8"/>
-    <sheet name="MN-0.05-PGD" sheetId="14" r:id="rId9"/>
-    <sheet name="RN-0.05-FGSM" sheetId="12" r:id="rId10"/>
-    <sheet name="RN-0.05-PGD" sheetId="16" r:id="rId11"/>
-    <sheet name="EN-0.05-FGSM" sheetId="13" r:id="rId12"/>
-    <sheet name="EN-0.05-PGD" sheetId="18" r:id="rId13"/>
+    <sheet name="Taul1" sheetId="21" r:id="rId3"/>
+    <sheet name="AP_main_by_attack-epsilon" sheetId="20" r:id="rId4"/>
+    <sheet name="AP_main_by_attack-architecture" sheetId="19" r:id="rId5"/>
+    <sheet name="AP_main_drop_percentages" sheetId="6" r:id="rId6"/>
+    <sheet name="Graphs" sheetId="8" r:id="rId7"/>
+    <sheet name="coco-original vs coco-224" sheetId="9" r:id="rId8"/>
+    <sheet name="MN-0.05-FGSM" sheetId="11" r:id="rId9"/>
+    <sheet name="MN-0.05-PGD" sheetId="14" r:id="rId10"/>
+    <sheet name="RN-0.05-FGSM" sheetId="12" r:id="rId11"/>
+    <sheet name="RN-0.05-PGD" sheetId="16" r:id="rId12"/>
+    <sheet name="EN-0.05-FGSM" sheetId="13" r:id="rId13"/>
+    <sheet name="EN-0.05-PGD" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'EN-0.05-FGSM'!$A$2:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'EN-0.05-PGD'!$A$2:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'MN-0.05-FGSM'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'MN-0.05-PGD'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'RN-0.05-FGSM'!$A$2:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'RN-0.05-PGD'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'EN-0.05-FGSM'!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'EN-0.05-PGD'!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'MN-0.05-FGSM'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'MN-0.05-PGD'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'RN-0.05-FGSM'!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'RN-0.05-PGD'!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="134">
   <si>
     <t>Speed (ms)</t>
   </si>
@@ -442,6 +443,21 @@
   <si>
     <t>AP and PSNR by epsilon</t>
   </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drop</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>SSD MobileNet V2 320x320</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -611,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -761,13 +777,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -978,6 +1046,35 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -999,20 +1096,44 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1020,7 +1141,217 @@
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="141">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1229,6 +1560,342 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2532,7 +3199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SSD MobileNet v2 320x320</c:v>
+                  <c:v>SSD MobileNet V2 320x320</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2900,7 +3567,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI" sz="1400" b="1"/>
-                  <a:t>Datasets</a:t>
+                  <a:t>Dataset</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2982,7 +3649,7 @@
         <c:axId val="42700655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3021,7 +3688,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI" sz="1400" b="1"/>
-                  <a:t> mAP</a:t>
+                  <a:t>AP</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3636,7 +4303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SSD MobileNet v2 320x320</c:v>
+                  <c:v>SSD MobileNet V2 320x320</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4004,7 +4671,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI" sz="1400" b="1"/>
-                  <a:t>Datasets</a:t>
+                  <a:t>Dataset</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4086,7 +4753,7 @@
         <c:axId val="42700655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4125,7 +4792,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI" sz="1400" b="1"/>
-                  <a:t> mAP</a:t>
+                  <a:t>AP</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4740,7 +5407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SSD MobileNet v2 320x320</c:v>
+                  <c:v>SSD MobileNet V2 320x320</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5108,7 +5775,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI" sz="1400" b="1"/>
-                  <a:t>Datasets</a:t>
+                  <a:t>Dataset</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5229,7 +5896,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI" sz="1400" b="1"/>
-                  <a:t> mAP</a:t>
+                  <a:t>AP</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7122,7 +7789,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="140">
   <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
     <filterColumn colId="0">
       <customFilters>
@@ -7139,11 +7806,11 @@
     <sortCondition descending="1" ref="C1:C40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="61" dataCellStyle="Hyperlinkki"/>
-    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="139" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="135">
       <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7152,60 +7819,60 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="A32:H40" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="A32:H40" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132">
   <autoFilter ref="A32:H40" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:H40">
     <sortCondition descending="1" ref="E32:E40"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet v2 320x320" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="127"/>
+    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet V2 320x320" dataDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="125"/>
+    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B3E452C3-2164-466A-9D0F-8B0E75417263}" name="Taulukko35" displayName="Taulukko35" ref="A3:H11" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B3E452C3-2164-466A-9D0F-8B0E75417263}" name="Taulukko35" displayName="Taulukko35" ref="A3:H11" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122" tableBorderDxfId="121">
   <autoFilter ref="A3:H11" xr:uid="{B3E452C3-2164-466A-9D0F-8B0E75417263}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{880ECD30-222F-4289-B145-C28E270B284F}" name="Dataset" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{B4464E0A-E761-4880-BF7C-9A11873A5302}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{5DE80D9C-5A4E-4780-BC4F-081A55BF1DE3}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{1ABEECFF-50C3-4FD7-ABDC-2F06667EE645}" name="CenterNet Resnet50 V2 512x512" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{C2B29853-8E82-4A57-9813-34DE43F64F99}" name="EfficientDet D0 512x512" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{A7C8BC60-765E-477C-8E4D-BD9E31752DC7}" name="SSD MobileNet v2 320x320" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{FC900ABD-546A-49FB-8295-0A46C66A64D7}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{8C8DBE16-BE07-4923-BB3E-89AB582FA60B}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{880ECD30-222F-4289-B145-C28E270B284F}" name="Dataset" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{B4464E0A-E761-4880-BF7C-9A11873A5302}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{5DE80D9C-5A4E-4780-BC4F-081A55BF1DE3}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{1ABEECFF-50C3-4FD7-ABDC-2F06667EE645}" name="CenterNet Resnet50 V2 512x512" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{C2B29853-8E82-4A57-9813-34DE43F64F99}" name="EfficientDet D0 512x512" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{A7C8BC60-765E-477C-8E4D-BD9E31752DC7}" name="SSD MobileNet V2 320x320" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{FC900ABD-546A-49FB-8295-0A46C66A64D7}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{8C8DBE16-BE07-4923-BB3E-89AB582FA60B}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{69C492AE-4330-43F4-A406-326A84667C0D}" name="Taulukko357" displayName="Taulukko357" ref="A59:H67" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{69C492AE-4330-43F4-A406-326A84667C0D}" name="Taulukko357" displayName="Taulukko357" ref="A59:H67" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="A59:H67" xr:uid="{69C492AE-4330-43F4-A406-326A84667C0D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:H67">
     <sortCondition descending="1" ref="E21:E29"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{86B84A50-A787-46FB-AB84-28C2E1A1664E}" name="Dataset" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{2D0BE662-C172-4DA2-9BB3-0FB22CE17A31}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{718B4359-BF16-4ED0-9303-4C3768029CE0}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{1C7A38F2-BC0D-4589-BD69-4C9D96E3FF25}" name="CenterNet Resnet50 V2 512x512" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{A6173992-418F-4D0E-B873-342F3FC1FEF8}" name="EfficientDet D0 512x512" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{7EFFAC97-CB5E-4B74-9433-A0FFB5281AE7}" name="SSD MobileNet v2 320x320" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{A3A5E7BE-FF22-4BC4-913E-13BFDE5D1ADE}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{41093458-B747-4F04-BC5A-D25C882E8F76}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{86B84A50-A787-46FB-AB84-28C2E1A1664E}" name="Dataset" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{2D0BE662-C172-4DA2-9BB3-0FB22CE17A31}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{718B4359-BF16-4ED0-9303-4C3768029CE0}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{1C7A38F2-BC0D-4589-BD69-4C9D96E3FF25}" name="CenterNet Resnet50 V2 512x512" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{A6173992-418F-4D0E-B873-342F3FC1FEF8}" name="EfficientDet D0 512x512" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{7EFFAC97-CB5E-4B74-9433-A0FFB5281AE7}" name="SSD MobileNet V2 320x320" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{A3A5E7BE-FF22-4BC4-913E-13BFDE5D1ADE}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{41093458-B747-4F04-BC5A-D25C882E8F76}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7511,7 +8178,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8430,6 +9097,378 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.159</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.215</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.248</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C6" s="37">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D6" s="37">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F6" s="37">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G6" s="37">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H6" s="37">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.219</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.222</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.433</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="37">
+        <v>0.223</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.193</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.187</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.182</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="37">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.316</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.34</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.184</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="37">
+        <v>0.495</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.433</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H2" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}"/>
+  <conditionalFormatting sqref="B3:H14">
+    <cfRule type="expression" dxfId="39" priority="1">
+      <formula>B3=MAX($B3:$H3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="2">
+      <formula>B3=MIN($B3:$H3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -8450,7 +9489,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -8790,10 +9829,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8801,7 +9840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -8822,7 +9861,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -9162,10 +10201,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9173,7 +10212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -9194,7 +10233,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -9534,10 +10573,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9545,11 +10584,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -9566,7 +10605,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -9909,10 +10948,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9943,21 +10982,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -9972,7 +11011,7 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="88" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -10362,7 +11401,7 @@
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="88" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -10742,7 +11781,7 @@
     </row>
     <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="88" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -11114,10 +12153,10 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C36:E41 G36:H41 C8:E13 G8:H13">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="101" priority="35">
       <formula>C8=MAX($D8:$J8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="36">
+    <cfRule type="expression" dxfId="100" priority="36">
       <formula>C8=MIN($D8:$J8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11127,11 +12166,1986 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FC178-1570-4A24-833C-FB454C56613D}">
+  <dimension ref="B2:AD20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z2" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15">
+        <v>24.1</v>
+      </c>
+      <c r="D3" s="94">
+        <f>($C3-E3)/($C3)</f>
+        <v>0.1502448132780084</v>
+      </c>
+      <c r="E3" s="38">
+        <v>20.479099999999999</v>
+      </c>
+      <c r="F3" s="94">
+        <f t="shared" ref="F3:F9" si="0">($C3-G3)/($C3)</f>
+        <v>0.12999170124481341</v>
+      </c>
+      <c r="G3" s="38">
+        <v>20.967199999999998</v>
+      </c>
+      <c r="H3" s="94">
+        <f>($C3-I3)/($C3)</f>
+        <v>0.17114937759336102</v>
+      </c>
+      <c r="I3" s="38">
+        <v>19.975300000000001</v>
+      </c>
+      <c r="J3" s="94">
+        <f>($C3-K3)/($C3)</f>
+        <v>0.42738589211618255</v>
+      </c>
+      <c r="K3" s="15">
+        <v>13.8</v>
+      </c>
+      <c r="L3" s="94">
+        <f>($C3-M3)/($C3)</f>
+        <v>0.42738589211618255</v>
+      </c>
+      <c r="M3" s="15">
+        <v>13.8</v>
+      </c>
+      <c r="N3" s="94">
+        <f>($C3-O3)/($C3)</f>
+        <v>0.44813278008298757</v>
+      </c>
+      <c r="O3" s="15">
+        <v>13.3</v>
+      </c>
+      <c r="P3" s="94">
+        <f>($C3-Q3)/($C3)</f>
+        <v>0.76596680497925307</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>5.6402000000000001</v>
+      </c>
+      <c r="R3" s="94">
+        <f>($C3-S3)/($C3)</f>
+        <v>0.77033195020746892</v>
+      </c>
+      <c r="S3" s="38">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="T3" s="94">
+        <f>($C3-U3)/($C3)</f>
+        <v>0.75546058091286306</v>
+      </c>
+      <c r="U3" s="38">
+        <v>5.8933999999999997</v>
+      </c>
+      <c r="W3" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="15">
+        <v>24.1</v>
+      </c>
+      <c r="Y3" s="94">
+        <f>($C3-Z3)/($C3)</f>
+        <v>0.76596680497925307</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>5.6402000000000001</v>
+      </c>
+      <c r="AA3" s="94">
+        <f>($C3-AB3)/($C3)</f>
+        <v>0.77033195020746892</v>
+      </c>
+      <c r="AB3" s="38">
+        <v>5.5350000000000001</v>
+      </c>
+      <c r="AC3" s="94">
+        <f>($C3-AD3)/($C3)</f>
+        <v>0.75546058091286306</v>
+      </c>
+      <c r="AD3" s="38">
+        <v>5.8933999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>20.5</v>
+      </c>
+      <c r="D4" s="94">
+        <f t="shared" ref="D4:D9" si="1">($C4-E4)/($C4)</f>
+        <v>0.16803902439024393</v>
+      </c>
+      <c r="E4" s="38">
+        <v>17.055199999999999</v>
+      </c>
+      <c r="F4" s="94">
+        <f t="shared" si="0"/>
+        <v>0.15304390243902435</v>
+      </c>
+      <c r="G4" s="38">
+        <v>17.3626</v>
+      </c>
+      <c r="H4" s="94">
+        <f t="shared" ref="H4" si="2">($C4-I4)/($C4)</f>
+        <v>0.1854243902439025</v>
+      </c>
+      <c r="I4" s="38">
+        <v>16.698799999999999</v>
+      </c>
+      <c r="J4" s="94">
+        <f t="shared" ref="J4" si="3">($C4-K4)/($C4)</f>
+        <v>0.48292682926829272</v>
+      </c>
+      <c r="K4" s="15">
+        <v>10.6</v>
+      </c>
+      <c r="L4" s="94">
+        <f t="shared" ref="L4" si="4">($C4-M4)/($C4)</f>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="M4" s="15">
+        <v>11</v>
+      </c>
+      <c r="N4" s="94">
+        <f t="shared" ref="N4" si="5">($C4-O4)/($C4)</f>
+        <v>0.49268292682926829</v>
+      </c>
+      <c r="O4" s="15">
+        <v>10.4</v>
+      </c>
+      <c r="P4" s="94">
+        <f t="shared" ref="P4" si="6">($C4-Q4)/($C4)</f>
+        <v>0.80280975609756089</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>4.0423999999999998</v>
+      </c>
+      <c r="R4" s="94">
+        <f t="shared" ref="R4" si="7">($C4-S4)/($C4)</f>
+        <v>0.80640975609756105</v>
+      </c>
+      <c r="S4" s="38">
+        <v>3.9685999999999999</v>
+      </c>
+      <c r="T4" s="94">
+        <f t="shared" ref="T4" si="8">($C4-U4)/($C4)</f>
+        <v>0.79740487804878057</v>
+      </c>
+      <c r="U4" s="38">
+        <v>4.1532</v>
+      </c>
+      <c r="W4" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="15">
+        <v>20.5</v>
+      </c>
+      <c r="Y4" s="94">
+        <f t="shared" ref="Y4:Y9" si="9">($C4-Z4)/($C4)</f>
+        <v>0.80280975609756089</v>
+      </c>
+      <c r="Z4" s="38">
+        <v>4.0423999999999998</v>
+      </c>
+      <c r="AA4" s="94">
+        <f t="shared" ref="AA4:AA9" si="10">($C4-AB4)/($C4)</f>
+        <v>0.80640975609756105</v>
+      </c>
+      <c r="AB4" s="38">
+        <v>3.9685999999999999</v>
+      </c>
+      <c r="AC4" s="94">
+        <f t="shared" ref="AC4:AC9" si="11">($C4-AD4)/($C4)</f>
+        <v>0.79740487804878057</v>
+      </c>
+      <c r="AD4" s="38">
+        <v>4.1532</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="D5" s="94">
+        <f t="shared" si="1"/>
+        <v>0.15491414141414139</v>
+      </c>
+      <c r="E5" s="38">
+        <v>16.732700000000001</v>
+      </c>
+      <c r="F5" s="94">
+        <f t="shared" si="0"/>
+        <v>0.14957575757575761</v>
+      </c>
+      <c r="G5" s="38">
+        <v>16.8384</v>
+      </c>
+      <c r="H5" s="94">
+        <f t="shared" ref="H5" si="12">($C5-I5)/($C5)</f>
+        <v>0.18674242424242432</v>
+      </c>
+      <c r="I5" s="38">
+        <v>16.102499999999999</v>
+      </c>
+      <c r="J5" s="94">
+        <f t="shared" ref="J5" si="13">($C5-K5)/($C5)</f>
+        <v>0.4494949494949495</v>
+      </c>
+      <c r="K5" s="15">
+        <v>10.9</v>
+      </c>
+      <c r="L5" s="94">
+        <f t="shared" ref="L5" si="14">($C5-M5)/($C5)</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="M5" s="15">
+        <v>11</v>
+      </c>
+      <c r="N5" s="94">
+        <f t="shared" ref="N5" si="15">($C5-O5)/($C5)</f>
+        <v>0.45959595959595967</v>
+      </c>
+      <c r="O5" s="15">
+        <v>10.7</v>
+      </c>
+      <c r="P5" s="94">
+        <f t="shared" ref="P5" si="16">($C5-Q5)/($C5)</f>
+        <v>0.74069191919191923</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>5.1342999999999996</v>
+      </c>
+      <c r="R5" s="94">
+        <f t="shared" ref="R5" si="17">($C5-S5)/($C5)</f>
+        <v>0.7591919191919192</v>
+      </c>
+      <c r="S5" s="38">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="T5" s="94">
+        <f t="shared" ref="T5" si="18">($C5-U5)/($C5)</f>
+        <v>0.74642424242424232</v>
+      </c>
+      <c r="U5" s="38">
+        <v>5.0208000000000004</v>
+      </c>
+      <c r="W5" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="Y5" s="94">
+        <f t="shared" si="9"/>
+        <v>0.74069191919191923</v>
+      </c>
+      <c r="Z5" s="38">
+        <v>5.1342999999999996</v>
+      </c>
+      <c r="AA5" s="94">
+        <f t="shared" si="10"/>
+        <v>0.7591919191919192</v>
+      </c>
+      <c r="AB5" s="38">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="AC5" s="94">
+        <f t="shared" si="11"/>
+        <v>0.74642424242424232</v>
+      </c>
+      <c r="AD5" s="38">
+        <v>5.0208000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>26.9</v>
+      </c>
+      <c r="D6" s="94">
+        <f t="shared" si="1"/>
+        <v>0.10940148698884752</v>
+      </c>
+      <c r="E6" s="39">
+        <v>23.957100000000001</v>
+      </c>
+      <c r="F6" s="94">
+        <f t="shared" si="0"/>
+        <v>9.6237918215613352E-2</v>
+      </c>
+      <c r="G6" s="39">
+        <v>24.311199999999999</v>
+      </c>
+      <c r="H6" s="94">
+        <f t="shared" ref="H6" si="19">($C6-I6)/($C6)</f>
+        <v>0.13754646840148696</v>
+      </c>
+      <c r="I6" s="38">
+        <v>23.2</v>
+      </c>
+      <c r="J6" s="94">
+        <f t="shared" ref="J6" si="20">($C6-K6)/($C6)</f>
+        <v>0.36059479553903345</v>
+      </c>
+      <c r="K6" s="15">
+        <v>17.2</v>
+      </c>
+      <c r="L6" s="94">
+        <f t="shared" ref="L6" si="21">($C6-M6)/($C6)</f>
+        <v>0.34572490706319692</v>
+      </c>
+      <c r="M6" s="15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N6" s="94">
+        <f t="shared" ref="N6" si="22">($C6-O6)/($C6)</f>
+        <v>0.39033457249070636</v>
+      </c>
+      <c r="O6" s="15">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="P6" s="94">
+        <f t="shared" ref="P6" si="23">($C6-Q6)/($C6)</f>
+        <v>0.72520446096654279</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="R6" s="94">
+        <f t="shared" ref="R6" si="24">($C6-S6)/($C6)</f>
+        <v>0.70947211895910778</v>
+      </c>
+      <c r="S6" s="38">
+        <v>7.8151999999999999</v>
+      </c>
+      <c r="T6" s="94">
+        <f t="shared" ref="T6" si="25">($C6-U6)/($C6)</f>
+        <v>0.69516728624535318</v>
+      </c>
+      <c r="U6" s="38">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="W6" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="15">
+        <v>26.9</v>
+      </c>
+      <c r="Y6" s="94">
+        <f t="shared" si="9"/>
+        <v>0.72520446096654279</v>
+      </c>
+      <c r="Z6" s="39">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="AA6" s="94">
+        <f t="shared" si="10"/>
+        <v>0.70947211895910778</v>
+      </c>
+      <c r="AB6" s="38">
+        <v>7.8151999999999999</v>
+      </c>
+      <c r="AC6" s="94">
+        <f t="shared" si="11"/>
+        <v>0.69516728624535318</v>
+      </c>
+      <c r="AD6" s="38">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D7" s="94">
+        <f t="shared" si="1"/>
+        <v>0.1215469613259669</v>
+      </c>
+      <c r="E7" s="38">
+        <v>15.9</v>
+      </c>
+      <c r="F7" s="94">
+        <f t="shared" si="0"/>
+        <v>9.9220994475138283E-2</v>
+      </c>
+      <c r="G7" s="38">
+        <v>16.304099999999998</v>
+      </c>
+      <c r="H7" s="94">
+        <f t="shared" ref="H7" si="26">($C7-I7)/($C7)</f>
+        <v>0.15933149171270719</v>
+      </c>
+      <c r="I7" s="38">
+        <v>15.216100000000001</v>
+      </c>
+      <c r="J7" s="94">
+        <f t="shared" ref="J7" si="27">($C7-K7)/($C7)</f>
+        <v>0.38674033149171277</v>
+      </c>
+      <c r="K7" s="15">
+        <v>11.1</v>
+      </c>
+      <c r="L7" s="94">
+        <f t="shared" ref="L7" si="28">($C7-M7)/($C7)</f>
+        <v>0.3591160220994476</v>
+      </c>
+      <c r="M7" s="15">
+        <v>11.6</v>
+      </c>
+      <c r="N7" s="94">
+        <f t="shared" ref="N7" si="29">($C7-O7)/($C7)</f>
+        <v>0.40883977900552493</v>
+      </c>
+      <c r="O7" s="15">
+        <v>10.7</v>
+      </c>
+      <c r="P7" s="94">
+        <f t="shared" ref="P7" si="30">($C7-Q7)/($C7)</f>
+        <v>0.73480662983425415</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="R7" s="94">
+        <f t="shared" ref="R7" si="31">($C7-S7)/($C7)</f>
+        <v>0.71557458563535914</v>
+      </c>
+      <c r="S7" s="38">
+        <v>5.1481000000000003</v>
+      </c>
+      <c r="T7" s="94">
+        <f t="shared" ref="T7" si="32">($C7-U7)/($C7)</f>
+        <v>0.7103093922651933</v>
+      </c>
+      <c r="U7" s="38">
+        <v>5.2434000000000003</v>
+      </c>
+      <c r="W7" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="X7" s="15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Y7" s="94">
+        <f t="shared" si="9"/>
+        <v>0.73480662983425415</v>
+      </c>
+      <c r="Z7" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="AA7" s="94">
+        <f t="shared" si="10"/>
+        <v>0.71557458563535914</v>
+      </c>
+      <c r="AB7" s="38">
+        <v>5.1481000000000003</v>
+      </c>
+      <c r="AC7" s="94">
+        <f t="shared" si="11"/>
+        <v>0.7103093922651933</v>
+      </c>
+      <c r="AD7" s="38">
+        <v>5.2434000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15">
+        <v>18.7</v>
+      </c>
+      <c r="D8" s="94">
+        <f t="shared" si="1"/>
+        <v>0.15702139037433152</v>
+      </c>
+      <c r="E8" s="38">
+        <v>15.7637</v>
+      </c>
+      <c r="F8" s="94">
+        <f t="shared" si="0"/>
+        <v>0.13209090909090901</v>
+      </c>
+      <c r="G8" s="38">
+        <v>16.229900000000001</v>
+      </c>
+      <c r="H8" s="94">
+        <f t="shared" ref="H8" si="33">($C8-I8)/($C8)</f>
+        <v>0.17744385026737963</v>
+      </c>
+      <c r="I8" s="38">
+        <v>15.3818</v>
+      </c>
+      <c r="J8" s="94">
+        <f t="shared" ref="J8" si="34">($C8-K8)/($C8)</f>
+        <v>0.43315508021390375</v>
+      </c>
+      <c r="K8" s="15">
+        <v>10.6</v>
+      </c>
+      <c r="L8" s="94">
+        <f t="shared" ref="L8" si="35">($C8-M8)/($C8)</f>
+        <v>0.40106951871657753</v>
+      </c>
+      <c r="M8" s="15">
+        <v>11.2</v>
+      </c>
+      <c r="N8" s="94">
+        <f t="shared" ref="N8" si="36">($C8-O8)/($C8)</f>
+        <v>0.44919786096256681</v>
+      </c>
+      <c r="O8" s="15">
+        <v>10.3</v>
+      </c>
+      <c r="P8" s="94">
+        <f t="shared" ref="P8" si="37">($C8-Q8)/($C8)</f>
+        <v>0.75935828877005351</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="R8" s="94">
+        <f t="shared" ref="R8" si="38">($C8-S8)/($C8)</f>
+        <v>0.74074866310160437</v>
+      </c>
+      <c r="S8" s="38">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="T8" s="94">
+        <f t="shared" ref="T8" si="39">($C8-U8)/($C8)</f>
+        <v>0.71554010695187165</v>
+      </c>
+      <c r="U8" s="38">
+        <v>5.3193999999999999</v>
+      </c>
+      <c r="W8" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="15">
+        <v>18.7</v>
+      </c>
+      <c r="Y8" s="94">
+        <f t="shared" si="9"/>
+        <v>0.75935828877005351</v>
+      </c>
+      <c r="Z8" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="AA8" s="94">
+        <f t="shared" si="10"/>
+        <v>0.74074866310160437</v>
+      </c>
+      <c r="AB8" s="38">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="AC8" s="94">
+        <f t="shared" si="11"/>
+        <v>0.71554010695187165</v>
+      </c>
+      <c r="AD8" s="38">
+        <v>5.3193999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="29">
+        <v>19.2</v>
+      </c>
+      <c r="D9" s="108">
+        <f t="shared" si="1"/>
+        <v>0.20634374999999994</v>
+      </c>
+      <c r="E9" s="109">
+        <v>15.238200000000001</v>
+      </c>
+      <c r="F9" s="108">
+        <f t="shared" si="0"/>
+        <v>0.17616666666666661</v>
+      </c>
+      <c r="G9" s="109">
+        <v>15.817600000000001</v>
+      </c>
+      <c r="H9" s="108">
+        <f t="shared" ref="H9" si="40">($C9-I9)/($C9)</f>
+        <v>0.218296875</v>
+      </c>
+      <c r="I9" s="110">
+        <v>15.008699999999999</v>
+      </c>
+      <c r="J9" s="108">
+        <f t="shared" ref="J9" si="41">($C9-K9)/($C9)</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K9" s="30">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L9" s="108">
+        <f t="shared" ref="L9" si="42">($C9-M9)/($C9)</f>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="M9" s="30">
+        <v>9.4</v>
+      </c>
+      <c r="N9" s="108">
+        <f t="shared" ref="N9" si="43">($C9-O9)/($C9)</f>
+        <v>0.53125</v>
+      </c>
+      <c r="O9" s="29">
+        <v>9</v>
+      </c>
+      <c r="P9" s="108">
+        <f t="shared" ref="P9" si="44">($C9-Q9)/($C9)</f>
+        <v>0.8363124999999999</v>
+      </c>
+      <c r="Q9" s="109">
+        <v>3.1427999999999998</v>
+      </c>
+      <c r="R9" s="108">
+        <f t="shared" ref="R9" si="45">($C9-S9)/($C9)</f>
+        <v>0.83259895833333331</v>
+      </c>
+      <c r="S9" s="109">
+        <v>3.2141000000000002</v>
+      </c>
+      <c r="T9" s="108">
+        <f t="shared" ref="T9" si="46">($C9-U9)/($C9)</f>
+        <v>0.82095312500000006</v>
+      </c>
+      <c r="U9" s="110">
+        <v>3.4377</v>
+      </c>
+      <c r="W9" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="15">
+        <v>19.2</v>
+      </c>
+      <c r="Y9" s="94">
+        <f t="shared" si="9"/>
+        <v>0.8363124999999999</v>
+      </c>
+      <c r="Z9" s="38">
+        <v>3.1427999999999998</v>
+      </c>
+      <c r="AA9" s="94">
+        <f t="shared" si="10"/>
+        <v>0.83259895833333331</v>
+      </c>
+      <c r="AB9" s="38">
+        <v>3.2141000000000002</v>
+      </c>
+      <c r="AC9" s="94">
+        <f t="shared" si="11"/>
+        <v>0.82095312500000006</v>
+      </c>
+      <c r="AD9" s="38">
+        <v>3.4377</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="112">
+        <f>AVERAGE(C3:C9)</f>
+        <v>21.042857142857141</v>
+      </c>
+      <c r="D10" s="113">
+        <f>AVERAGE(D3:D9)</f>
+        <v>0.15250165253879139</v>
+      </c>
+      <c r="E10" s="114">
+        <f>AVERAGE(E3:E9)</f>
+        <v>17.875142857142858</v>
+      </c>
+      <c r="F10" s="113">
+        <f>AVERAGE(F3:F9)</f>
+        <v>0.13376112138684609</v>
+      </c>
+      <c r="G10" s="114">
+        <f>AVERAGE(G3:G9)</f>
+        <v>18.261571428571429</v>
+      </c>
+      <c r="H10" s="113">
+        <f>AVERAGE(H3:H9)</f>
+        <v>0.17656212535160881</v>
+      </c>
+      <c r="I10" s="114">
+        <f>AVERAGE(I3:I9)</f>
+        <v>17.369028571428569</v>
+      </c>
+      <c r="J10" s="113">
+        <f>AVERAGE(J3:J9)</f>
+        <v>0.4373044587796297</v>
+      </c>
+      <c r="K10" s="114">
+        <f>AVERAGE(K3:K9)</f>
+        <v>11.914285714285715</v>
+      </c>
+      <c r="L10" s="113">
+        <f>AVERAGE(L3:L9)</f>
+        <v>0.42165315503612238</v>
+      </c>
+      <c r="M10" s="114">
+        <f>AVERAGE(M3:M9)</f>
+        <v>12.22857142857143</v>
+      </c>
+      <c r="N10" s="113">
+        <f>AVERAGE(N3:N9)</f>
+        <v>0.45429055413814484</v>
+      </c>
+      <c r="O10" s="114">
+        <f>AVERAGE(O3:O9)</f>
+        <v>11.542857142857143</v>
+      </c>
+      <c r="P10" s="113">
+        <f>AVERAGE(P3:P9)</f>
+        <v>0.76645005140565481</v>
+      </c>
+      <c r="Q10" s="114">
+        <f>AVERAGE(Q3:Q9)</f>
+        <v>4.9502428571428565</v>
+      </c>
+      <c r="R10" s="113">
+        <f>AVERAGE(R3:R9)</f>
+        <v>0.76204685021805052</v>
+      </c>
+      <c r="S10" s="114">
+        <f>AVERAGE(S3:S9)</f>
+        <v>5.0424285714285721</v>
+      </c>
+      <c r="T10" s="113">
+        <f>AVERAGE(T3:T9)</f>
+        <v>0.74875137312118623</v>
+      </c>
+      <c r="U10" s="115">
+        <f>AVERAGE(U3:U9)</f>
+        <v>5.3239857142857137</v>
+      </c>
+      <c r="W10" s="116"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="106"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q12" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="S12" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="U12" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z12" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB12" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD12" s="74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15">
+        <v>24.1</v>
+      </c>
+      <c r="D13" s="94">
+        <f>($C13-E13)/($C13)</f>
+        <v>7.8165975103734464E-2</v>
+      </c>
+      <c r="E13" s="38">
+        <v>22.216200000000001</v>
+      </c>
+      <c r="F13" s="94">
+        <f>($C13-G13)/($C13)</f>
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="G13" s="38">
+        <v>22.316600000000001</v>
+      </c>
+      <c r="H13" s="94">
+        <f>($C13-I13)/($C13)</f>
+        <v>0.11942738589211616</v>
+      </c>
+      <c r="I13" s="38">
+        <v>21.221800000000002</v>
+      </c>
+      <c r="J13" s="94">
+        <f>($C13-K13)/($C13)</f>
+        <v>0.1493775933609959</v>
+      </c>
+      <c r="K13" s="15">
+        <v>20.5</v>
+      </c>
+      <c r="L13" s="94">
+        <f>($C13-M13)/($C13)</f>
+        <v>0.14522821576763484</v>
+      </c>
+      <c r="M13" s="15">
+        <v>20.6</v>
+      </c>
+      <c r="N13" s="94">
+        <f>($C13-O13)/($C13)</f>
+        <v>0.21576763485477188</v>
+      </c>
+      <c r="O13" s="15">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P13" s="94">
+        <f>($C13-Q13)/($C13)</f>
+        <v>0.32960995850622404</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>16.156400000000001</v>
+      </c>
+      <c r="R13" s="94">
+        <f>($C13-S13)/($C13)</f>
+        <v>0.32653526970954366</v>
+      </c>
+      <c r="S13" s="38">
+        <v>16.230499999999999</v>
+      </c>
+      <c r="T13" s="94">
+        <f>($C13-U13)/($C13)</f>
+        <v>0.38562655601659757</v>
+      </c>
+      <c r="U13" s="38">
+        <v>14.8064</v>
+      </c>
+      <c r="W13" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="15">
+        <v>24.1</v>
+      </c>
+      <c r="Y13" s="94">
+        <f>($C13-Z13)/($C13)</f>
+        <v>7.8165975103734464E-2</v>
+      </c>
+      <c r="Z13" s="38">
+        <v>22.216200000000001</v>
+      </c>
+      <c r="AA13" s="94">
+        <f>($C13-AB13)/($C13)</f>
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="AB13" s="38">
+        <v>22.316600000000001</v>
+      </c>
+      <c r="AC13" s="94">
+        <f>($C13-AD13)/($C13)</f>
+        <v>0.11942738589211616</v>
+      </c>
+      <c r="AD13" s="38">
+        <v>21.221800000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15">
+        <v>20.5</v>
+      </c>
+      <c r="D14" s="94">
+        <f t="shared" ref="D14" si="47">($C14-E14)/($C14)</f>
+        <v>8.5375609756097537E-2</v>
+      </c>
+      <c r="E14" s="38">
+        <v>18.7498</v>
+      </c>
+      <c r="F14" s="94">
+        <f t="shared" ref="F14" si="48">($C14-G14)/($C14)</f>
+        <v>8.2843902439024369E-2</v>
+      </c>
+      <c r="G14" s="38">
+        <v>18.8017</v>
+      </c>
+      <c r="H14" s="94">
+        <f t="shared" ref="H14" si="49">($C14-I14)/($C14)</f>
+        <v>0.14389268292682925</v>
+      </c>
+      <c r="I14" s="38">
+        <v>17.5502</v>
+      </c>
+      <c r="J14" s="94">
+        <f t="shared" ref="J14" si="50">($C14-K14)/($C14)</f>
+        <v>0.18048780487804875</v>
+      </c>
+      <c r="K14" s="15">
+        <v>16.8</v>
+      </c>
+      <c r="L14" s="94">
+        <f t="shared" ref="L14" si="51">($C14-M14)/($C14)</f>
+        <v>0.17560975609756105</v>
+      </c>
+      <c r="M14" s="15">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N14" s="94">
+        <f t="shared" ref="N14" si="52">($C14-O14)/($C14)</f>
+        <v>0.23902439024390246</v>
+      </c>
+      <c r="O14" s="15">
+        <v>15.6</v>
+      </c>
+      <c r="P14" s="94">
+        <f t="shared" ref="P14" si="53">($C14-Q14)/($C14)</f>
+        <v>0.37370731707317073</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>12.839</v>
+      </c>
+      <c r="R14" s="94">
+        <f t="shared" ref="R14" si="54">($C14-S14)/($C14)</f>
+        <v>0.3638390243902439</v>
+      </c>
+      <c r="S14" s="38">
+        <v>13.0413</v>
+      </c>
+      <c r="T14" s="94">
+        <f t="shared" ref="T14" si="55">($C14-U14)/($C14)</f>
+        <v>0.44087317073170734</v>
+      </c>
+      <c r="U14" s="38">
+        <v>11.4621</v>
+      </c>
+      <c r="W14" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="15">
+        <v>20.5</v>
+      </c>
+      <c r="Y14" s="94">
+        <f t="shared" ref="Y14:Y19" si="56">($C14-Z14)/($C14)</f>
+        <v>8.5375609756097537E-2</v>
+      </c>
+      <c r="Z14" s="38">
+        <v>18.7498</v>
+      </c>
+      <c r="AA14" s="94">
+        <f t="shared" ref="AA14:AA19" si="57">($C14-AB14)/($C14)</f>
+        <v>8.2843902439024369E-2</v>
+      </c>
+      <c r="AB14" s="38">
+        <v>18.8017</v>
+      </c>
+      <c r="AC14" s="94">
+        <f t="shared" ref="AC14:AC19" si="58">($C14-AD14)/($C14)</f>
+        <v>0.14389268292682925</v>
+      </c>
+      <c r="AD14" s="38">
+        <v>17.5502</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="D15" s="94">
+        <f t="shared" ref="D15" si="59">($C15-E15)/($C15)</f>
+        <v>8.1080808080808059E-2</v>
+      </c>
+      <c r="E15" s="38">
+        <v>18.194600000000001</v>
+      </c>
+      <c r="F15" s="94">
+        <f t="shared" ref="F15" si="60">($C15-G15)/($C15)</f>
+        <v>8.8762626262626279E-2</v>
+      </c>
+      <c r="G15" s="38">
+        <v>18.0425</v>
+      </c>
+      <c r="H15" s="94">
+        <f t="shared" ref="H15" si="61">($C15-I15)/($C15)</f>
+        <v>0.13746969696969705</v>
+      </c>
+      <c r="I15" s="38">
+        <v>17.078099999999999</v>
+      </c>
+      <c r="J15" s="94">
+        <f t="shared" ref="J15" si="62">($C15-K15)/($C15)</f>
+        <v>0.16161616161616157</v>
+      </c>
+      <c r="K15" s="15">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L15" s="94">
+        <f t="shared" ref="L15" si="63">($C15-M15)/($C15)</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="M15" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="N15" s="94">
+        <f t="shared" ref="N15" si="64">($C15-O15)/($C15)</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="O15" s="15">
+        <v>15.3</v>
+      </c>
+      <c r="P15" s="94">
+        <f t="shared" ref="P15" si="65">($C15-Q15)/($C15)</f>
+        <v>0.36316161616161613</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>12.609400000000001</v>
+      </c>
+      <c r="R15" s="94">
+        <f t="shared" ref="R15" si="66">($C15-S15)/($C15)</f>
+        <v>0.35580303030303029</v>
+      </c>
+      <c r="S15" s="38">
+        <v>12.755100000000001</v>
+      </c>
+      <c r="T15" s="94">
+        <f t="shared" ref="T15" si="67">($C15-U15)/($C15)</f>
+        <v>0.41767171717171725</v>
+      </c>
+      <c r="U15" s="38">
+        <v>11.530099999999999</v>
+      </c>
+      <c r="W15" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="Y15" s="94">
+        <f t="shared" si="56"/>
+        <v>8.1080808080808059E-2</v>
+      </c>
+      <c r="Z15" s="38">
+        <v>18.194600000000001</v>
+      </c>
+      <c r="AA15" s="94">
+        <f t="shared" si="57"/>
+        <v>8.8762626262626279E-2</v>
+      </c>
+      <c r="AB15" s="38">
+        <v>18.0425</v>
+      </c>
+      <c r="AC15" s="94">
+        <f t="shared" si="58"/>
+        <v>0.13746969696969705</v>
+      </c>
+      <c r="AD15" s="38">
+        <v>17.078099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>26.9</v>
+      </c>
+      <c r="D16" s="94">
+        <f t="shared" ref="D16" si="68">($C16-E16)/($C16)</f>
+        <v>4.2847583643122668E-2</v>
+      </c>
+      <c r="E16" s="39">
+        <v>25.747399999999999</v>
+      </c>
+      <c r="F16" s="94">
+        <f t="shared" ref="F16" si="69">($C16-G16)/($C16)</f>
+        <v>3.7144981412639347E-2</v>
+      </c>
+      <c r="G16" s="38">
+        <v>25.9008</v>
+      </c>
+      <c r="H16" s="94">
+        <f t="shared" ref="H16" si="70">($C16-I16)/($C16)</f>
+        <v>8.1784386617100344E-2</v>
+      </c>
+      <c r="I16" s="38">
+        <v>24.7</v>
+      </c>
+      <c r="J16" s="94">
+        <f t="shared" ref="J16" si="71">($C16-K16)/($C16)</f>
+        <v>0.10780669144981408</v>
+      </c>
+      <c r="K16" s="15">
+        <v>24</v>
+      </c>
+      <c r="L16" s="94">
+        <f t="shared" ref="L16" si="72">($C16-M16)/($C16)</f>
+        <v>0.10037174721189589</v>
+      </c>
+      <c r="M16" s="15">
+        <v>24.2</v>
+      </c>
+      <c r="N16" s="94">
+        <f t="shared" ref="N16" si="73">($C16-O16)/($C16)</f>
+        <v>0.15985130111524154</v>
+      </c>
+      <c r="O16" s="15">
+        <v>22.6</v>
+      </c>
+      <c r="P16" s="94">
+        <f t="shared" ref="P16" si="74">($C16-Q16)/($C16)</f>
+        <v>0.26012639405204457</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>19.9026</v>
+      </c>
+      <c r="R16" s="94">
+        <f t="shared" ref="R16" si="75">($C16-S16)/($C16)</f>
+        <v>0.25261412639405206</v>
+      </c>
+      <c r="S16" s="38">
+        <v>20.104679999999998</v>
+      </c>
+      <c r="T16" s="94">
+        <f t="shared" ref="T16" si="76">($C16-U16)/($C16)</f>
+        <v>0.33457249070631973</v>
+      </c>
+      <c r="U16" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W16" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="15">
+        <v>26.9</v>
+      </c>
+      <c r="Y16" s="94">
+        <f t="shared" si="56"/>
+        <v>4.2847583643122668E-2</v>
+      </c>
+      <c r="Z16" s="39">
+        <v>25.747399999999999</v>
+      </c>
+      <c r="AA16" s="94">
+        <f t="shared" si="57"/>
+        <v>3.7144981412639347E-2</v>
+      </c>
+      <c r="AB16" s="38">
+        <v>25.9008</v>
+      </c>
+      <c r="AC16" s="94">
+        <f t="shared" si="58"/>
+        <v>8.1784386617100344E-2</v>
+      </c>
+      <c r="AD16" s="38">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D17" s="94">
+        <f t="shared" ref="D17" si="77">($C17-E17)/($C17)</f>
+        <v>3.8674033149171422E-2</v>
+      </c>
+      <c r="E17" s="39">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F17" s="94">
+        <f t="shared" ref="F17" si="78">($C17-G17)/($C17)</f>
+        <v>3.1331491712707174E-2</v>
+      </c>
+      <c r="G17" s="38">
+        <v>17.532900000000001</v>
+      </c>
+      <c r="H17" s="94">
+        <f t="shared" ref="H17" si="79">($C17-I17)/($C17)</f>
+        <v>8.8480662983425495E-2</v>
+      </c>
+      <c r="I17" s="38">
+        <v>16.4985</v>
+      </c>
+      <c r="J17" s="94">
+        <f t="shared" ref="J17" si="80">($C17-K17)/($C17)</f>
+        <v>9.9447513812154734E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <v>16.3</v>
+      </c>
+      <c r="L17" s="94">
+        <f t="shared" ref="L17" si="81">($C17-M17)/($C17)</f>
+        <v>9.9447513812154734E-2</v>
+      </c>
+      <c r="M17" s="15">
+        <v>16.3</v>
+      </c>
+      <c r="N17" s="94">
+        <f t="shared" ref="N17" si="82">($C17-O17)/($C17)</f>
+        <v>0.17127071823204426</v>
+      </c>
+      <c r="O17" s="15">
+        <v>15</v>
+      </c>
+      <c r="P17" s="94">
+        <f t="shared" ref="P17" si="83">($C17-Q17)/($C17)</f>
+        <v>0.25966850828729288</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>13.4</v>
+      </c>
+      <c r="R17" s="94">
+        <f t="shared" ref="R17" si="84">($C17-S17)/($C17)</f>
+        <v>0.25132044198895032</v>
+      </c>
+      <c r="S17" s="38">
+        <v>13.5511</v>
+      </c>
+      <c r="T17" s="94">
+        <f t="shared" ref="T17" si="85">($C17-U17)/($C17)</f>
+        <v>0.34106077348066305</v>
+      </c>
+      <c r="U17" s="38">
+        <v>11.9268</v>
+      </c>
+      <c r="W17" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="X17" s="15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Y17" s="94">
+        <f t="shared" si="56"/>
+        <v>3.8674033149171422E-2</v>
+      </c>
+      <c r="Z17" s="39">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AA17" s="94">
+        <f t="shared" si="57"/>
+        <v>3.1331491712707174E-2</v>
+      </c>
+      <c r="AB17" s="38">
+        <v>17.532900000000001</v>
+      </c>
+      <c r="AC17" s="94">
+        <f t="shared" si="58"/>
+        <v>8.8480662983425495E-2</v>
+      </c>
+      <c r="AD17" s="38">
+        <v>16.4985</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="15">
+        <v>18.7</v>
+      </c>
+      <c r="D18" s="94">
+        <f t="shared" ref="D18" si="86">($C18-E18)/($C18)</f>
+        <v>6.4475935828877021E-2</v>
+      </c>
+      <c r="E18" s="38">
+        <v>17.494299999999999</v>
+      </c>
+      <c r="F18" s="94">
+        <f t="shared" ref="F18" si="87">($C18-G18)/($C18)</f>
+        <v>5.3197860962566734E-2</v>
+      </c>
+      <c r="G18" s="38">
+        <v>17.705200000000001</v>
+      </c>
+      <c r="H18" s="94">
+        <f t="shared" ref="H18" si="88">($C18-I18)/($C18)</f>
+        <v>0.11579679144385017</v>
+      </c>
+      <c r="I18" s="38">
+        <v>16.534600000000001</v>
+      </c>
+      <c r="J18" s="94">
+        <f t="shared" ref="J18" si="89">($C18-K18)/($C18)</f>
+        <v>0.14973262032085558</v>
+      </c>
+      <c r="K18" s="15">
+        <v>15.9</v>
+      </c>
+      <c r="L18" s="94">
+        <f t="shared" ref="L18" si="90">($C18-M18)/($C18)</f>
+        <v>0.14438502673796788</v>
+      </c>
+      <c r="M18" s="15">
+        <v>16</v>
+      </c>
+      <c r="N18" s="94">
+        <f t="shared" ref="N18" si="91">($C18-O18)/($C18)</f>
+        <v>0.21925133689839571</v>
+      </c>
+      <c r="O18" s="15">
+        <v>14.6</v>
+      </c>
+      <c r="P18" s="94">
+        <f t="shared" ref="P18" si="92">($C18-Q18)/($C18)</f>
+        <v>0.32922459893048128</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>12.5435</v>
+      </c>
+      <c r="R18" s="94">
+        <f t="shared" ref="R18" si="93">($C18-S18)/($C18)</f>
+        <v>0.31319251336898396</v>
+      </c>
+      <c r="S18" s="38">
+        <v>12.843299999999999</v>
+      </c>
+      <c r="T18" s="94">
+        <f t="shared" ref="T18" si="94">($C18-U18)/($C18)</f>
+        <v>0.4148609625668449</v>
+      </c>
+      <c r="U18" s="38">
+        <v>10.9421</v>
+      </c>
+      <c r="W18" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="X18" s="15">
+        <v>18.7</v>
+      </c>
+      <c r="Y18" s="94">
+        <f t="shared" si="56"/>
+        <v>6.4475935828877021E-2</v>
+      </c>
+      <c r="Z18" s="38">
+        <v>17.494299999999999</v>
+      </c>
+      <c r="AA18" s="94">
+        <f t="shared" si="57"/>
+        <v>5.3197860962566734E-2</v>
+      </c>
+      <c r="AB18" s="38">
+        <v>17.705200000000001</v>
+      </c>
+      <c r="AC18" s="94">
+        <f t="shared" si="58"/>
+        <v>0.11579679144385017</v>
+      </c>
+      <c r="AD18" s="38">
+        <v>16.534600000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="15">
+        <v>19.2</v>
+      </c>
+      <c r="D19" s="94">
+        <f t="shared" ref="D19" si="95">($C19-E19)/($C19)</f>
+        <v>0.10123958333333331</v>
+      </c>
+      <c r="E19" s="71">
+        <v>17.2562</v>
+      </c>
+      <c r="F19" s="94">
+        <f t="shared" ref="F19" si="96">($C19-G19)/($C19)</f>
+        <v>9.4458333333333394E-2</v>
+      </c>
+      <c r="G19" s="71">
+        <v>17.386399999999998</v>
+      </c>
+      <c r="H19" s="94">
+        <f t="shared" ref="H19" si="97">($C19-I19)/($C19)</f>
+        <v>0.16674999999999995</v>
+      </c>
+      <c r="I19" s="71">
+        <v>15.9984</v>
+      </c>
+      <c r="J19" s="94">
+        <f t="shared" ref="J19" si="98">($C19-K19)/($C19)</f>
+        <v>0.20312499999999994</v>
+      </c>
+      <c r="K19" s="27">
+        <v>15.3</v>
+      </c>
+      <c r="L19" s="94">
+        <f t="shared" ref="L19" si="99">($C19-M19)/($C19)</f>
+        <v>0.19791666666666663</v>
+      </c>
+      <c r="M19" s="27">
+        <v>15.4</v>
+      </c>
+      <c r="N19" s="94">
+        <f t="shared" ref="N19" si="100">($C19-O19)/($C19)</f>
+        <v>0.28124999999999994</v>
+      </c>
+      <c r="O19" s="27">
+        <v>13.8</v>
+      </c>
+      <c r="P19" s="94">
+        <f t="shared" ref="P19" si="101">($C19-Q19)/($C19)</f>
+        <v>0.4186822916666666</v>
+      </c>
+      <c r="Q19" s="71">
+        <v>11.161300000000001</v>
+      </c>
+      <c r="R19" s="94">
+        <f t="shared" ref="R19" si="102">($C19-S19)/($C19)</f>
+        <v>0.40582291666666659</v>
+      </c>
+      <c r="S19" s="71">
+        <v>11.408200000000001</v>
+      </c>
+      <c r="T19" s="94">
+        <f>($C19-U19)/($C19)</f>
+        <v>0.48615104166666667</v>
+      </c>
+      <c r="U19" s="38">
+        <v>9.8658999999999999</v>
+      </c>
+      <c r="W19" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" s="15">
+        <v>19.2</v>
+      </c>
+      <c r="Y19" s="94">
+        <f t="shared" si="56"/>
+        <v>0.10123958333333331</v>
+      </c>
+      <c r="Z19" s="71">
+        <v>17.2562</v>
+      </c>
+      <c r="AA19" s="94">
+        <f t="shared" si="57"/>
+        <v>9.4458333333333394E-2</v>
+      </c>
+      <c r="AB19" s="71">
+        <v>17.386399999999998</v>
+      </c>
+      <c r="AC19" s="94">
+        <f t="shared" si="58"/>
+        <v>0.16674999999999995</v>
+      </c>
+      <c r="AD19" s="38">
+        <v>15.9984</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="112">
+        <f>AVERAGE(C13:C19)</f>
+        <v>21.042857142857141</v>
+      </c>
+      <c r="D20" s="113">
+        <f>AVERAGE(D13:D19)</f>
+        <v>7.0265646985020636E-2</v>
+      </c>
+      <c r="E20" s="114">
+        <f>AVERAGE(E13:E19)</f>
+        <v>19.579785714285713</v>
+      </c>
+      <c r="F20" s="113">
+        <f>AVERAGE(F13:F19)</f>
+        <v>6.5962742303271038E-2</v>
+      </c>
+      <c r="G20" s="114">
+        <f>AVERAGE(G13:G19)</f>
+        <v>19.669442857142858</v>
+      </c>
+      <c r="H20" s="113">
+        <f>AVERAGE(H13:H19)</f>
+        <v>0.1219430866904312</v>
+      </c>
+      <c r="I20" s="114">
+        <f>AVERAGE(I13:I19)</f>
+        <v>18.511657142857139</v>
+      </c>
+      <c r="J20" s="113">
+        <f>AVERAGE(J13:J19)</f>
+        <v>0.15022762649114724</v>
+      </c>
+      <c r="K20" s="114">
+        <f>AVERAGE(K13:K19)</f>
+        <v>17.914285714285715</v>
+      </c>
+      <c r="L20" s="113">
+        <f>AVERAGE(L13:L19)</f>
+        <v>0.14708937042293538</v>
+      </c>
+      <c r="M20" s="114">
+        <f>AVERAGE(M13:M19)</f>
+        <v>17.985714285714288</v>
+      </c>
+      <c r="N20" s="113">
+        <f>AVERAGE(N13:N19)</f>
+        <v>0.21624115837386904</v>
+      </c>
+      <c r="O20" s="114">
+        <f>AVERAGE(O13:O19)</f>
+        <v>16.542857142857141</v>
+      </c>
+      <c r="P20" s="113">
+        <f>AVERAGE(P13:P19)</f>
+        <v>0.33345438352535656</v>
+      </c>
+      <c r="Q20" s="114">
+        <f>AVERAGE(Q13:Q19)</f>
+        <v>14.087457142857144</v>
+      </c>
+      <c r="R20" s="113">
+        <f>AVERAGE(R13:R19)</f>
+        <v>0.32416104611735291</v>
+      </c>
+      <c r="S20" s="114">
+        <f>AVERAGE(S13:S19)</f>
+        <v>14.276311428571429</v>
+      </c>
+      <c r="T20" s="113">
+        <f>AVERAGE(T13:T19)</f>
+        <v>0.40297381604864524</v>
+      </c>
+      <c r="U20" s="115">
+        <f>AVERAGE(U13:U19)</f>
+        <v>12.633342857142855</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F13:F19">
+    <cfRule type="expression" dxfId="99" priority="143">
+      <formula>F13=MIN(F$13:F$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="145">
+      <formula>F13=MAX(F$13:F$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D19">
+    <cfRule type="expression" dxfId="97" priority="141">
+      <formula>D13=MIN(D$13:D$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="142">
+      <formula>D13=MAX(D$13:D$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H19">
+    <cfRule type="expression" dxfId="95" priority="139">
+      <formula>H13=MIN(H$13:H$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="140">
+      <formula>H13=MAX(H$13:H$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J19">
+    <cfRule type="expression" dxfId="93" priority="137">
+      <formula>J13=MIN(J$13:J$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="138">
+      <formula>J13=MAX(J$13:J$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L19">
+    <cfRule type="expression" dxfId="91" priority="135">
+      <formula>L13=MIN(L$13:L$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="136">
+      <formula>L13=MAX(L$13:L$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N19">
+    <cfRule type="expression" dxfId="89" priority="133">
+      <formula>N13=MIN(N$13:N$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="134">
+      <formula>N13=MAX(N$13:N$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P19">
+    <cfRule type="expression" dxfId="87" priority="131">
+      <formula>P13=MIN(P$13:P$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="132">
+      <formula>P13=MAX(P$13:P$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13:R19">
+    <cfRule type="expression" dxfId="85" priority="129">
+      <formula>R13=MIN(R$13:R$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="130">
+      <formula>R13=MAX(R$13:R$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:T19">
+    <cfRule type="expression" dxfId="83" priority="127">
+      <formula>T13=MIN(T$13:T$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="128">
+      <formula>T13=MAX(T$13:T$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D9">
+    <cfRule type="expression" dxfId="81" priority="113">
+      <formula>D3=MIN(D$3:D$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="114">
+      <formula>D3=MAX(D$3:D$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="expression" dxfId="79" priority="111">
+      <formula>F3=MIN(F$3:F$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="112">
+      <formula>F3=MAX(F$3:F$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H9">
+    <cfRule type="expression" dxfId="77" priority="109">
+      <formula>H3=MIN(H$3:H$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="110">
+      <formula>H3=MAX(H$3:H$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J9">
+    <cfRule type="expression" dxfId="75" priority="107">
+      <formula>J3=MIN(J$3:J$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="108">
+      <formula>J3=MAX(J$3:J$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L9">
+    <cfRule type="expression" dxfId="73" priority="105">
+      <formula>L3=MIN(L$3:L$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="106">
+      <formula>L3=MAX(L$3:L$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N9">
+    <cfRule type="expression" dxfId="71" priority="103">
+      <formula>N3=MIN(N$3:N$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="104">
+      <formula>N3=MAX(N$3:N$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P9">
+    <cfRule type="expression" dxfId="69" priority="101">
+      <formula>P3=MIN(P$3:P$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="102">
+      <formula>P3=MAX(P$3:P$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R9">
+    <cfRule type="expression" dxfId="67" priority="99">
+      <formula>R3=MIN(R$3:R$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="100">
+      <formula>R3=MAX(R$3:R$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T9">
+    <cfRule type="expression" dxfId="65" priority="97">
+      <formula>T3=MIN(T$3:T$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="98">
+      <formula>T3=MAX(T$3:T$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="expression" dxfId="63" priority="71">
+      <formula>Y10=MIN(Y$3:Y$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="72">
+      <formula>Y10=MAX(Y$3:Y$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="expression" dxfId="61" priority="69">
+      <formula>AA10=MIN(AA$3:AA$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="70">
+      <formula>AA10=MAX(AA$3:AA$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
+    <cfRule type="expression" dxfId="59" priority="67">
+      <formula>AC10=MIN(AC$3:AC$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="68">
+      <formula>AC10=MAX(AC$3:AC$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y9">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>Y3=MIN(Y$3:Y$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>Y3=MAX(Y$3:Y$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AA9">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>AA3=MIN(AA$3:AA$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>AA3=MAX(AA$3:AA$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AC9">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AC3=MIN(AC$3:AC$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>AC3=MAX(AC$3:AC$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13:AA19">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AA13=MIN(AA$13:AA$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AA13=MAX(AA$13:AA$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:Y19">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>Y13=MIN(Y$13:Y$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>Y13=MAX(Y$13:Y$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13:AC19">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AC13=MIN(AC$13:AC$19)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AC13=MAX(AC$13:AC$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61627CFD-57EA-4DDB-9C49-690B172E5E06}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11148,27 +14162,27 @@
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>116</v>
       </c>
@@ -11203,7 +14217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>108</v>
       </c>
@@ -11238,7 +14252,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>108</v>
       </c>
@@ -11273,7 +14287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="78"/>
       <c r="B7" s="78"/>
       <c r="C7" s="75"/>
@@ -11286,7 +14300,7 @@
       <c r="J7" s="81"/>
       <c r="K7" s="75"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="78"/>
       <c r="C8" s="75"/>
@@ -11299,7 +14313,7 @@
       <c r="J8" s="81"/>
       <c r="K8" s="75"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>118</v>
       </c>
@@ -11314,7 +14328,7 @@
       <c r="J9" s="78"/>
       <c r="K9" s="78"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>116</v>
       </c>
@@ -11349,7 +14363,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="70">
         <v>3</v>
       </c>
@@ -11383,8 +14397,16 @@
       <c r="K11" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="95">
+        <f>(SUM(D11:J11))/(COUNT(D11:J11))</f>
+        <v>17.875142857142858</v>
+      </c>
+      <c r="M11" t="b">
+        <f>IF(K11=A11,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>1</v>
       </c>
@@ -11418,8 +14440,16 @@
       <c r="K12" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="95">
+        <f t="shared" ref="L12:L13" si="0">(SUM(D12:J12))/(COUNT(D12:J12))</f>
+        <v>18.261571428571429</v>
+      </c>
+      <c r="M12" t="b">
+        <f>IF(K12=A12,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="70">
         <v>2</v>
       </c>
@@ -11453,8 +14483,16 @@
       <c r="K13" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="95">
+        <f t="shared" si="0"/>
+        <v>17.369028571428569</v>
+      </c>
+      <c r="M13" t="b">
+        <f>IF(K13=A13,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="68"/>
       <c r="C14" s="74"/>
@@ -11467,7 +14505,7 @@
       <c r="J14" s="71"/>
       <c r="K14" s="70"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="70">
         <v>2</v>
       </c>
@@ -11501,8 +14539,16 @@
       <c r="K15" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="95">
+        <f>(SUM(D15:J15))/(COUNT(D15:J15))</f>
+        <v>11.914285714285715</v>
+      </c>
+      <c r="M15" t="b">
+        <f>IF(K15=A15,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>1</v>
       </c>
@@ -11536,8 +14582,16 @@
       <c r="K16" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="95">
+        <f t="shared" ref="L16:L17" si="1">(SUM(D16:J16))/(COUNT(D16:J16))</f>
+        <v>12.22857142857143</v>
+      </c>
+      <c r="M16" t="b">
+        <f>IF(K16=A16,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
         <v>3</v>
       </c>
@@ -11571,12 +14625,20 @@
       <c r="K17" s="72">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="95">
+        <f t="shared" si="1"/>
+        <v>11.542857142857143</v>
+      </c>
+      <c r="M17" t="b">
+        <f>IF(K17=A17,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="K18" s="70"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="70">
         <v>2</v>
       </c>
@@ -11610,8 +14672,16 @@
       <c r="K19" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="95">
+        <f>(SUM(D19:J19))/(COUNT(D19:J19))</f>
+        <v>4.9502428571428565</v>
+      </c>
+      <c r="M19" t="b">
+        <f>IF(K19=A19,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>1</v>
       </c>
@@ -11645,8 +14715,16 @@
       <c r="K20" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="95">
+        <f t="shared" ref="L20:L21" si="2">(SUM(D20:J20))/(COUNT(D20:J20))</f>
+        <v>5.0424285714285721</v>
+      </c>
+      <c r="M20" t="b">
+        <f>IF(K20=A20,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="70">
         <v>3</v>
       </c>
@@ -11680,8 +14758,16 @@
       <c r="K21" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="95">
+        <f t="shared" si="2"/>
+        <v>5.3239857142857137</v>
+      </c>
+      <c r="M21" t="b">
+        <f>IF(K21=A21,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
       <c r="B22" s="76"/>
       <c r="C22" s="75"/>
@@ -11694,7 +14780,7 @@
       <c r="J22" s="77"/>
       <c r="K22" s="77"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="75"/>
       <c r="B23" s="76"/>
       <c r="C23" s="75"/>
@@ -11707,7 +14793,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="77"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>117</v>
       </c>
@@ -11722,7 +14808,7 @@
       <c r="J24" s="78"/>
       <c r="K24" s="78"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>116</v>
       </c>
@@ -11757,7 +14843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>3</v>
       </c>
@@ -11791,8 +14877,16 @@
       <c r="K26" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="95">
+        <f>(SUM(D26:J26))/(COUNT(D26:J26))</f>
+        <v>19.579785714285713</v>
+      </c>
+      <c r="M26" t="b">
+        <f>IF(K26=A26,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="70">
         <v>2</v>
       </c>
@@ -11826,8 +14920,16 @@
       <c r="K27" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="95">
+        <f t="shared" ref="L27:L28" si="3">(SUM(D27:J27))/(COUNT(D27:J27))</f>
+        <v>19.669442857142858</v>
+      </c>
+      <c r="M27" t="b">
+        <f>IF(K27=A27,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>1</v>
       </c>
@@ -11861,8 +14963,16 @@
       <c r="K28" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="95">
+        <f t="shared" si="3"/>
+        <v>18.511657142857139</v>
+      </c>
+      <c r="M28" t="b">
+        <f>IF(K28=A28,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="70"/>
       <c r="B29" s="69"/>
       <c r="C29" s="74"/>
@@ -11875,7 +14985,7 @@
       <c r="J29" s="73"/>
       <c r="K29" s="70"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>3</v>
       </c>
@@ -11909,8 +15019,16 @@
       <c r="K30" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="95">
+        <f>(SUM(D30:J30))/(COUNT(D30:J30))</f>
+        <v>17.914285714285715</v>
+      </c>
+      <c r="M30" t="b">
+        <f>IF(K30=A30,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="70">
         <v>2</v>
       </c>
@@ -11944,8 +15062,16 @@
       <c r="K31" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="95">
+        <f t="shared" ref="L31:L32" si="4">(SUM(D31:J31))/(COUNT(D31:J31))</f>
+        <v>17.985714285714288</v>
+      </c>
+      <c r="M31" t="b">
+        <f>IF(K31=A31,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>1</v>
       </c>
@@ -11979,14 +15105,22 @@
       <c r="K32" s="72">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="95">
+        <f t="shared" si="4"/>
+        <v>16.542857142857141</v>
+      </c>
+      <c r="M32" t="b">
+        <f>IF(K32=A32,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="70"/>
       <c r="B33" s="69"/>
       <c r="C33" s="74"/>
       <c r="K33" s="70"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>3</v>
       </c>
@@ -12020,8 +15154,16 @@
       <c r="K34" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="95">
+        <f>(SUM(D34:J34))/(COUNT(D34:J34))</f>
+        <v>14.087457142857144</v>
+      </c>
+      <c r="M34" t="b">
+        <f>IF(K34=A34,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
         <v>2</v>
       </c>
@@ -12055,8 +15197,16 @@
       <c r="K35" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="95">
+        <f t="shared" ref="L35:L36" si="5">(SUM(D35:J35))/(COUNT(D35:J35))</f>
+        <v>14.276311428571429</v>
+      </c>
+      <c r="M35" t="b">
+        <f>IF(K35=A35,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>1</v>
       </c>
@@ -12090,29 +15240,37 @@
       <c r="K36" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="95">
+        <f t="shared" si="5"/>
+        <v>12.633342857142855</v>
+      </c>
+      <c r="M36" t="b">
+        <f>IF(K36=A36,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="87"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="98"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="84"/>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="89"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="100"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="83"/>
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12122,10 +15280,10 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D26:K28 D30:K32 D34:K36 D11:K13 D15:K17 D19:K21">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>D11=MAX($D11:$J11)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>D11=MIN($D11:$J11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12134,12 +15292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A79AA3-4CCE-409D-A9FF-831D4BDD5DE6}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12157,17 +15315,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="22" t="s">
@@ -12857,10 +16015,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:I9 C11:I13 C27:I29 C23:I25 C19:I21 C15:I17">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>C7=MAX($C7:$I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>C7=MIN($C7:$I7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12869,12 +16027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA134B-6382-4675-9D3B-D18439BEABE0}">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12891,18 +16049,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
@@ -13040,7 +16198,7 @@
         <v>0.42738589211618255</v>
       </c>
       <c r="D7" s="59">
-        <f t="shared" ref="C7:I7" si="1">(D$6-D8)/D$6</f>
+        <f t="shared" ref="D7:I7" si="1">(D$6-D8)/D$6</f>
         <v>0.48292682926829272</v>
       </c>
       <c r="E7" s="59">
@@ -13069,7 +16227,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="94">
+      <c r="A8" s="86">
         <v>24.88289</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -13135,7 +16293,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="94">
+      <c r="A10" s="86">
         <v>27.889510000000001</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -13201,7 +16359,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="94">
+      <c r="A12" s="86">
         <v>24.853814</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -13267,7 +16425,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="94">
+      <c r="A14" s="86">
         <v>27.872768000000001</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -13333,7 +16491,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="94">
+      <c r="A16" s="86">
         <v>25.02739</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -13399,7 +16557,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="94">
+      <c r="A18" s="86">
         <v>27.6897979999999</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -13440,7 +16598,7 @@
         <v>0.16803902439024393</v>
       </c>
       <c r="E19" s="59">
-        <f t="shared" ref="E19:I19" si="7">(E$6-E20)/E$6</f>
+        <f t="shared" ref="E19:H19" si="7">(E$6-E20)/E$6</f>
         <v>0.15491414141414139</v>
       </c>
       <c r="F19" s="59">
@@ -13456,7 +16614,7 @@
         <v>0.15702139037433152</v>
       </c>
       <c r="I19" s="59">
-        <f t="shared" si="7"/>
+        <f>(I$6-I20)/I$6</f>
         <v>0.20634374999999994</v>
       </c>
       <c r="J19" s="59">
@@ -13465,7 +16623,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="94">
+      <c r="A20" s="86">
         <v>28.195789999999999</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -13495,7 +16653,7 @@
       <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="64"/>
       <c r="C21" s="59">
         <f>(C$6-C22)/C$6</f>
@@ -13531,7 +16689,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="94">
+      <c r="A22" s="86">
         <v>20.446567999999999</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -13561,7 +16719,7 @@
       <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="64"/>
       <c r="C23" s="59">
         <f>(C$6-C24)/C$6</f>
@@ -13597,7 +16755,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="94">
+      <c r="A24" s="86">
         <v>29.075797999999899</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -13627,7 +16785,7 @@
       <c r="J24" s="70"/>
     </row>
     <row r="25" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="64"/>
       <c r="C25" s="59">
         <f>(C$6-C26)/C$6</f>
@@ -13663,7 +16821,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="94">
+      <c r="A26" s="86">
         <v>25.1388959999999</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -13693,7 +16851,7 @@
       <c r="J26" s="70"/>
     </row>
     <row r="27" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="64"/>
       <c r="C27" s="59">
         <f>(C$6-C28)/C$6</f>
@@ -13729,7 +16887,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="94">
+      <c r="A28" s="86">
         <v>28.139831999999998</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -13759,7 +16917,7 @@
       <c r="J28" s="70"/>
     </row>
     <row r="29" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="64"/>
       <c r="C29" s="59">
         <f>(C$6-C30)/C$6</f>
@@ -13795,7 +16953,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="94">
+      <c r="A30" s="86">
         <v>20.435661999999901</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -13825,7 +16983,7 @@
       <c r="J30" s="70"/>
     </row>
     <row r="31" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="64"/>
       <c r="C31" s="59">
         <f>(C$6-C32)/C$6</f>
@@ -13861,7 +17019,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="94">
+      <c r="A32" s="86">
         <v>29.071529999999999</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -13891,7 +17049,7 @@
       <c r="J32" s="70"/>
     </row>
     <row r="33" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="64"/>
       <c r="C33" s="59">
         <f>(C$6-C34)/C$6</f>
@@ -13927,7 +17085,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="94">
+      <c r="A34" s="86">
         <v>25.118027999999999</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -13957,7 +17115,7 @@
       <c r="J34" s="70"/>
     </row>
     <row r="35" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="64"/>
       <c r="C35" s="59">
         <f>(C$6-C36)/C$6</f>
@@ -13993,7 +17151,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="94">
+      <c r="A36" s="86">
         <v>28.1811720000001</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -14023,7 +17181,7 @@
       <c r="J36" s="70"/>
     </row>
     <row r="37" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="64"/>
       <c r="C37" s="59">
         <f>(C$6-C38)/C$6</f>
@@ -14059,7 +17217,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="94">
+      <c r="A38" s="86">
         <v>20.62227</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -14089,7 +17247,7 @@
       <c r="J38" s="70"/>
     </row>
     <row r="39" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="64"/>
       <c r="C39" s="59">
         <f>(C$6-C40)/C$6</f>
@@ -14125,7 +17283,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="94">
+      <c r="A40" s="86">
         <v>28.863011999999799</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -14155,7 +17313,7 @@
       <c r="J40" s="70"/>
     </row>
     <row r="41" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
+      <c r="A41" s="87"/>
       <c r="B41" s="64"/>
       <c r="C41" s="59">
         <f>(C$6-C42)/C$6</f>
@@ -14191,7 +17349,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="94">
+      <c r="A42" s="86">
         <v>25.025085999999899</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -14229,12 +17387,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112D7606-9C8B-41DF-A553-5965F3EFCEBB}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14249,16 +17407,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
@@ -14286,7 +17444,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>25</v>
@@ -14550,7 +17708,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>25</v>
@@ -14834,7 +17992,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="G59" s="33" t="s">
         <v>25</v>
@@ -15076,10 +18234,10 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:H11 B62:H67">
-    <cfRule type="expression" dxfId="17" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>B6=MAX($C3:$I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="44">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>B6=MIN($C3:$I3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15094,7 +18252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EA95B5-81FA-4847-8115-7473FD5464FC}">
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -15129,7 +18287,7 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="89" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -15472,7 +18630,7 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="89" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="35" t="s">
@@ -15910,18 +19068,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H15">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>B4=MAX($B4:$H4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>B4=MIN($B4:$H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H29">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>B18=MAX($B18:$H18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>B18=MIN($B18:$H18)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15929,7 +19087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -15950,7 +19108,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -16290,382 +19448,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>B3=MIN($B3:$H3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}">
-  <dimension ref="A2:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C3" s="37">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D3" s="37">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0.24</v>
-      </c>
-      <c r="F3" s="37">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0.159</v>
-      </c>
-      <c r="H3" s="37">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="C4" s="37">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D4" s="37">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G4" s="37">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H4" s="37">
-        <v>0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="37">
-        <v>0.215</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0.248</v>
-      </c>
-      <c r="F5" s="37">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="H5" s="37">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="37">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C6" s="37">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D6" s="37">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="F6" s="37">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G6" s="37">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H6" s="37">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="37">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="C7" s="37">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D7" s="37">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F7" s="37">
-        <v>0.219</v>
-      </c>
-      <c r="G7" s="37">
-        <v>0.222</v>
-      </c>
-      <c r="H7" s="37">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="37">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="C8" s="37">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D8" s="37">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E8" s="37">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0.433</v>
-      </c>
-      <c r="G8" s="37">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="H8" s="37">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="37">
-        <v>0.223</v>
-      </c>
-      <c r="C9" s="37">
-        <v>0.193</v>
-      </c>
-      <c r="D9" s="37">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E9" s="37">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F9" s="37">
-        <v>0.187</v>
-      </c>
-      <c r="G9" s="37">
-        <v>0.182</v>
-      </c>
-      <c r="H9" s="37">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="37">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C10" s="37">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D10" s="37">
-        <v>0.316</v>
-      </c>
-      <c r="E10" s="37">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F10" s="37">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="G10" s="37">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H10" s="37">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="37">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="37">
-        <v>0.34</v>
-      </c>
-      <c r="D11" s="37">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E11" s="37">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="F11" s="37">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="G11" s="37">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="H11" s="37">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="37">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="C12" s="37">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="D12" s="37">
-        <v>0.184</v>
-      </c>
-      <c r="E12" s="37">
-        <v>0.22</v>
-      </c>
-      <c r="F12" s="37">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G12" s="37">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="H12" s="37">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="37">
-        <v>0.495</v>
-      </c>
-      <c r="C13" s="37">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="D13" s="37">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="E13" s="37">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="G13" s="37">
-        <v>0.433</v>
-      </c>
-      <c r="H13" s="37">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="37">
-        <v>0.625</v>
-      </c>
-      <c r="C14" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="37">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="E14" s="37">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="F14" s="37">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="G14" s="37">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="H14" s="37">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}"/>
-  <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>B3=MAX($B3:$H3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_evaluation_results.xlsx
+++ b/model_evaluation_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ville\Projects\adversarial_examples\coco_foolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09873F01-27AC-4CF3-9F6C-B2A4DA3C3C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E026D-59D1-40DA-B3D6-1E4360DDAEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1155" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0F83A952-5D0A-4F73-9DF0-E8AC08021A47}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Models" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="134">
   <si>
     <t>Speed (ms)</t>
   </si>
@@ -553,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +623,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +841,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1072,30 +1078,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,223 +1117,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="2" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="141">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="119">
     <dxf>
       <font>
         <b/>
@@ -1560,6 +1362,62 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7673,6 +7531,72 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kuva 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F13874-047C-4826-BDDB-B717FD19EC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17802225" y="5943600"/>
+          <a:ext cx="4629150" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -7789,7 +7713,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="118">
   <autoFilter ref="A1:E40" xr:uid="{95F11548-CE55-4B25-B70F-47ABD542D7B5}">
     <filterColumn colId="0">
       <customFilters>
@@ -7806,11 +7730,11 @@
     <sortCondition descending="1" ref="C1:C40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="139" dataCellStyle="Hyperlinkki"/>
-    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="135">
+    <tableColumn id="1" xr3:uid="{ECB86F0D-6B18-4C22-87A7-F0D77B47D55E}" name="Model name" dataDxfId="117" dataCellStyle="Hyperlinkki"/>
+    <tableColumn id="2" xr3:uid="{A99350DA-083A-4513-8527-4296FBA0E483}" name="Speed (ms)" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{418D1883-F47D-4D11-9C87-EEA353C6BD08}" name="COCO mAP" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{30ECF217-DB92-4B46-9976-FE2A19361476}" name="Outputs" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{46506287-7B5B-4D0E-BDBA-DED0F4A0C801}" name="Speed in tens" dataDxfId="113">
       <calculatedColumnFormula>ROUND(Taulukko1[[#This Row],[Speed (ms)]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7819,60 +7743,60 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="A32:H40" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}" name="Taulukko3" displayName="Taulukko3" ref="A32:H40" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="A32:H40" xr:uid="{ECD18279-CA8E-4001-8211-01105412E7B3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:H40">
     <sortCondition descending="1" ref="E32:E40"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="130"/>
-    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="127"/>
-    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet V2 320x320" dataDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{9CB7C639-3E20-44FB-A4C1-CD8669DA8372}" name="Dataset" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{2DF27CB9-6640-477C-B79B-AA253DC2E017}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{20B32D42-4532-4384-A2AA-BBD01ADBAB7A}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{3A0372D0-94D2-400E-A9CC-CEB9DE8FD085}" name="CenterNet Resnet50 V2 512x512" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{AF825378-DE0E-429E-AE4A-90DAAAAA6A28}" name="EfficientDet D0 512x512" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{F3573B3D-809A-4910-B618-948775C6FBA7}" name="SSD MobileNet V2 320x320" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{5DA85996-9C2B-4187-BB54-6155E0058111}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{16E46E29-215A-4A8D-B3F3-51293EDBBD61}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B3E452C3-2164-466A-9D0F-8B0E75417263}" name="Taulukko35" displayName="Taulukko35" ref="A3:H11" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122" tableBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B3E452C3-2164-466A-9D0F-8B0E75417263}" name="Taulukko35" displayName="Taulukko35" ref="A3:H11" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
   <autoFilter ref="A3:H11" xr:uid="{B3E452C3-2164-466A-9D0F-8B0E75417263}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{880ECD30-222F-4289-B145-C28E270B284F}" name="Dataset" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{B4464E0A-E761-4880-BF7C-9A11873A5302}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{5DE80D9C-5A4E-4780-BC4F-081A55BF1DE3}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{1ABEECFF-50C3-4FD7-ABDC-2F06667EE645}" name="CenterNet Resnet50 V2 512x512" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{C2B29853-8E82-4A57-9813-34DE43F64F99}" name="EfficientDet D0 512x512" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{A7C8BC60-765E-477C-8E4D-BD9E31752DC7}" name="SSD MobileNet V2 320x320" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{FC900ABD-546A-49FB-8295-0A46C66A64D7}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{8C8DBE16-BE07-4923-BB3E-89AB582FA60B}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{880ECD30-222F-4289-B145-C28E270B284F}" name="Dataset" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{B4464E0A-E761-4880-BF7C-9A11873A5302}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{5DE80D9C-5A4E-4780-BC4F-081A55BF1DE3}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{1ABEECFF-50C3-4FD7-ABDC-2F06667EE645}" name="CenterNet Resnet50 V2 512x512" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{C2B29853-8E82-4A57-9813-34DE43F64F99}" name="EfficientDet D0 512x512" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{A7C8BC60-765E-477C-8E4D-BD9E31752DC7}" name="SSD MobileNet V2 320x320" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{FC900ABD-546A-49FB-8295-0A46C66A64D7}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{8C8DBE16-BE07-4923-BB3E-89AB582FA60B}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{69C492AE-4330-43F4-A406-326A84667C0D}" name="Taulukko357" displayName="Taulukko357" ref="A59:H67" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{69C492AE-4330-43F4-A406-326A84667C0D}" name="Taulukko357" displayName="Taulukko357" ref="A59:H67" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" tableBorderDxfId="88">
   <autoFilter ref="A59:H67" xr:uid="{69C492AE-4330-43F4-A406-326A84667C0D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:H67">
     <sortCondition descending="1" ref="E21:E29"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{86B84A50-A787-46FB-AB84-28C2E1A1664E}" name="Dataset" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{2D0BE662-C172-4DA2-9BB3-0FB22CE17A31}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{718B4359-BF16-4ED0-9303-4C3768029CE0}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{1C7A38F2-BC0D-4589-BD69-4C9D96E3FF25}" name="CenterNet Resnet50 V2 512x512" dataDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{A6173992-418F-4D0E-B873-342F3FC1FEF8}" name="EfficientDet D0 512x512" dataDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{7EFFAC97-CB5E-4B74-9433-A0FFB5281AE7}" name="SSD MobileNet V2 320x320" dataDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{A3A5E7BE-FF22-4BC4-913E-13BFDE5D1ADE}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{41093458-B747-4F04-BC5A-D25C882E8F76}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{86B84A50-A787-46FB-AB84-28C2E1A1664E}" name="Dataset" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{2D0BE662-C172-4DA2-9BB3-0FB22CE17A31}" name="CenterNet Resnet101 V1 FPN 512x512" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{718B4359-BF16-4ED0-9303-4C3768029CE0}" name="CenterNet Resnet50 V1 FPN 512x512" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{1C7A38F2-BC0D-4589-BD69-4C9D96E3FF25}" name="CenterNet Resnet50 V2 512x512" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{A6173992-418F-4D0E-B873-342F3FC1FEF8}" name="EfficientDet D0 512x512" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{7EFFAC97-CB5E-4B74-9433-A0FFB5281AE7}" name="SSD MobileNet V2 320x320" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{A3A5E7BE-FF22-4BC4-913E-13BFDE5D1ADE}" name="SSD MobileNet V2 FPNLite 320x320" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{41093458-B747-4F04-BC5A-D25C882E8F76}" name="SSD MobileNet V2 FPNLite 640x640" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9457,10 +9381,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{BEEF972C-1987-4881-B8F6-F591BFD99603}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9829,10 +9753,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{1266EBDB-C2E1-4141-8ECE-02454240A969}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10201,10 +10125,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{C8F52B66-9CE3-464B-B51D-E624DD71AC13}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10573,10 +10497,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{2483C3E1-6740-49A9-9074-48449EDD9F6C}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10948,10 +10872,10 @@
   </sheetData>
   <autoFilter ref="A2:H14" xr:uid="{08343ED5-BF34-42A7-829C-7A4E8265DB9B}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10965,7 +10889,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10982,21 +10906,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -12153,10 +12077,10 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C36:E41 G36:H41 C8:E13 G8:H13">
-    <cfRule type="expression" dxfId="101" priority="35">
+    <cfRule type="expression" dxfId="79" priority="35">
       <formula>C8=MAX($D8:$J8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="36">
+    <cfRule type="expression" dxfId="78" priority="36">
       <formula>C8=MIN($D8:$J8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12167,9 +12091,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FC178-1570-4A24-833C-FB454C56613D}">
-  <dimension ref="B2:AD20"/>
+  <dimension ref="B2:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -12195,7 +12119,7 @@
     <col min="20" max="20" width="12.5703125" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -12879,73 +12803,73 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="99" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="29">
         <v>19.2</v>
       </c>
-      <c r="D9" s="108">
+      <c r="D9" s="100">
         <f t="shared" si="1"/>
         <v>0.20634374999999994</v>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="101">
         <v>15.238200000000001</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F9" s="100">
         <f t="shared" si="0"/>
         <v>0.17616666666666661</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="101">
         <v>15.817600000000001</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="100">
         <f t="shared" ref="H9" si="40">($C9-I9)/($C9)</f>
         <v>0.218296875</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="102">
         <v>15.008699999999999</v>
       </c>
-      <c r="J9" s="108">
+      <c r="J9" s="100">
         <f t="shared" ref="J9" si="41">($C9-K9)/($C9)</f>
         <v>0.52083333333333337</v>
       </c>
       <c r="K9" s="30">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L9" s="108">
+      <c r="L9" s="100">
         <f t="shared" ref="L9" si="42">($C9-M9)/($C9)</f>
         <v>0.51041666666666663</v>
       </c>
       <c r="M9" s="30">
         <v>9.4</v>
       </c>
-      <c r="N9" s="108">
+      <c r="N9" s="100">
         <f t="shared" ref="N9" si="43">($C9-O9)/($C9)</f>
         <v>0.53125</v>
       </c>
       <c r="O9" s="29">
         <v>9</v>
       </c>
-      <c r="P9" s="108">
+      <c r="P9" s="100">
         <f t="shared" ref="P9" si="44">($C9-Q9)/($C9)</f>
         <v>0.8363124999999999</v>
       </c>
-      <c r="Q9" s="109">
+      <c r="Q9" s="101">
         <v>3.1427999999999998</v>
       </c>
-      <c r="R9" s="108">
+      <c r="R9" s="100">
         <f t="shared" ref="R9" si="45">($C9-S9)/($C9)</f>
         <v>0.83259895833333331</v>
       </c>
-      <c r="S9" s="109">
+      <c r="S9" s="101">
         <v>3.2141000000000002</v>
       </c>
-      <c r="T9" s="108">
+      <c r="T9" s="100">
         <f t="shared" ref="T9" si="46">($C9-U9)/($C9)</f>
         <v>0.82095312500000006</v>
       </c>
-      <c r="U9" s="110">
+      <c r="U9" s="102">
         <v>3.4377</v>
       </c>
       <c r="W9" s="92" t="s">
@@ -12977,93 +12901,93 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="112">
-        <f>AVERAGE(C3:C9)</f>
+      <c r="C10" s="104">
+        <f t="shared" ref="C10:U10" si="47">AVERAGE(C3:C9)</f>
         <v>21.042857142857141</v>
       </c>
-      <c r="D10" s="113">
-        <f>AVERAGE(D3:D9)</f>
+      <c r="D10" s="105">
+        <f t="shared" si="47"/>
         <v>0.15250165253879139</v>
       </c>
-      <c r="E10" s="114">
-        <f>AVERAGE(E3:E9)</f>
+      <c r="E10" s="106">
+        <f t="shared" si="47"/>
         <v>17.875142857142858</v>
       </c>
-      <c r="F10" s="113">
-        <f>AVERAGE(F3:F9)</f>
+      <c r="F10" s="105">
+        <f t="shared" si="47"/>
         <v>0.13376112138684609</v>
       </c>
-      <c r="G10" s="114">
-        <f>AVERAGE(G3:G9)</f>
+      <c r="G10" s="106">
+        <f t="shared" si="47"/>
         <v>18.261571428571429</v>
       </c>
-      <c r="H10" s="113">
-        <f>AVERAGE(H3:H9)</f>
+      <c r="H10" s="105">
+        <f t="shared" si="47"/>
         <v>0.17656212535160881</v>
       </c>
-      <c r="I10" s="114">
-        <f>AVERAGE(I3:I9)</f>
+      <c r="I10" s="106">
+        <f t="shared" si="47"/>
         <v>17.369028571428569</v>
       </c>
-      <c r="J10" s="113">
-        <f>AVERAGE(J3:J9)</f>
+      <c r="J10" s="105">
+        <f t="shared" si="47"/>
         <v>0.4373044587796297</v>
       </c>
-      <c r="K10" s="114">
-        <f>AVERAGE(K3:K9)</f>
+      <c r="K10" s="106">
+        <f t="shared" si="47"/>
         <v>11.914285714285715</v>
       </c>
-      <c r="L10" s="113">
-        <f>AVERAGE(L3:L9)</f>
+      <c r="L10" s="105">
+        <f t="shared" si="47"/>
         <v>0.42165315503612238</v>
       </c>
-      <c r="M10" s="114">
-        <f>AVERAGE(M3:M9)</f>
+      <c r="M10" s="106">
+        <f t="shared" si="47"/>
         <v>12.22857142857143</v>
       </c>
-      <c r="N10" s="113">
-        <f>AVERAGE(N3:N9)</f>
+      <c r="N10" s="105">
+        <f t="shared" si="47"/>
         <v>0.45429055413814484</v>
       </c>
-      <c r="O10" s="114">
-        <f>AVERAGE(O3:O9)</f>
+      <c r="O10" s="106">
+        <f t="shared" si="47"/>
         <v>11.542857142857143</v>
       </c>
-      <c r="P10" s="113">
-        <f>AVERAGE(P3:P9)</f>
+      <c r="P10" s="105">
+        <f t="shared" si="47"/>
         <v>0.76645005140565481</v>
       </c>
-      <c r="Q10" s="114">
-        <f>AVERAGE(Q3:Q9)</f>
+      <c r="Q10" s="106">
+        <f t="shared" si="47"/>
         <v>4.9502428571428565</v>
       </c>
-      <c r="R10" s="113">
-        <f>AVERAGE(R3:R9)</f>
+      <c r="R10" s="105">
+        <f t="shared" si="47"/>
         <v>0.76204685021805052</v>
       </c>
-      <c r="S10" s="114">
-        <f>AVERAGE(S3:S9)</f>
+      <c r="S10" s="106">
+        <f t="shared" si="47"/>
         <v>5.0424285714285721</v>
       </c>
-      <c r="T10" s="113">
-        <f>AVERAGE(T3:T9)</f>
+      <c r="T10" s="105">
+        <f t="shared" si="47"/>
         <v>0.74875137312118623</v>
       </c>
-      <c r="U10" s="115">
-        <f>AVERAGE(U3:U9)</f>
+      <c r="U10" s="107">
+        <f t="shared" si="47"/>
         <v>5.3239857142857137</v>
       </c>
-      <c r="W10" s="116"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="106"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="98"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="54" t="s">
@@ -13257,63 +13181,63 @@
         <v>20.5</v>
       </c>
       <c r="D14" s="94">
-        <f t="shared" ref="D14" si="47">($C14-E14)/($C14)</f>
+        <f t="shared" ref="D14" si="48">($C14-E14)/($C14)</f>
         <v>8.5375609756097537E-2</v>
       </c>
       <c r="E14" s="38">
         <v>18.7498</v>
       </c>
       <c r="F14" s="94">
-        <f t="shared" ref="F14" si="48">($C14-G14)/($C14)</f>
+        <f t="shared" ref="F14" si="49">($C14-G14)/($C14)</f>
         <v>8.2843902439024369E-2</v>
       </c>
       <c r="G14" s="38">
         <v>18.8017</v>
       </c>
       <c r="H14" s="94">
-        <f t="shared" ref="H14" si="49">($C14-I14)/($C14)</f>
+        <f t="shared" ref="H14" si="50">($C14-I14)/($C14)</f>
         <v>0.14389268292682925</v>
       </c>
       <c r="I14" s="38">
         <v>17.5502</v>
       </c>
       <c r="J14" s="94">
-        <f t="shared" ref="J14" si="50">($C14-K14)/($C14)</f>
+        <f t="shared" ref="J14" si="51">($C14-K14)/($C14)</f>
         <v>0.18048780487804875</v>
       </c>
       <c r="K14" s="15">
         <v>16.8</v>
       </c>
       <c r="L14" s="94">
-        <f t="shared" ref="L14" si="51">($C14-M14)/($C14)</f>
+        <f t="shared" ref="L14" si="52">($C14-M14)/($C14)</f>
         <v>0.17560975609756105</v>
       </c>
       <c r="M14" s="15">
         <v>16.899999999999999</v>
       </c>
       <c r="N14" s="94">
-        <f t="shared" ref="N14" si="52">($C14-O14)/($C14)</f>
+        <f t="shared" ref="N14" si="53">($C14-O14)/($C14)</f>
         <v>0.23902439024390246</v>
       </c>
       <c r="O14" s="15">
         <v>15.6</v>
       </c>
       <c r="P14" s="94">
-        <f t="shared" ref="P14" si="53">($C14-Q14)/($C14)</f>
+        <f t="shared" ref="P14" si="54">($C14-Q14)/($C14)</f>
         <v>0.37370731707317073</v>
       </c>
       <c r="Q14" s="38">
         <v>12.839</v>
       </c>
       <c r="R14" s="94">
-        <f t="shared" ref="R14" si="54">($C14-S14)/($C14)</f>
+        <f t="shared" ref="R14" si="55">($C14-S14)/($C14)</f>
         <v>0.3638390243902439</v>
       </c>
       <c r="S14" s="38">
         <v>13.0413</v>
       </c>
       <c r="T14" s="94">
-        <f t="shared" ref="T14" si="55">($C14-U14)/($C14)</f>
+        <f t="shared" ref="T14" si="56">($C14-U14)/($C14)</f>
         <v>0.44087317073170734</v>
       </c>
       <c r="U14" s="38">
@@ -13326,21 +13250,21 @@
         <v>20.5</v>
       </c>
       <c r="Y14" s="94">
-        <f t="shared" ref="Y14:Y19" si="56">($C14-Z14)/($C14)</f>
+        <f t="shared" ref="Y14:Y19" si="57">($C14-Z14)/($C14)</f>
         <v>8.5375609756097537E-2</v>
       </c>
       <c r="Z14" s="38">
         <v>18.7498</v>
       </c>
       <c r="AA14" s="94">
-        <f t="shared" ref="AA14:AA19" si="57">($C14-AB14)/($C14)</f>
+        <f t="shared" ref="AA14:AA19" si="58">($C14-AB14)/($C14)</f>
         <v>8.2843902439024369E-2</v>
       </c>
       <c r="AB14" s="38">
         <v>18.8017</v>
       </c>
       <c r="AC14" s="94">
-        <f t="shared" ref="AC14:AC19" si="58">($C14-AD14)/($C14)</f>
+        <f t="shared" ref="AC14:AC19" si="59">($C14-AD14)/($C14)</f>
         <v>0.14389268292682925</v>
       </c>
       <c r="AD14" s="38">
@@ -13355,63 +13279,63 @@
         <v>19.8</v>
       </c>
       <c r="D15" s="94">
-        <f t="shared" ref="D15" si="59">($C15-E15)/($C15)</f>
+        <f t="shared" ref="D15" si="60">($C15-E15)/($C15)</f>
         <v>8.1080808080808059E-2</v>
       </c>
       <c r="E15" s="38">
         <v>18.194600000000001</v>
       </c>
       <c r="F15" s="94">
-        <f t="shared" ref="F15" si="60">($C15-G15)/($C15)</f>
+        <f t="shared" ref="F15" si="61">($C15-G15)/($C15)</f>
         <v>8.8762626262626279E-2</v>
       </c>
       <c r="G15" s="38">
         <v>18.0425</v>
       </c>
       <c r="H15" s="94">
-        <f t="shared" ref="H15" si="61">($C15-I15)/($C15)</f>
+        <f t="shared" ref="H15" si="62">($C15-I15)/($C15)</f>
         <v>0.13746969696969705</v>
       </c>
       <c r="I15" s="38">
         <v>17.078099999999999</v>
       </c>
       <c r="J15" s="94">
-        <f t="shared" ref="J15" si="62">($C15-K15)/($C15)</f>
+        <f t="shared" ref="J15" si="63">($C15-K15)/($C15)</f>
         <v>0.16161616161616157</v>
       </c>
       <c r="K15" s="15">
         <v>16.600000000000001</v>
       </c>
       <c r="L15" s="94">
-        <f t="shared" ref="L15" si="63">($C15-M15)/($C15)</f>
+        <f t="shared" ref="L15" si="64">($C15-M15)/($C15)</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="M15" s="15">
         <v>16.5</v>
       </c>
       <c r="N15" s="94">
-        <f t="shared" ref="N15" si="64">($C15-O15)/($C15)</f>
+        <f t="shared" ref="N15" si="65">($C15-O15)/($C15)</f>
         <v>0.22727272727272727</v>
       </c>
       <c r="O15" s="15">
         <v>15.3</v>
       </c>
       <c r="P15" s="94">
-        <f t="shared" ref="P15" si="65">($C15-Q15)/($C15)</f>
+        <f t="shared" ref="P15" si="66">($C15-Q15)/($C15)</f>
         <v>0.36316161616161613</v>
       </c>
       <c r="Q15" s="38">
         <v>12.609400000000001</v>
       </c>
       <c r="R15" s="94">
-        <f t="shared" ref="R15" si="66">($C15-S15)/($C15)</f>
+        <f t="shared" ref="R15" si="67">($C15-S15)/($C15)</f>
         <v>0.35580303030303029</v>
       </c>
       <c r="S15" s="38">
         <v>12.755100000000001</v>
       </c>
       <c r="T15" s="94">
-        <f t="shared" ref="T15" si="67">($C15-U15)/($C15)</f>
+        <f t="shared" ref="T15" si="68">($C15-U15)/($C15)</f>
         <v>0.41767171717171725</v>
       </c>
       <c r="U15" s="38">
@@ -13424,21 +13348,21 @@
         <v>19.8</v>
       </c>
       <c r="Y15" s="94">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8.1080808080808059E-2</v>
       </c>
       <c r="Z15" s="38">
         <v>18.194600000000001</v>
       </c>
       <c r="AA15" s="94">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>8.8762626262626279E-2</v>
       </c>
       <c r="AB15" s="38">
         <v>18.0425</v>
       </c>
       <c r="AC15" s="94">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.13746969696969705</v>
       </c>
       <c r="AD15" s="38">
@@ -13453,63 +13377,63 @@
         <v>26.9</v>
       </c>
       <c r="D16" s="94">
-        <f t="shared" ref="D16" si="68">($C16-E16)/($C16)</f>
+        <f t="shared" ref="D16" si="69">($C16-E16)/($C16)</f>
         <v>4.2847583643122668E-2</v>
       </c>
       <c r="E16" s="39">
         <v>25.747399999999999</v>
       </c>
       <c r="F16" s="94">
-        <f t="shared" ref="F16" si="69">($C16-G16)/($C16)</f>
+        <f t="shared" ref="F16" si="70">($C16-G16)/($C16)</f>
         <v>3.7144981412639347E-2</v>
       </c>
       <c r="G16" s="38">
         <v>25.9008</v>
       </c>
       <c r="H16" s="94">
-        <f t="shared" ref="H16" si="70">($C16-I16)/($C16)</f>
+        <f t="shared" ref="H16" si="71">($C16-I16)/($C16)</f>
         <v>8.1784386617100344E-2</v>
       </c>
       <c r="I16" s="38">
         <v>24.7</v>
       </c>
       <c r="J16" s="94">
-        <f t="shared" ref="J16" si="71">($C16-K16)/($C16)</f>
+        <f t="shared" ref="J16" si="72">($C16-K16)/($C16)</f>
         <v>0.10780669144981408</v>
       </c>
       <c r="K16" s="15">
         <v>24</v>
       </c>
       <c r="L16" s="94">
-        <f t="shared" ref="L16" si="72">($C16-M16)/($C16)</f>
+        <f t="shared" ref="L16" si="73">($C16-M16)/($C16)</f>
         <v>0.10037174721189589</v>
       </c>
       <c r="M16" s="15">
         <v>24.2</v>
       </c>
       <c r="N16" s="94">
-        <f t="shared" ref="N16" si="73">($C16-O16)/($C16)</f>
+        <f t="shared" ref="N16" si="74">($C16-O16)/($C16)</f>
         <v>0.15985130111524154</v>
       </c>
       <c r="O16" s="15">
         <v>22.6</v>
       </c>
       <c r="P16" s="94">
-        <f t="shared" ref="P16" si="74">($C16-Q16)/($C16)</f>
+        <f t="shared" ref="P16" si="75">($C16-Q16)/($C16)</f>
         <v>0.26012639405204457</v>
       </c>
       <c r="Q16" s="39">
         <v>19.9026</v>
       </c>
       <c r="R16" s="94">
-        <f t="shared" ref="R16" si="75">($C16-S16)/($C16)</f>
+        <f t="shared" ref="R16" si="76">($C16-S16)/($C16)</f>
         <v>0.25261412639405206</v>
       </c>
       <c r="S16" s="38">
         <v>20.104679999999998</v>
       </c>
       <c r="T16" s="94">
-        <f t="shared" ref="T16" si="76">($C16-U16)/($C16)</f>
+        <f t="shared" ref="T16" si="77">($C16-U16)/($C16)</f>
         <v>0.33457249070631973</v>
       </c>
       <c r="U16" s="38">
@@ -13522,21 +13446,21 @@
         <v>26.9</v>
       </c>
       <c r="Y16" s="94">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.2847583643122668E-2</v>
       </c>
       <c r="Z16" s="39">
         <v>25.747399999999999</v>
       </c>
       <c r="AA16" s="94">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3.7144981412639347E-2</v>
       </c>
       <c r="AB16" s="38">
         <v>25.9008</v>
       </c>
       <c r="AC16" s="94">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>8.1784386617100344E-2</v>
       </c>
       <c r="AD16" s="38">
@@ -13551,63 +13475,63 @@
         <v>18.100000000000001</v>
       </c>
       <c r="D17" s="94">
-        <f t="shared" ref="D17" si="77">($C17-E17)/($C17)</f>
+        <f t="shared" ref="D17" si="78">($C17-E17)/($C17)</f>
         <v>3.8674033149171422E-2</v>
       </c>
       <c r="E17" s="39">
         <v>17.399999999999999</v>
       </c>
       <c r="F17" s="94">
-        <f t="shared" ref="F17" si="78">($C17-G17)/($C17)</f>
+        <f t="shared" ref="F17" si="79">($C17-G17)/($C17)</f>
         <v>3.1331491712707174E-2</v>
       </c>
       <c r="G17" s="38">
         <v>17.532900000000001</v>
       </c>
       <c r="H17" s="94">
-        <f t="shared" ref="H17" si="79">($C17-I17)/($C17)</f>
+        <f t="shared" ref="H17" si="80">($C17-I17)/($C17)</f>
         <v>8.8480662983425495E-2</v>
       </c>
       <c r="I17" s="38">
         <v>16.4985</v>
       </c>
       <c r="J17" s="94">
-        <f t="shared" ref="J17" si="80">($C17-K17)/($C17)</f>
+        <f t="shared" ref="J17" si="81">($C17-K17)/($C17)</f>
         <v>9.9447513812154734E-2</v>
       </c>
       <c r="K17" s="15">
         <v>16.3</v>
       </c>
       <c r="L17" s="94">
-        <f t="shared" ref="L17" si="81">($C17-M17)/($C17)</f>
+        <f t="shared" ref="L17" si="82">($C17-M17)/($C17)</f>
         <v>9.9447513812154734E-2</v>
       </c>
       <c r="M17" s="15">
         <v>16.3</v>
       </c>
       <c r="N17" s="94">
-        <f t="shared" ref="N17" si="82">($C17-O17)/($C17)</f>
+        <f t="shared" ref="N17" si="83">($C17-O17)/($C17)</f>
         <v>0.17127071823204426</v>
       </c>
       <c r="O17" s="15">
         <v>15</v>
       </c>
       <c r="P17" s="94">
-        <f t="shared" ref="P17" si="83">($C17-Q17)/($C17)</f>
+        <f t="shared" ref="P17" si="84">($C17-Q17)/($C17)</f>
         <v>0.25966850828729288</v>
       </c>
       <c r="Q17" s="38">
         <v>13.4</v>
       </c>
       <c r="R17" s="94">
-        <f t="shared" ref="R17" si="84">($C17-S17)/($C17)</f>
+        <f t="shared" ref="R17" si="85">($C17-S17)/($C17)</f>
         <v>0.25132044198895032</v>
       </c>
       <c r="S17" s="38">
         <v>13.5511</v>
       </c>
       <c r="T17" s="94">
-        <f t="shared" ref="T17" si="85">($C17-U17)/($C17)</f>
+        <f t="shared" ref="T17" si="86">($C17-U17)/($C17)</f>
         <v>0.34106077348066305</v>
       </c>
       <c r="U17" s="38">
@@ -13620,21 +13544,21 @@
         <v>18.100000000000001</v>
       </c>
       <c r="Y17" s="94">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.8674033149171422E-2</v>
       </c>
       <c r="Z17" s="39">
         <v>17.399999999999999</v>
       </c>
       <c r="AA17" s="94">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3.1331491712707174E-2</v>
       </c>
       <c r="AB17" s="38">
         <v>17.532900000000001</v>
       </c>
       <c r="AC17" s="94">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>8.8480662983425495E-2</v>
       </c>
       <c r="AD17" s="38">
@@ -13649,63 +13573,63 @@
         <v>18.7</v>
       </c>
       <c r="D18" s="94">
-        <f t="shared" ref="D18" si="86">($C18-E18)/($C18)</f>
+        <f t="shared" ref="D18" si="87">($C18-E18)/($C18)</f>
         <v>6.4475935828877021E-2</v>
       </c>
       <c r="E18" s="38">
         <v>17.494299999999999</v>
       </c>
       <c r="F18" s="94">
-        <f t="shared" ref="F18" si="87">($C18-G18)/($C18)</f>
+        <f t="shared" ref="F18" si="88">($C18-G18)/($C18)</f>
         <v>5.3197860962566734E-2</v>
       </c>
       <c r="G18" s="38">
         <v>17.705200000000001</v>
       </c>
       <c r="H18" s="94">
-        <f t="shared" ref="H18" si="88">($C18-I18)/($C18)</f>
+        <f t="shared" ref="H18" si="89">($C18-I18)/($C18)</f>
         <v>0.11579679144385017</v>
       </c>
       <c r="I18" s="38">
         <v>16.534600000000001</v>
       </c>
       <c r="J18" s="94">
-        <f t="shared" ref="J18" si="89">($C18-K18)/($C18)</f>
+        <f t="shared" ref="J18" si="90">($C18-K18)/($C18)</f>
         <v>0.14973262032085558</v>
       </c>
       <c r="K18" s="15">
         <v>15.9</v>
       </c>
       <c r="L18" s="94">
-        <f t="shared" ref="L18" si="90">($C18-M18)/($C18)</f>
+        <f t="shared" ref="L18" si="91">($C18-M18)/($C18)</f>
         <v>0.14438502673796788</v>
       </c>
       <c r="M18" s="15">
         <v>16</v>
       </c>
       <c r="N18" s="94">
-        <f t="shared" ref="N18" si="91">($C18-O18)/($C18)</f>
+        <f t="shared" ref="N18" si="92">($C18-O18)/($C18)</f>
         <v>0.21925133689839571</v>
       </c>
       <c r="O18" s="15">
         <v>14.6</v>
       </c>
       <c r="P18" s="94">
-        <f t="shared" ref="P18" si="92">($C18-Q18)/($C18)</f>
+        <f t="shared" ref="P18" si="93">($C18-Q18)/($C18)</f>
         <v>0.32922459893048128</v>
       </c>
       <c r="Q18" s="38">
         <v>12.5435</v>
       </c>
       <c r="R18" s="94">
-        <f t="shared" ref="R18" si="93">($C18-S18)/($C18)</f>
+        <f t="shared" ref="R18" si="94">($C18-S18)/($C18)</f>
         <v>0.31319251336898396</v>
       </c>
       <c r="S18" s="38">
         <v>12.843299999999999</v>
       </c>
       <c r="T18" s="94">
-        <f t="shared" ref="T18" si="94">($C18-U18)/($C18)</f>
+        <f t="shared" ref="T18" si="95">($C18-U18)/($C18)</f>
         <v>0.4148609625668449</v>
       </c>
       <c r="U18" s="38">
@@ -13718,21 +13642,21 @@
         <v>18.7</v>
       </c>
       <c r="Y18" s="94">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>6.4475935828877021E-2</v>
       </c>
       <c r="Z18" s="38">
         <v>17.494299999999999</v>
       </c>
       <c r="AA18" s="94">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5.3197860962566734E-2</v>
       </c>
       <c r="AB18" s="38">
         <v>17.705200000000001</v>
       </c>
       <c r="AC18" s="94">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.11579679144385017</v>
       </c>
       <c r="AD18" s="38">
@@ -13740,63 +13664,63 @@
       </c>
     </row>
     <row r="19" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="99" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="15">
         <v>19.2</v>
       </c>
       <c r="D19" s="94">
-        <f t="shared" ref="D19" si="95">($C19-E19)/($C19)</f>
+        <f t="shared" ref="D19" si="96">($C19-E19)/($C19)</f>
         <v>0.10123958333333331</v>
       </c>
       <c r="E19" s="71">
         <v>17.2562</v>
       </c>
       <c r="F19" s="94">
-        <f t="shared" ref="F19" si="96">($C19-G19)/($C19)</f>
+        <f t="shared" ref="F19" si="97">($C19-G19)/($C19)</f>
         <v>9.4458333333333394E-2</v>
       </c>
       <c r="G19" s="71">
         <v>17.386399999999998</v>
       </c>
       <c r="H19" s="94">
-        <f t="shared" ref="H19" si="97">($C19-I19)/($C19)</f>
+        <f t="shared" ref="H19" si="98">($C19-I19)/($C19)</f>
         <v>0.16674999999999995</v>
       </c>
       <c r="I19" s="71">
         <v>15.9984</v>
       </c>
       <c r="J19" s="94">
-        <f t="shared" ref="J19" si="98">($C19-K19)/($C19)</f>
+        <f t="shared" ref="J19" si="99">($C19-K19)/($C19)</f>
         <v>0.20312499999999994</v>
       </c>
       <c r="K19" s="27">
         <v>15.3</v>
       </c>
       <c r="L19" s="94">
-        <f t="shared" ref="L19" si="99">($C19-M19)/($C19)</f>
+        <f t="shared" ref="L19" si="100">($C19-M19)/($C19)</f>
         <v>0.19791666666666663</v>
       </c>
       <c r="M19" s="27">
         <v>15.4</v>
       </c>
       <c r="N19" s="94">
-        <f t="shared" ref="N19" si="100">($C19-O19)/($C19)</f>
+        <f t="shared" ref="N19" si="101">($C19-O19)/($C19)</f>
         <v>0.28124999999999994</v>
       </c>
       <c r="O19" s="27">
         <v>13.8</v>
       </c>
       <c r="P19" s="94">
-        <f t="shared" ref="P19" si="101">($C19-Q19)/($C19)</f>
+        <f t="shared" ref="P19" si="102">($C19-Q19)/($C19)</f>
         <v>0.4186822916666666</v>
       </c>
       <c r="Q19" s="71">
         <v>11.161300000000001</v>
       </c>
       <c r="R19" s="94">
-        <f t="shared" ref="R19" si="102">($C19-S19)/($C19)</f>
+        <f t="shared" ref="R19" si="103">($C19-S19)/($C19)</f>
         <v>0.40582291666666659</v>
       </c>
       <c r="S19" s="71">
@@ -13816,21 +13740,21 @@
         <v>19.2</v>
       </c>
       <c r="Y19" s="94">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.10123958333333331</v>
       </c>
       <c r="Z19" s="71">
         <v>17.2562</v>
       </c>
       <c r="AA19" s="94">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>9.4458333333333394E-2</v>
       </c>
       <c r="AB19" s="71">
         <v>17.386399999999998</v>
       </c>
       <c r="AC19" s="94">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.16674999999999995</v>
       </c>
       <c r="AD19" s="38">
@@ -13838,305 +13762,433 @@
       </c>
     </row>
     <row r="20" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="112">
-        <f>AVERAGE(C13:C19)</f>
+      <c r="C20" s="104">
+        <f t="shared" ref="C20:U20" si="104">AVERAGE(C13:C19)</f>
         <v>21.042857142857141</v>
       </c>
-      <c r="D20" s="113">
-        <f>AVERAGE(D13:D19)</f>
+      <c r="D20" s="105">
+        <f t="shared" si="104"/>
         <v>7.0265646985020636E-2</v>
       </c>
-      <c r="E20" s="114">
-        <f>AVERAGE(E13:E19)</f>
+      <c r="E20" s="106">
+        <f t="shared" si="104"/>
         <v>19.579785714285713</v>
       </c>
-      <c r="F20" s="113">
-        <f>AVERAGE(F13:F19)</f>
+      <c r="F20" s="105">
+        <f t="shared" si="104"/>
         <v>6.5962742303271038E-2</v>
       </c>
-      <c r="G20" s="114">
-        <f>AVERAGE(G13:G19)</f>
+      <c r="G20" s="106">
+        <f t="shared" si="104"/>
         <v>19.669442857142858</v>
       </c>
-      <c r="H20" s="113">
-        <f>AVERAGE(H13:H19)</f>
+      <c r="H20" s="105">
+        <f t="shared" si="104"/>
         <v>0.1219430866904312</v>
       </c>
-      <c r="I20" s="114">
-        <f>AVERAGE(I13:I19)</f>
+      <c r="I20" s="106">
+        <f t="shared" si="104"/>
         <v>18.511657142857139</v>
       </c>
-      <c r="J20" s="113">
-        <f>AVERAGE(J13:J19)</f>
+      <c r="J20" s="105">
+        <f t="shared" si="104"/>
         <v>0.15022762649114724</v>
       </c>
-      <c r="K20" s="114">
-        <f>AVERAGE(K13:K19)</f>
+      <c r="K20" s="106">
+        <f t="shared" si="104"/>
         <v>17.914285714285715</v>
       </c>
-      <c r="L20" s="113">
-        <f>AVERAGE(L13:L19)</f>
+      <c r="L20" s="105">
+        <f t="shared" si="104"/>
         <v>0.14708937042293538</v>
       </c>
-      <c r="M20" s="114">
-        <f>AVERAGE(M13:M19)</f>
+      <c r="M20" s="106">
+        <f t="shared" si="104"/>
         <v>17.985714285714288</v>
       </c>
-      <c r="N20" s="113">
-        <f>AVERAGE(N13:N19)</f>
+      <c r="N20" s="105">
+        <f t="shared" si="104"/>
         <v>0.21624115837386904</v>
       </c>
-      <c r="O20" s="114">
-        <f>AVERAGE(O13:O19)</f>
+      <c r="O20" s="106">
+        <f t="shared" si="104"/>
         <v>16.542857142857141</v>
       </c>
-      <c r="P20" s="113">
-        <f>AVERAGE(P13:P19)</f>
+      <c r="P20" s="105">
+        <f t="shared" si="104"/>
         <v>0.33345438352535656</v>
       </c>
-      <c r="Q20" s="114">
-        <f>AVERAGE(Q13:Q19)</f>
+      <c r="Q20" s="106">
+        <f t="shared" si="104"/>
         <v>14.087457142857144</v>
       </c>
-      <c r="R20" s="113">
-        <f>AVERAGE(R13:R19)</f>
+      <c r="R20" s="105">
+        <f t="shared" si="104"/>
         <v>0.32416104611735291</v>
       </c>
-      <c r="S20" s="114">
-        <f>AVERAGE(S13:S19)</f>
+      <c r="S20" s="106">
+        <f t="shared" si="104"/>
         <v>14.276311428571429</v>
       </c>
-      <c r="T20" s="113">
-        <f>AVERAGE(T13:T19)</f>
+      <c r="T20" s="105">
+        <f t="shared" si="104"/>
         <v>0.40297381604864524</v>
       </c>
-      <c r="U20" s="115">
-        <f>AVERAGE(U13:U19)</f>
+      <c r="U20" s="107">
+        <f t="shared" si="104"/>
         <v>12.633342857142855</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="W22" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="X22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y22" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z22" s="93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="W23" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23" s="15">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Y23" s="94">
+        <f>($X23-Z23)/($X23)</f>
+        <v>0.2953216374269006</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="W24" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="15">
+        <v>31.2</v>
+      </c>
+      <c r="Y24" s="117">
+        <f>($X24-Z24)/($X24)</f>
+        <v>0.34294871794871795</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="W25" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="Y25" s="94">
+        <f t="shared" ref="Y25:Y29" si="105">($X25-Z25)/($X25)</f>
+        <v>0.32881355932203388</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="W26" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="15">
+        <v>33.6</v>
+      </c>
+      <c r="Y26" s="94">
+        <f t="shared" si="105"/>
+        <v>0.19940476190476197</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="W27" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="X27" s="15">
+        <v>20.2</v>
+      </c>
+      <c r="Y27" s="118">
+        <f t="shared" si="105"/>
+        <v>0.10396039603960386</v>
+      </c>
+      <c r="Z27" s="15">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="W28" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="X28" s="15">
+        <v>22.2</v>
+      </c>
+      <c r="Y28" s="94">
+        <f t="shared" si="105"/>
+        <v>0.15765765765765766</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="W29" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29" s="15">
+        <v>28.1</v>
+      </c>
+      <c r="Y29" s="94">
+        <f t="shared" si="105"/>
+        <v>0.31672597864768687</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>19.2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13:F19">
-    <cfRule type="expression" dxfId="99" priority="143">
+    <cfRule type="expression" dxfId="77" priority="145">
       <formula>F13=MIN(F$13:F$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="145">
+    <cfRule type="expression" dxfId="76" priority="147">
       <formula>F13=MAX(F$13:F$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D19">
-    <cfRule type="expression" dxfId="97" priority="141">
+    <cfRule type="expression" dxfId="75" priority="143">
       <formula>D13=MIN(D$13:D$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="142">
+    <cfRule type="expression" dxfId="74" priority="144">
       <formula>D13=MAX(D$13:D$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H19">
-    <cfRule type="expression" dxfId="95" priority="139">
+    <cfRule type="expression" dxfId="73" priority="141">
       <formula>H13=MIN(H$13:H$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="140">
+    <cfRule type="expression" dxfId="72" priority="142">
       <formula>H13=MAX(H$13:H$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J19">
-    <cfRule type="expression" dxfId="93" priority="137">
+    <cfRule type="expression" dxfId="71" priority="139">
       <formula>J13=MIN(J$13:J$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="138">
+    <cfRule type="expression" dxfId="70" priority="140">
       <formula>J13=MAX(J$13:J$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L19">
-    <cfRule type="expression" dxfId="91" priority="135">
+    <cfRule type="expression" dxfId="69" priority="137">
       <formula>L13=MIN(L$13:L$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="136">
+    <cfRule type="expression" dxfId="68" priority="138">
       <formula>L13=MAX(L$13:L$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N19">
-    <cfRule type="expression" dxfId="89" priority="133">
+    <cfRule type="expression" dxfId="67" priority="135">
       <formula>N13=MIN(N$13:N$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="134">
+    <cfRule type="expression" dxfId="66" priority="136">
       <formula>N13=MAX(N$13:N$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P19">
-    <cfRule type="expression" dxfId="87" priority="131">
+    <cfRule type="expression" dxfId="65" priority="133">
       <formula>P13=MIN(P$13:P$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="132">
+    <cfRule type="expression" dxfId="64" priority="134">
       <formula>P13=MAX(P$13:P$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R19">
-    <cfRule type="expression" dxfId="85" priority="129">
+    <cfRule type="expression" dxfId="63" priority="131">
       <formula>R13=MIN(R$13:R$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="130">
+    <cfRule type="expression" dxfId="62" priority="132">
       <formula>R13=MAX(R$13:R$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T19">
-    <cfRule type="expression" dxfId="83" priority="127">
+    <cfRule type="expression" dxfId="61" priority="129">
       <formula>T13=MIN(T$13:T$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="128">
+    <cfRule type="expression" dxfId="60" priority="130">
       <formula>T13=MAX(T$13:T$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D9">
-    <cfRule type="expression" dxfId="81" priority="113">
+    <cfRule type="expression" dxfId="59" priority="115">
       <formula>D3=MIN(D$3:D$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="114">
+    <cfRule type="expression" dxfId="58" priority="116">
       <formula>D3=MAX(D$3:D$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F9">
-    <cfRule type="expression" dxfId="79" priority="111">
+    <cfRule type="expression" dxfId="57" priority="113">
       <formula>F3=MIN(F$3:F$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="112">
+    <cfRule type="expression" dxfId="56" priority="114">
       <formula>F3=MAX(F$3:F$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="expression" dxfId="77" priority="109">
+    <cfRule type="expression" dxfId="55" priority="111">
       <formula>H3=MIN(H$3:H$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="110">
+    <cfRule type="expression" dxfId="54" priority="112">
       <formula>H3=MAX(H$3:H$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J9">
-    <cfRule type="expression" dxfId="75" priority="107">
+    <cfRule type="expression" dxfId="53" priority="109">
       <formula>J3=MIN(J$3:J$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="108">
+    <cfRule type="expression" dxfId="52" priority="110">
       <formula>J3=MAX(J$3:J$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L9">
-    <cfRule type="expression" dxfId="73" priority="105">
+    <cfRule type="expression" dxfId="51" priority="107">
       <formula>L3=MIN(L$3:L$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="106">
+    <cfRule type="expression" dxfId="50" priority="108">
       <formula>L3=MAX(L$3:L$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N9">
-    <cfRule type="expression" dxfId="71" priority="103">
+    <cfRule type="expression" dxfId="49" priority="105">
       <formula>N3=MIN(N$3:N$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="104">
+    <cfRule type="expression" dxfId="48" priority="106">
       <formula>N3=MAX(N$3:N$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P9">
-    <cfRule type="expression" dxfId="69" priority="101">
+    <cfRule type="expression" dxfId="47" priority="103">
       <formula>P3=MIN(P$3:P$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="102">
+    <cfRule type="expression" dxfId="46" priority="104">
       <formula>P3=MAX(P$3:P$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R9">
-    <cfRule type="expression" dxfId="67" priority="99">
+    <cfRule type="expression" dxfId="45" priority="101">
       <formula>R3=MIN(R$3:R$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="100">
+    <cfRule type="expression" dxfId="44" priority="102">
       <formula>R3=MAX(R$3:R$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T9">
-    <cfRule type="expression" dxfId="65" priority="97">
+    <cfRule type="expression" dxfId="43" priority="99">
       <formula>T3=MIN(T$3:T$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="98">
+    <cfRule type="expression" dxfId="42" priority="100">
       <formula>T3=MAX(T$3:T$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="expression" dxfId="63" priority="71">
+    <cfRule type="expression" dxfId="41" priority="73">
       <formula>Y10=MIN(Y$3:Y$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="72">
+    <cfRule type="expression" dxfId="40" priority="74">
       <formula>Y10=MAX(Y$3:Y$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="61" priority="69">
+    <cfRule type="expression" dxfId="39" priority="71">
       <formula>AA10=MIN(AA$3:AA$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="70">
+    <cfRule type="expression" dxfId="38" priority="72">
       <formula>AA10=MAX(AA$3:AA$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10">
-    <cfRule type="expression" dxfId="59" priority="67">
+    <cfRule type="expression" dxfId="37" priority="69">
       <formula>AC10=MIN(AC$3:AC$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="68">
+    <cfRule type="expression" dxfId="36" priority="70">
       <formula>AC10=MAX(AC$3:AC$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y9">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>Y3=MIN(Y$3:Y$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>Y3=MAX(Y$3:Y$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA9">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>AA3=MIN(AA$3:AA$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="32" priority="18">
       <formula>AA3=MAX(AA$3:AA$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC9">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>AC3=MIN(AC$3:AC$9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>AC3=MAX(AC$3:AC$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA19">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>AA13=MIN(AA$13:AA$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>AA13=MAX(AA$13:AA$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y19">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>Y13=MIN(Y$13:Y$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>Y13=MAX(Y$13:Y$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13:AC19">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>AC13=MIN(AC$13:AC$19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>AC13=MAX(AC$13:AC$19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23:Y29">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>Y23=MIN(Y$3:Y$9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>Y23=MAX(Y$3:Y$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14163,19 +14215,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
@@ -15253,24 +15305,24 @@
       <c r="A39" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="98"/>
+      <c r="C39" s="111"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="84"/>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="100"/>
+      <c r="C40" s="113"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="83"/>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="100"/>
+      <c r="C41" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15280,10 +15332,10 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D26:K28 D30:K32 D34:K36 D11:K13 D15:K17 D19:K21">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>D11=MAX($D11:$J11)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>D11=MIN($D11:$J11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15315,17 +15367,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="22" t="s">
@@ -16015,10 +16067,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:I9 C11:I13 C27:I29 C23:I25 C19:I21 C15:I17">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>C7=MAX($C7:$I7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>C7=MIN($C7:$I7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16049,18 +16101,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
@@ -17407,16 +17459,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
@@ -18234,10 +18286,10 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:H11 B62:H67">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="17" priority="43">
       <formula>B6=MAX($C3:$I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="16" priority="44">
       <formula>B6=MIN($C3:$I3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19068,18 +19120,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H15">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>B4=MAX($B4:$H4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>B4=MIN($B4:$H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H29">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>B18=MAX($B18:$H18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>B18=MIN($B18:$H18)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19448,10 +19500,10 @@
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{62B9D56D-98C2-4436-A041-2EBED815F363}"/>
   <conditionalFormatting sqref="B3:H14">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>B3=MAX($B3:$H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>B3=MIN($B3:$H3)</formula>
     </cfRule>
   </conditionalFormatting>
